--- a/DEMO/org.openl.rules.demo/data/openl-demo/design-repository/DESIGN/rules/Tutorial 6 - Introduction to Spreadsheet Tables/Tutorial6 - Intro to Spreadsheet Tables.xlsx
+++ b/DEMO/org.openl.rules.demo/data/openl-demo/design-repository/DESIGN/rules/Tutorial 6 - Introduction to Spreadsheet Tables/Tutorial6 - Intro to Spreadsheet Tables.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9E29D9-7F06-403B-99FC-39AE7CE0DDD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11685"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="27090" windowHeight="14070" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="7" r:id="rId1"/>
@@ -13,24 +14,24 @@
     <sheet name="Step3" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Step2!$C$11:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Step3!$C$11:$G$16</definedName>
     <definedName name="_st1">Step1!$C$8</definedName>
     <definedName name="_st11">Step1!$C$24</definedName>
     <definedName name="_st2">Step2!$C$8</definedName>
     <definedName name="_st3">Step3!$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Step2!$C$11:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Step3!$C$11:$G$16</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C42" authorId="0" shapeId="0">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0">
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G44" authorId="0" shapeId="0">
+    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0">
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -133,12 +134,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -148,11 +149,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Spreadsheet returns DoubleValue</t>
+          <t>Spreadsheet returns Double</t>
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0" shapeId="0">
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0">
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -301,12 +302,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F32" authorId="0" shapeId="0">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0">
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0" shapeId="0">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1079,66 +1080,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Spreadsheet DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>LossFreeDiscountCalc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="23"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Loss[] losses, Date currentDate)</t>
-    </r>
-  </si>
-  <si>
     <t>and Tests:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>LossFreeDiscount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="23"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (DoubleValue liabLosses)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1312,11 +1254,70 @@
   <si>
     <t>Test LossFreeDiscountCalc LossFreeDiscountCalcTest</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spreadsheet Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>LossFreeDiscountCalc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="23"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Loss[] losses, Date currentDate)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>LossFreeDiscount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="23"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Double liabLosses)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -4504,1890 +4505,1890 @@
     </xf>
   </cellXfs>
   <cellStyles count="1884">
-    <cellStyle name="20% - Accent1 10" xfId="42"/>
-    <cellStyle name="20% - Accent1 2" xfId="41"/>
-    <cellStyle name="20% - Accent1 3" xfId="40"/>
-    <cellStyle name="20% - Accent1 4" xfId="39"/>
-    <cellStyle name="20% - Accent1 5" xfId="38"/>
-    <cellStyle name="20% - Accent1 6" xfId="37"/>
-    <cellStyle name="20% - Accent1 7" xfId="36"/>
-    <cellStyle name="20% - Accent1 8" xfId="35"/>
-    <cellStyle name="20% - Accent1 9" xfId="34"/>
-    <cellStyle name="20% - Accent2 10" xfId="33"/>
-    <cellStyle name="20% - Accent2 2" xfId="25"/>
-    <cellStyle name="20% - Accent2 3" xfId="32"/>
-    <cellStyle name="20% - Accent2 4" xfId="31"/>
-    <cellStyle name="20% - Accent2 5" xfId="24"/>
-    <cellStyle name="20% - Accent2 6" xfId="30"/>
-    <cellStyle name="20% - Accent2 7" xfId="29"/>
-    <cellStyle name="20% - Accent2 8" xfId="26"/>
-    <cellStyle name="20% - Accent2 9" xfId="28"/>
-    <cellStyle name="20% - Accent3 10" xfId="27"/>
-    <cellStyle name="20% - Accent3 2" xfId="43"/>
-    <cellStyle name="20% - Accent3 3" xfId="44"/>
-    <cellStyle name="20% - Accent3 4" xfId="45"/>
-    <cellStyle name="20% - Accent3 5" xfId="46"/>
-    <cellStyle name="20% - Accent3 6" xfId="47"/>
-    <cellStyle name="20% - Accent3 7" xfId="48"/>
-    <cellStyle name="20% - Accent3 8" xfId="49"/>
-    <cellStyle name="20% - Accent3 9" xfId="50"/>
-    <cellStyle name="20% - Accent4 10" xfId="51"/>
-    <cellStyle name="20% - Accent4 2" xfId="52"/>
-    <cellStyle name="20% - Accent4 3" xfId="53"/>
-    <cellStyle name="20% - Accent4 4" xfId="54"/>
-    <cellStyle name="20% - Accent4 5" xfId="55"/>
-    <cellStyle name="20% - Accent4 6" xfId="56"/>
-    <cellStyle name="20% - Accent4 7" xfId="57"/>
-    <cellStyle name="20% - Accent4 8" xfId="58"/>
-    <cellStyle name="20% - Accent4 9" xfId="59"/>
-    <cellStyle name="20% - Accent5 10" xfId="60"/>
-    <cellStyle name="20% - Accent5 2" xfId="61"/>
-    <cellStyle name="20% - Accent5 3" xfId="62"/>
-    <cellStyle name="20% - Accent5 4" xfId="63"/>
-    <cellStyle name="20% - Accent5 5" xfId="64"/>
-    <cellStyle name="20% - Accent5 6" xfId="65"/>
-    <cellStyle name="20% - Accent5 7" xfId="66"/>
-    <cellStyle name="20% - Accent5 8" xfId="67"/>
-    <cellStyle name="20% - Accent5 9" xfId="68"/>
-    <cellStyle name="20% - Accent6 10" xfId="69"/>
-    <cellStyle name="20% - Accent6 2" xfId="70"/>
-    <cellStyle name="20% - Accent6 3" xfId="71"/>
-    <cellStyle name="20% - Accent6 4" xfId="72"/>
-    <cellStyle name="20% - Accent6 5" xfId="73"/>
-    <cellStyle name="20% - Accent6 6" xfId="74"/>
-    <cellStyle name="20% - Accent6 7" xfId="75"/>
-    <cellStyle name="20% - Accent6 8" xfId="76"/>
-    <cellStyle name="20% - Accent6 9" xfId="77"/>
-    <cellStyle name="40% - Accent1 10" xfId="78"/>
-    <cellStyle name="40% - Accent1 2" xfId="79"/>
-    <cellStyle name="40% - Accent1 3" xfId="80"/>
-    <cellStyle name="40% - Accent1 4" xfId="81"/>
-    <cellStyle name="40% - Accent1 5" xfId="82"/>
-    <cellStyle name="40% - Accent1 6" xfId="83"/>
-    <cellStyle name="40% - Accent1 7" xfId="84"/>
-    <cellStyle name="40% - Accent1 8" xfId="85"/>
-    <cellStyle name="40% - Accent1 9" xfId="86"/>
-    <cellStyle name="40% - Accent2 10" xfId="87"/>
-    <cellStyle name="40% - Accent2 2" xfId="88"/>
-    <cellStyle name="40% - Accent2 3" xfId="89"/>
-    <cellStyle name="40% - Accent2 4" xfId="90"/>
-    <cellStyle name="40% - Accent2 5" xfId="91"/>
-    <cellStyle name="40% - Accent2 6" xfId="92"/>
-    <cellStyle name="40% - Accent2 7" xfId="93"/>
-    <cellStyle name="40% - Accent2 8" xfId="94"/>
-    <cellStyle name="40% - Accent2 9" xfId="95"/>
-    <cellStyle name="40% - Accent3 10" xfId="96"/>
-    <cellStyle name="40% - Accent3 2" xfId="97"/>
-    <cellStyle name="40% - Accent3 3" xfId="98"/>
-    <cellStyle name="40% - Accent3 4" xfId="99"/>
-    <cellStyle name="40% - Accent3 5" xfId="100"/>
-    <cellStyle name="40% - Accent3 6" xfId="101"/>
-    <cellStyle name="40% - Accent3 7" xfId="102"/>
-    <cellStyle name="40% - Accent3 8" xfId="103"/>
-    <cellStyle name="40% - Accent3 9" xfId="104"/>
-    <cellStyle name="40% - Accent4 10" xfId="105"/>
-    <cellStyle name="40% - Accent4 2" xfId="106"/>
-    <cellStyle name="40% - Accent4 3" xfId="107"/>
-    <cellStyle name="40% - Accent4 4" xfId="108"/>
-    <cellStyle name="40% - Accent4 5" xfId="109"/>
-    <cellStyle name="40% - Accent4 6" xfId="110"/>
-    <cellStyle name="40% - Accent4 7" xfId="111"/>
-    <cellStyle name="40% - Accent4 8" xfId="112"/>
-    <cellStyle name="40% - Accent4 9" xfId="113"/>
-    <cellStyle name="40% - Accent5 10" xfId="114"/>
-    <cellStyle name="40% - Accent5 2" xfId="115"/>
-    <cellStyle name="40% - Accent5 3" xfId="116"/>
-    <cellStyle name="40% - Accent5 4" xfId="117"/>
-    <cellStyle name="40% - Accent5 5" xfId="118"/>
-    <cellStyle name="40% - Accent5 6" xfId="119"/>
-    <cellStyle name="40% - Accent5 7" xfId="120"/>
-    <cellStyle name="40% - Accent5 8" xfId="121"/>
-    <cellStyle name="40% - Accent5 9" xfId="122"/>
-    <cellStyle name="40% - Accent6 10" xfId="123"/>
-    <cellStyle name="40% - Accent6 2" xfId="124"/>
-    <cellStyle name="40% - Accent6 3" xfId="125"/>
-    <cellStyle name="40% - Accent6 4" xfId="126"/>
-    <cellStyle name="40% - Accent6 5" xfId="127"/>
-    <cellStyle name="40% - Accent6 6" xfId="128"/>
-    <cellStyle name="40% - Accent6 7" xfId="129"/>
-    <cellStyle name="40% - Accent6 8" xfId="130"/>
-    <cellStyle name="40% - Accent6 9" xfId="131"/>
-    <cellStyle name="60% - Accent1 10" xfId="132"/>
-    <cellStyle name="60% - Accent1 2" xfId="133"/>
-    <cellStyle name="60% - Accent1 3" xfId="134"/>
-    <cellStyle name="60% - Accent1 4" xfId="135"/>
-    <cellStyle name="60% - Accent1 5" xfId="136"/>
-    <cellStyle name="60% - Accent1 6" xfId="137"/>
-    <cellStyle name="60% - Accent1 7" xfId="138"/>
-    <cellStyle name="60% - Accent1 8" xfId="139"/>
-    <cellStyle name="60% - Accent1 9" xfId="140"/>
-    <cellStyle name="60% - Accent2 10" xfId="141"/>
-    <cellStyle name="60% - Accent2 2" xfId="142"/>
-    <cellStyle name="60% - Accent2 3" xfId="143"/>
-    <cellStyle name="60% - Accent2 4" xfId="144"/>
-    <cellStyle name="60% - Accent2 5" xfId="145"/>
-    <cellStyle name="60% - Accent2 6" xfId="146"/>
-    <cellStyle name="60% - Accent2 7" xfId="147"/>
-    <cellStyle name="60% - Accent2 8" xfId="148"/>
-    <cellStyle name="60% - Accent2 9" xfId="149"/>
-    <cellStyle name="60% - Accent3 10" xfId="150"/>
-    <cellStyle name="60% - Accent3 2" xfId="151"/>
-    <cellStyle name="60% - Accent3 3" xfId="152"/>
-    <cellStyle name="60% - Accent3 4" xfId="153"/>
-    <cellStyle name="60% - Accent3 5" xfId="154"/>
-    <cellStyle name="60% - Accent3 6" xfId="155"/>
-    <cellStyle name="60% - Accent3 7" xfId="156"/>
-    <cellStyle name="60% - Accent3 8" xfId="157"/>
-    <cellStyle name="60% - Accent3 9" xfId="158"/>
-    <cellStyle name="60% - Accent4 10" xfId="159"/>
-    <cellStyle name="60% - Accent4 2" xfId="160"/>
-    <cellStyle name="60% - Accent4 3" xfId="161"/>
-    <cellStyle name="60% - Accent4 4" xfId="162"/>
-    <cellStyle name="60% - Accent4 5" xfId="163"/>
-    <cellStyle name="60% - Accent4 6" xfId="164"/>
-    <cellStyle name="60% - Accent4 7" xfId="165"/>
-    <cellStyle name="60% - Accent4 8" xfId="166"/>
-    <cellStyle name="60% - Accent4 9" xfId="167"/>
-    <cellStyle name="60% - Accent5 10" xfId="168"/>
-    <cellStyle name="60% - Accent5 2" xfId="169"/>
-    <cellStyle name="60% - Accent5 3" xfId="170"/>
-    <cellStyle name="60% - Accent5 4" xfId="171"/>
-    <cellStyle name="60% - Accent5 5" xfId="172"/>
-    <cellStyle name="60% - Accent5 6" xfId="173"/>
-    <cellStyle name="60% - Accent5 7" xfId="174"/>
-    <cellStyle name="60% - Accent5 8" xfId="175"/>
-    <cellStyle name="60% - Accent5 9" xfId="176"/>
-    <cellStyle name="60% - Accent6 10" xfId="177"/>
-    <cellStyle name="60% - Accent6 2" xfId="178"/>
-    <cellStyle name="60% - Accent6 3" xfId="179"/>
-    <cellStyle name="60% - Accent6 4" xfId="180"/>
-    <cellStyle name="60% - Accent6 5" xfId="181"/>
-    <cellStyle name="60% - Accent6 6" xfId="182"/>
-    <cellStyle name="60% - Accent6 7" xfId="183"/>
-    <cellStyle name="60% - Accent6 8" xfId="184"/>
-    <cellStyle name="60% - Accent6 9" xfId="185"/>
-    <cellStyle name="Accent1 10" xfId="186"/>
-    <cellStyle name="Accent1 2" xfId="187"/>
-    <cellStyle name="Accent1 3" xfId="188"/>
-    <cellStyle name="Accent1 4" xfId="189"/>
-    <cellStyle name="Accent1 5" xfId="190"/>
-    <cellStyle name="Accent1 6" xfId="191"/>
-    <cellStyle name="Accent1 7" xfId="192"/>
-    <cellStyle name="Accent1 8" xfId="193"/>
-    <cellStyle name="Accent1 9" xfId="194"/>
-    <cellStyle name="Accent2 10" xfId="195"/>
-    <cellStyle name="Accent2 2" xfId="196"/>
-    <cellStyle name="Accent2 3" xfId="197"/>
-    <cellStyle name="Accent2 4" xfId="198"/>
-    <cellStyle name="Accent2 5" xfId="199"/>
-    <cellStyle name="Accent2 6" xfId="200"/>
-    <cellStyle name="Accent2 7" xfId="201"/>
-    <cellStyle name="Accent2 8" xfId="202"/>
-    <cellStyle name="Accent2 9" xfId="203"/>
-    <cellStyle name="Accent3 10" xfId="204"/>
-    <cellStyle name="Accent3 2" xfId="205"/>
-    <cellStyle name="Accent3 3" xfId="206"/>
-    <cellStyle name="Accent3 4" xfId="207"/>
-    <cellStyle name="Accent3 5" xfId="208"/>
-    <cellStyle name="Accent3 6" xfId="209"/>
-    <cellStyle name="Accent3 7" xfId="210"/>
-    <cellStyle name="Accent3 8" xfId="211"/>
-    <cellStyle name="Accent3 9" xfId="212"/>
-    <cellStyle name="Accent4 10" xfId="213"/>
-    <cellStyle name="Accent4 2" xfId="214"/>
-    <cellStyle name="Accent4 3" xfId="215"/>
-    <cellStyle name="Accent4 4" xfId="216"/>
-    <cellStyle name="Accent4 5" xfId="217"/>
-    <cellStyle name="Accent4 6" xfId="218"/>
-    <cellStyle name="Accent4 7" xfId="219"/>
-    <cellStyle name="Accent4 8" xfId="220"/>
-    <cellStyle name="Accent4 9" xfId="221"/>
-    <cellStyle name="Accent5 10" xfId="222"/>
-    <cellStyle name="Accent5 2" xfId="223"/>
-    <cellStyle name="Accent5 3" xfId="224"/>
-    <cellStyle name="Accent5 4" xfId="225"/>
-    <cellStyle name="Accent5 5" xfId="226"/>
-    <cellStyle name="Accent5 6" xfId="227"/>
-    <cellStyle name="Accent5 7" xfId="228"/>
-    <cellStyle name="Accent5 8" xfId="229"/>
-    <cellStyle name="Accent5 9" xfId="230"/>
-    <cellStyle name="Accent6 10" xfId="231"/>
-    <cellStyle name="Accent6 2" xfId="232"/>
-    <cellStyle name="Accent6 3" xfId="233"/>
-    <cellStyle name="Accent6 4" xfId="234"/>
-    <cellStyle name="Accent6 5" xfId="235"/>
-    <cellStyle name="Accent6 6" xfId="236"/>
-    <cellStyle name="Accent6 7" xfId="237"/>
-    <cellStyle name="Accent6 8" xfId="238"/>
-    <cellStyle name="Accent6 9" xfId="239"/>
-    <cellStyle name="AFE" xfId="240"/>
-    <cellStyle name="Bad 10" xfId="241"/>
-    <cellStyle name="Bad 2" xfId="242"/>
-    <cellStyle name="Bad 3" xfId="243"/>
-    <cellStyle name="Bad 4" xfId="244"/>
-    <cellStyle name="Bad 5" xfId="245"/>
-    <cellStyle name="Bad 6" xfId="246"/>
-    <cellStyle name="Bad 7" xfId="247"/>
-    <cellStyle name="Bad 8" xfId="248"/>
-    <cellStyle name="Bad 9" xfId="249"/>
-    <cellStyle name="Button" xfId="250"/>
-    <cellStyle name="Calculation 10" xfId="251"/>
-    <cellStyle name="Calculation 10 10" xfId="252"/>
-    <cellStyle name="Calculation 10 11" xfId="253"/>
-    <cellStyle name="Calculation 10 12" xfId="254"/>
-    <cellStyle name="Calculation 10 2" xfId="255"/>
-    <cellStyle name="Calculation 10 2 10" xfId="256"/>
-    <cellStyle name="Calculation 10 2 2" xfId="257"/>
-    <cellStyle name="Calculation 10 2 3" xfId="258"/>
-    <cellStyle name="Calculation 10 2 4" xfId="259"/>
-    <cellStyle name="Calculation 10 2 5" xfId="260"/>
-    <cellStyle name="Calculation 10 2 6" xfId="261"/>
-    <cellStyle name="Calculation 10 2 7" xfId="262"/>
-    <cellStyle name="Calculation 10 2 8" xfId="263"/>
-    <cellStyle name="Calculation 10 2 9" xfId="264"/>
-    <cellStyle name="Calculation 10 3" xfId="265"/>
-    <cellStyle name="Calculation 10 3 10" xfId="266"/>
-    <cellStyle name="Calculation 10 3 2" xfId="267"/>
-    <cellStyle name="Calculation 10 3 3" xfId="268"/>
-    <cellStyle name="Calculation 10 3 4" xfId="269"/>
-    <cellStyle name="Calculation 10 3 5" xfId="270"/>
-    <cellStyle name="Calculation 10 3 6" xfId="271"/>
-    <cellStyle name="Calculation 10 3 7" xfId="272"/>
-    <cellStyle name="Calculation 10 3 8" xfId="273"/>
-    <cellStyle name="Calculation 10 3 9" xfId="274"/>
-    <cellStyle name="Calculation 10 4" xfId="275"/>
-    <cellStyle name="Calculation 10 5" xfId="276"/>
-    <cellStyle name="Calculation 10 6" xfId="277"/>
-    <cellStyle name="Calculation 10 7" xfId="278"/>
-    <cellStyle name="Calculation 10 8" xfId="279"/>
-    <cellStyle name="Calculation 10 9" xfId="280"/>
-    <cellStyle name="Calculation 11" xfId="281"/>
-    <cellStyle name="Calculation 2" xfId="282"/>
-    <cellStyle name="Calculation 2 10" xfId="283"/>
-    <cellStyle name="Calculation 2 11" xfId="284"/>
-    <cellStyle name="Calculation 2 12" xfId="285"/>
-    <cellStyle name="Calculation 2 2" xfId="286"/>
-    <cellStyle name="Calculation 2 2 10" xfId="287"/>
-    <cellStyle name="Calculation 2 2 2" xfId="288"/>
-    <cellStyle name="Calculation 2 2 3" xfId="289"/>
-    <cellStyle name="Calculation 2 2 4" xfId="290"/>
-    <cellStyle name="Calculation 2 2 5" xfId="291"/>
-    <cellStyle name="Calculation 2 2 6" xfId="292"/>
-    <cellStyle name="Calculation 2 2 7" xfId="293"/>
-    <cellStyle name="Calculation 2 2 8" xfId="294"/>
-    <cellStyle name="Calculation 2 2 9" xfId="295"/>
-    <cellStyle name="Calculation 2 3" xfId="296"/>
-    <cellStyle name="Calculation 2 3 10" xfId="297"/>
-    <cellStyle name="Calculation 2 3 2" xfId="298"/>
-    <cellStyle name="Calculation 2 3 3" xfId="299"/>
-    <cellStyle name="Calculation 2 3 4" xfId="300"/>
-    <cellStyle name="Calculation 2 3 5" xfId="301"/>
-    <cellStyle name="Calculation 2 3 6" xfId="302"/>
-    <cellStyle name="Calculation 2 3 7" xfId="303"/>
-    <cellStyle name="Calculation 2 3 8" xfId="304"/>
-    <cellStyle name="Calculation 2 3 9" xfId="305"/>
-    <cellStyle name="Calculation 2 4" xfId="306"/>
-    <cellStyle name="Calculation 2 5" xfId="307"/>
-    <cellStyle name="Calculation 2 6" xfId="308"/>
-    <cellStyle name="Calculation 2 7" xfId="309"/>
-    <cellStyle name="Calculation 2 8" xfId="310"/>
-    <cellStyle name="Calculation 2 9" xfId="311"/>
-    <cellStyle name="Calculation 3" xfId="312"/>
-    <cellStyle name="Calculation 3 10" xfId="313"/>
-    <cellStyle name="Calculation 3 11" xfId="314"/>
-    <cellStyle name="Calculation 3 12" xfId="315"/>
-    <cellStyle name="Calculation 3 2" xfId="316"/>
-    <cellStyle name="Calculation 3 2 10" xfId="317"/>
-    <cellStyle name="Calculation 3 2 2" xfId="318"/>
-    <cellStyle name="Calculation 3 2 3" xfId="319"/>
-    <cellStyle name="Calculation 3 2 4" xfId="320"/>
-    <cellStyle name="Calculation 3 2 5" xfId="321"/>
-    <cellStyle name="Calculation 3 2 6" xfId="322"/>
-    <cellStyle name="Calculation 3 2 7" xfId="323"/>
-    <cellStyle name="Calculation 3 2 8" xfId="324"/>
-    <cellStyle name="Calculation 3 2 9" xfId="325"/>
-    <cellStyle name="Calculation 3 3" xfId="326"/>
-    <cellStyle name="Calculation 3 3 10" xfId="327"/>
-    <cellStyle name="Calculation 3 3 2" xfId="328"/>
-    <cellStyle name="Calculation 3 3 3" xfId="329"/>
-    <cellStyle name="Calculation 3 3 4" xfId="330"/>
-    <cellStyle name="Calculation 3 3 5" xfId="331"/>
-    <cellStyle name="Calculation 3 3 6" xfId="332"/>
-    <cellStyle name="Calculation 3 3 7" xfId="333"/>
-    <cellStyle name="Calculation 3 3 8" xfId="334"/>
-    <cellStyle name="Calculation 3 3 9" xfId="335"/>
-    <cellStyle name="Calculation 3 4" xfId="336"/>
-    <cellStyle name="Calculation 3 5" xfId="337"/>
-    <cellStyle name="Calculation 3 6" xfId="338"/>
-    <cellStyle name="Calculation 3 7" xfId="339"/>
-    <cellStyle name="Calculation 3 8" xfId="340"/>
-    <cellStyle name="Calculation 3 9" xfId="341"/>
-    <cellStyle name="Calculation 4" xfId="342"/>
-    <cellStyle name="Calculation 4 10" xfId="343"/>
-    <cellStyle name="Calculation 4 11" xfId="344"/>
-    <cellStyle name="Calculation 4 12" xfId="345"/>
-    <cellStyle name="Calculation 4 2" xfId="346"/>
-    <cellStyle name="Calculation 4 2 10" xfId="347"/>
-    <cellStyle name="Calculation 4 2 2" xfId="348"/>
-    <cellStyle name="Calculation 4 2 3" xfId="349"/>
-    <cellStyle name="Calculation 4 2 4" xfId="350"/>
-    <cellStyle name="Calculation 4 2 5" xfId="351"/>
-    <cellStyle name="Calculation 4 2 6" xfId="352"/>
-    <cellStyle name="Calculation 4 2 7" xfId="353"/>
-    <cellStyle name="Calculation 4 2 8" xfId="354"/>
-    <cellStyle name="Calculation 4 2 9" xfId="355"/>
-    <cellStyle name="Calculation 4 3" xfId="356"/>
-    <cellStyle name="Calculation 4 3 10" xfId="357"/>
-    <cellStyle name="Calculation 4 3 2" xfId="358"/>
-    <cellStyle name="Calculation 4 3 3" xfId="359"/>
-    <cellStyle name="Calculation 4 3 4" xfId="360"/>
-    <cellStyle name="Calculation 4 3 5" xfId="361"/>
-    <cellStyle name="Calculation 4 3 6" xfId="362"/>
-    <cellStyle name="Calculation 4 3 7" xfId="363"/>
-    <cellStyle name="Calculation 4 3 8" xfId="364"/>
-    <cellStyle name="Calculation 4 3 9" xfId="365"/>
-    <cellStyle name="Calculation 4 4" xfId="366"/>
-    <cellStyle name="Calculation 4 5" xfId="367"/>
-    <cellStyle name="Calculation 4 6" xfId="368"/>
-    <cellStyle name="Calculation 4 7" xfId="369"/>
-    <cellStyle name="Calculation 4 8" xfId="370"/>
-    <cellStyle name="Calculation 4 9" xfId="371"/>
-    <cellStyle name="Calculation 5" xfId="372"/>
-    <cellStyle name="Calculation 5 10" xfId="373"/>
-    <cellStyle name="Calculation 5 11" xfId="374"/>
-    <cellStyle name="Calculation 5 12" xfId="375"/>
-    <cellStyle name="Calculation 5 2" xfId="376"/>
-    <cellStyle name="Calculation 5 2 10" xfId="377"/>
-    <cellStyle name="Calculation 5 2 2" xfId="378"/>
-    <cellStyle name="Calculation 5 2 3" xfId="379"/>
-    <cellStyle name="Calculation 5 2 4" xfId="380"/>
-    <cellStyle name="Calculation 5 2 5" xfId="381"/>
-    <cellStyle name="Calculation 5 2 6" xfId="382"/>
-    <cellStyle name="Calculation 5 2 7" xfId="383"/>
-    <cellStyle name="Calculation 5 2 8" xfId="384"/>
-    <cellStyle name="Calculation 5 2 9" xfId="385"/>
-    <cellStyle name="Calculation 5 3" xfId="386"/>
-    <cellStyle name="Calculation 5 3 10" xfId="387"/>
-    <cellStyle name="Calculation 5 3 2" xfId="388"/>
-    <cellStyle name="Calculation 5 3 3" xfId="389"/>
-    <cellStyle name="Calculation 5 3 4" xfId="390"/>
-    <cellStyle name="Calculation 5 3 5" xfId="391"/>
-    <cellStyle name="Calculation 5 3 6" xfId="392"/>
-    <cellStyle name="Calculation 5 3 7" xfId="393"/>
-    <cellStyle name="Calculation 5 3 8" xfId="394"/>
-    <cellStyle name="Calculation 5 3 9" xfId="395"/>
-    <cellStyle name="Calculation 5 4" xfId="396"/>
-    <cellStyle name="Calculation 5 5" xfId="397"/>
-    <cellStyle name="Calculation 5 6" xfId="398"/>
-    <cellStyle name="Calculation 5 7" xfId="399"/>
-    <cellStyle name="Calculation 5 8" xfId="400"/>
-    <cellStyle name="Calculation 5 9" xfId="401"/>
-    <cellStyle name="Calculation 6" xfId="402"/>
-    <cellStyle name="Calculation 6 10" xfId="403"/>
-    <cellStyle name="Calculation 6 11" xfId="404"/>
-    <cellStyle name="Calculation 6 12" xfId="405"/>
-    <cellStyle name="Calculation 6 2" xfId="406"/>
-    <cellStyle name="Calculation 6 2 10" xfId="407"/>
-    <cellStyle name="Calculation 6 2 2" xfId="408"/>
-    <cellStyle name="Calculation 6 2 3" xfId="409"/>
-    <cellStyle name="Calculation 6 2 4" xfId="410"/>
-    <cellStyle name="Calculation 6 2 5" xfId="411"/>
-    <cellStyle name="Calculation 6 2 6" xfId="412"/>
-    <cellStyle name="Calculation 6 2 7" xfId="413"/>
-    <cellStyle name="Calculation 6 2 8" xfId="414"/>
-    <cellStyle name="Calculation 6 2 9" xfId="415"/>
-    <cellStyle name="Calculation 6 3" xfId="416"/>
-    <cellStyle name="Calculation 6 3 10" xfId="417"/>
-    <cellStyle name="Calculation 6 3 2" xfId="418"/>
-    <cellStyle name="Calculation 6 3 3" xfId="419"/>
-    <cellStyle name="Calculation 6 3 4" xfId="420"/>
-    <cellStyle name="Calculation 6 3 5" xfId="421"/>
-    <cellStyle name="Calculation 6 3 6" xfId="422"/>
-    <cellStyle name="Calculation 6 3 7" xfId="423"/>
-    <cellStyle name="Calculation 6 3 8" xfId="424"/>
-    <cellStyle name="Calculation 6 3 9" xfId="425"/>
-    <cellStyle name="Calculation 6 4" xfId="426"/>
-    <cellStyle name="Calculation 6 5" xfId="427"/>
-    <cellStyle name="Calculation 6 6" xfId="428"/>
-    <cellStyle name="Calculation 6 7" xfId="429"/>
-    <cellStyle name="Calculation 6 8" xfId="430"/>
-    <cellStyle name="Calculation 6 9" xfId="431"/>
-    <cellStyle name="Calculation 7" xfId="432"/>
-    <cellStyle name="Calculation 7 10" xfId="433"/>
-    <cellStyle name="Calculation 7 11" xfId="434"/>
-    <cellStyle name="Calculation 7 12" xfId="435"/>
-    <cellStyle name="Calculation 7 2" xfId="436"/>
-    <cellStyle name="Calculation 7 2 10" xfId="437"/>
-    <cellStyle name="Calculation 7 2 2" xfId="438"/>
-    <cellStyle name="Calculation 7 2 3" xfId="439"/>
-    <cellStyle name="Calculation 7 2 4" xfId="440"/>
-    <cellStyle name="Calculation 7 2 5" xfId="441"/>
-    <cellStyle name="Calculation 7 2 6" xfId="442"/>
-    <cellStyle name="Calculation 7 2 7" xfId="443"/>
-    <cellStyle name="Calculation 7 2 8" xfId="444"/>
-    <cellStyle name="Calculation 7 2 9" xfId="445"/>
-    <cellStyle name="Calculation 7 3" xfId="446"/>
-    <cellStyle name="Calculation 7 3 10" xfId="447"/>
-    <cellStyle name="Calculation 7 3 2" xfId="448"/>
-    <cellStyle name="Calculation 7 3 3" xfId="449"/>
-    <cellStyle name="Calculation 7 3 4" xfId="450"/>
-    <cellStyle name="Calculation 7 3 5" xfId="451"/>
-    <cellStyle name="Calculation 7 3 6" xfId="452"/>
-    <cellStyle name="Calculation 7 3 7" xfId="453"/>
-    <cellStyle name="Calculation 7 3 8" xfId="454"/>
-    <cellStyle name="Calculation 7 3 9" xfId="455"/>
-    <cellStyle name="Calculation 7 4" xfId="456"/>
-    <cellStyle name="Calculation 7 5" xfId="457"/>
-    <cellStyle name="Calculation 7 6" xfId="458"/>
-    <cellStyle name="Calculation 7 7" xfId="459"/>
-    <cellStyle name="Calculation 7 8" xfId="460"/>
-    <cellStyle name="Calculation 7 9" xfId="461"/>
-    <cellStyle name="Calculation 8" xfId="462"/>
-    <cellStyle name="Calculation 8 10" xfId="463"/>
-    <cellStyle name="Calculation 8 11" xfId="464"/>
-    <cellStyle name="Calculation 8 12" xfId="465"/>
-    <cellStyle name="Calculation 8 2" xfId="466"/>
-    <cellStyle name="Calculation 8 2 10" xfId="467"/>
-    <cellStyle name="Calculation 8 2 2" xfId="468"/>
-    <cellStyle name="Calculation 8 2 3" xfId="469"/>
-    <cellStyle name="Calculation 8 2 4" xfId="470"/>
-    <cellStyle name="Calculation 8 2 5" xfId="471"/>
-    <cellStyle name="Calculation 8 2 6" xfId="472"/>
-    <cellStyle name="Calculation 8 2 7" xfId="473"/>
-    <cellStyle name="Calculation 8 2 8" xfId="474"/>
-    <cellStyle name="Calculation 8 2 9" xfId="475"/>
-    <cellStyle name="Calculation 8 3" xfId="476"/>
-    <cellStyle name="Calculation 8 3 10" xfId="477"/>
-    <cellStyle name="Calculation 8 3 2" xfId="478"/>
-    <cellStyle name="Calculation 8 3 3" xfId="479"/>
-    <cellStyle name="Calculation 8 3 4" xfId="480"/>
-    <cellStyle name="Calculation 8 3 5" xfId="481"/>
-    <cellStyle name="Calculation 8 3 6" xfId="482"/>
-    <cellStyle name="Calculation 8 3 7" xfId="483"/>
-    <cellStyle name="Calculation 8 3 8" xfId="484"/>
-    <cellStyle name="Calculation 8 3 9" xfId="485"/>
-    <cellStyle name="Calculation 8 4" xfId="486"/>
-    <cellStyle name="Calculation 8 5" xfId="487"/>
-    <cellStyle name="Calculation 8 6" xfId="488"/>
-    <cellStyle name="Calculation 8 7" xfId="489"/>
-    <cellStyle name="Calculation 8 8" xfId="490"/>
-    <cellStyle name="Calculation 8 9" xfId="491"/>
-    <cellStyle name="Calculation 9" xfId="492"/>
-    <cellStyle name="Calculation 9 10" xfId="493"/>
-    <cellStyle name="Calculation 9 11" xfId="494"/>
-    <cellStyle name="Calculation 9 12" xfId="495"/>
-    <cellStyle name="Calculation 9 2" xfId="496"/>
-    <cellStyle name="Calculation 9 2 10" xfId="497"/>
-    <cellStyle name="Calculation 9 2 2" xfId="498"/>
-    <cellStyle name="Calculation 9 2 3" xfId="499"/>
-    <cellStyle name="Calculation 9 2 4" xfId="500"/>
-    <cellStyle name="Calculation 9 2 5" xfId="501"/>
-    <cellStyle name="Calculation 9 2 6" xfId="502"/>
-    <cellStyle name="Calculation 9 2 7" xfId="503"/>
-    <cellStyle name="Calculation 9 2 8" xfId="504"/>
-    <cellStyle name="Calculation 9 2 9" xfId="505"/>
-    <cellStyle name="Calculation 9 3" xfId="506"/>
-    <cellStyle name="Calculation 9 3 10" xfId="507"/>
-    <cellStyle name="Calculation 9 3 2" xfId="508"/>
-    <cellStyle name="Calculation 9 3 3" xfId="509"/>
-    <cellStyle name="Calculation 9 3 4" xfId="510"/>
-    <cellStyle name="Calculation 9 3 5" xfId="511"/>
-    <cellStyle name="Calculation 9 3 6" xfId="512"/>
-    <cellStyle name="Calculation 9 3 7" xfId="513"/>
-    <cellStyle name="Calculation 9 3 8" xfId="514"/>
-    <cellStyle name="Calculation 9 3 9" xfId="515"/>
-    <cellStyle name="Calculation 9 4" xfId="516"/>
-    <cellStyle name="Calculation 9 5" xfId="517"/>
-    <cellStyle name="Calculation 9 6" xfId="518"/>
-    <cellStyle name="Calculation 9 7" xfId="519"/>
-    <cellStyle name="Calculation 9 8" xfId="520"/>
-    <cellStyle name="Calculation 9 9" xfId="521"/>
-    <cellStyle name="Check Cell 10" xfId="522"/>
-    <cellStyle name="Check Cell 2" xfId="523"/>
-    <cellStyle name="Check Cell 3" xfId="524"/>
-    <cellStyle name="Check Cell 4" xfId="525"/>
-    <cellStyle name="Check Cell 5" xfId="526"/>
-    <cellStyle name="Check Cell 6" xfId="527"/>
-    <cellStyle name="Check Cell 7" xfId="528"/>
-    <cellStyle name="Check Cell 8" xfId="529"/>
-    <cellStyle name="Check Cell 9" xfId="530"/>
-    <cellStyle name="Column Heading" xfId="531"/>
-    <cellStyle name="Comma 2" xfId="5"/>
-    <cellStyle name="Component Header" xfId="532"/>
-    <cellStyle name="Component Heading" xfId="533"/>
-    <cellStyle name="Currency 2" xfId="6"/>
-    <cellStyle name="Explanatory Text 10" xfId="534"/>
-    <cellStyle name="Explanatory Text 2" xfId="535"/>
-    <cellStyle name="Explanatory Text 3" xfId="536"/>
-    <cellStyle name="Explanatory Text 4" xfId="537"/>
-    <cellStyle name="Explanatory Text 5" xfId="538"/>
-    <cellStyle name="Explanatory Text 6" xfId="539"/>
-    <cellStyle name="Explanatory Text 7" xfId="540"/>
-    <cellStyle name="Explanatory Text 8" xfId="541"/>
-    <cellStyle name="Explanatory Text 9" xfId="542"/>
-    <cellStyle name="First attribute link" xfId="543"/>
-    <cellStyle name="Good 10" xfId="544"/>
-    <cellStyle name="Good 2" xfId="545"/>
-    <cellStyle name="Good 3" xfId="546"/>
-    <cellStyle name="Good 4" xfId="547"/>
-    <cellStyle name="Good 5" xfId="548"/>
-    <cellStyle name="Good 6" xfId="549"/>
-    <cellStyle name="Good 7" xfId="550"/>
-    <cellStyle name="Good 8" xfId="551"/>
-    <cellStyle name="Good 9" xfId="552"/>
-    <cellStyle name="Heading 1 10" xfId="553"/>
-    <cellStyle name="Heading 1 2" xfId="554"/>
-    <cellStyle name="Heading 1 3" xfId="555"/>
-    <cellStyle name="Heading 1 4" xfId="556"/>
-    <cellStyle name="Heading 1 5" xfId="557"/>
-    <cellStyle name="Heading 1 6" xfId="558"/>
-    <cellStyle name="Heading 1 7" xfId="559"/>
-    <cellStyle name="Heading 1 8" xfId="560"/>
-    <cellStyle name="Heading 1 9" xfId="561"/>
-    <cellStyle name="Heading 2 10" xfId="562"/>
-    <cellStyle name="Heading 2 11" xfId="563"/>
-    <cellStyle name="Heading 2 2" xfId="3"/>
-    <cellStyle name="Heading 2 2 2" xfId="565"/>
-    <cellStyle name="Heading 2 2 3" xfId="564"/>
-    <cellStyle name="Heading 2 3" xfId="566"/>
-    <cellStyle name="Heading 2 4" xfId="567"/>
-    <cellStyle name="Heading 2 5" xfId="568"/>
-    <cellStyle name="Heading 2 6" xfId="569"/>
-    <cellStyle name="Heading 2 7" xfId="570"/>
-    <cellStyle name="Heading 2 8" xfId="571"/>
-    <cellStyle name="Heading 2 9" xfId="572"/>
-    <cellStyle name="Heading 3 10" xfId="573"/>
-    <cellStyle name="Heading 3 11" xfId="574"/>
-    <cellStyle name="Heading 3 11 2" xfId="575"/>
-    <cellStyle name="Heading 3 2" xfId="576"/>
-    <cellStyle name="Heading 3 3" xfId="577"/>
-    <cellStyle name="Heading 3 4" xfId="578"/>
-    <cellStyle name="Heading 3 5" xfId="579"/>
-    <cellStyle name="Heading 3 6" xfId="580"/>
-    <cellStyle name="Heading 3 7" xfId="581"/>
-    <cellStyle name="Heading 3 8" xfId="582"/>
-    <cellStyle name="Heading 3 9" xfId="583"/>
-    <cellStyle name="Heading 4 10" xfId="584"/>
-    <cellStyle name="Heading 4 2" xfId="585"/>
-    <cellStyle name="Heading 4 3" xfId="586"/>
-    <cellStyle name="Heading 4 4" xfId="587"/>
-    <cellStyle name="Heading 4 5" xfId="588"/>
-    <cellStyle name="Heading 4 6" xfId="589"/>
-    <cellStyle name="Heading 4 7" xfId="590"/>
-    <cellStyle name="Heading 4 8" xfId="591"/>
-    <cellStyle name="Heading 4 9" xfId="592"/>
-    <cellStyle name="headings" xfId="593"/>
-    <cellStyle name="Hyperlink" xfId="1883" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="7"/>
-    <cellStyle name="Hyperlink 2 2" xfId="595"/>
-    <cellStyle name="Hyperlink 2 3" xfId="594"/>
-    <cellStyle name="Hyperlink 3" xfId="8"/>
-    <cellStyle name="Hyperlink 3 2" xfId="596"/>
-    <cellStyle name="Input 10" xfId="597"/>
-    <cellStyle name="Input 10 10" xfId="598"/>
-    <cellStyle name="Input 10 11" xfId="599"/>
-    <cellStyle name="Input 10 12" xfId="600"/>
-    <cellStyle name="Input 10 2" xfId="601"/>
-    <cellStyle name="Input 10 2 10" xfId="602"/>
-    <cellStyle name="Input 10 2 2" xfId="603"/>
-    <cellStyle name="Input 10 2 3" xfId="604"/>
-    <cellStyle name="Input 10 2 4" xfId="605"/>
-    <cellStyle name="Input 10 2 5" xfId="606"/>
-    <cellStyle name="Input 10 2 6" xfId="607"/>
-    <cellStyle name="Input 10 2 7" xfId="608"/>
-    <cellStyle name="Input 10 2 8" xfId="609"/>
-    <cellStyle name="Input 10 2 9" xfId="610"/>
-    <cellStyle name="Input 10 3" xfId="611"/>
-    <cellStyle name="Input 10 3 10" xfId="612"/>
-    <cellStyle name="Input 10 3 2" xfId="613"/>
-    <cellStyle name="Input 10 3 3" xfId="614"/>
-    <cellStyle name="Input 10 3 4" xfId="615"/>
-    <cellStyle name="Input 10 3 5" xfId="616"/>
-    <cellStyle name="Input 10 3 6" xfId="617"/>
-    <cellStyle name="Input 10 3 7" xfId="618"/>
-    <cellStyle name="Input 10 3 8" xfId="619"/>
-    <cellStyle name="Input 10 3 9" xfId="620"/>
-    <cellStyle name="Input 10 4" xfId="621"/>
-    <cellStyle name="Input 10 5" xfId="622"/>
-    <cellStyle name="Input 10 6" xfId="623"/>
-    <cellStyle name="Input 10 7" xfId="624"/>
-    <cellStyle name="Input 10 8" xfId="625"/>
-    <cellStyle name="Input 10 9" xfId="626"/>
-    <cellStyle name="Input 2" xfId="627"/>
-    <cellStyle name="Input 2 10" xfId="628"/>
-    <cellStyle name="Input 2 11" xfId="629"/>
-    <cellStyle name="Input 2 12" xfId="630"/>
-    <cellStyle name="Input 2 2" xfId="631"/>
-    <cellStyle name="Input 2 2 10" xfId="632"/>
-    <cellStyle name="Input 2 2 2" xfId="633"/>
-    <cellStyle name="Input 2 2 3" xfId="634"/>
-    <cellStyle name="Input 2 2 4" xfId="635"/>
-    <cellStyle name="Input 2 2 5" xfId="636"/>
-    <cellStyle name="Input 2 2 6" xfId="637"/>
-    <cellStyle name="Input 2 2 7" xfId="638"/>
-    <cellStyle name="Input 2 2 8" xfId="639"/>
-    <cellStyle name="Input 2 2 9" xfId="640"/>
-    <cellStyle name="Input 2 3" xfId="641"/>
-    <cellStyle name="Input 2 3 10" xfId="642"/>
-    <cellStyle name="Input 2 3 2" xfId="643"/>
-    <cellStyle name="Input 2 3 3" xfId="644"/>
-    <cellStyle name="Input 2 3 4" xfId="645"/>
-    <cellStyle name="Input 2 3 5" xfId="646"/>
-    <cellStyle name="Input 2 3 6" xfId="647"/>
-    <cellStyle name="Input 2 3 7" xfId="648"/>
-    <cellStyle name="Input 2 3 8" xfId="649"/>
-    <cellStyle name="Input 2 3 9" xfId="650"/>
-    <cellStyle name="Input 2 4" xfId="651"/>
-    <cellStyle name="Input 2 5" xfId="652"/>
-    <cellStyle name="Input 2 6" xfId="653"/>
-    <cellStyle name="Input 2 7" xfId="654"/>
-    <cellStyle name="Input 2 8" xfId="655"/>
-    <cellStyle name="Input 2 9" xfId="656"/>
-    <cellStyle name="Input 3" xfId="657"/>
-    <cellStyle name="Input 3 10" xfId="658"/>
-    <cellStyle name="Input 3 11" xfId="659"/>
-    <cellStyle name="Input 3 12" xfId="660"/>
-    <cellStyle name="Input 3 2" xfId="661"/>
-    <cellStyle name="Input 3 2 10" xfId="662"/>
-    <cellStyle name="Input 3 2 2" xfId="663"/>
-    <cellStyle name="Input 3 2 3" xfId="664"/>
-    <cellStyle name="Input 3 2 4" xfId="665"/>
-    <cellStyle name="Input 3 2 5" xfId="666"/>
-    <cellStyle name="Input 3 2 6" xfId="667"/>
-    <cellStyle name="Input 3 2 7" xfId="668"/>
-    <cellStyle name="Input 3 2 8" xfId="669"/>
-    <cellStyle name="Input 3 2 9" xfId="670"/>
-    <cellStyle name="Input 3 3" xfId="671"/>
-    <cellStyle name="Input 3 3 10" xfId="672"/>
-    <cellStyle name="Input 3 3 2" xfId="673"/>
-    <cellStyle name="Input 3 3 3" xfId="674"/>
-    <cellStyle name="Input 3 3 4" xfId="675"/>
-    <cellStyle name="Input 3 3 5" xfId="676"/>
-    <cellStyle name="Input 3 3 6" xfId="677"/>
-    <cellStyle name="Input 3 3 7" xfId="678"/>
-    <cellStyle name="Input 3 3 8" xfId="679"/>
-    <cellStyle name="Input 3 3 9" xfId="680"/>
-    <cellStyle name="Input 3 4" xfId="681"/>
-    <cellStyle name="Input 3 5" xfId="682"/>
-    <cellStyle name="Input 3 6" xfId="683"/>
-    <cellStyle name="Input 3 7" xfId="684"/>
-    <cellStyle name="Input 3 8" xfId="685"/>
-    <cellStyle name="Input 3 9" xfId="686"/>
-    <cellStyle name="Input 4" xfId="687"/>
-    <cellStyle name="Input 4 10" xfId="688"/>
-    <cellStyle name="Input 4 11" xfId="689"/>
-    <cellStyle name="Input 4 12" xfId="690"/>
-    <cellStyle name="Input 4 2" xfId="691"/>
-    <cellStyle name="Input 4 2 10" xfId="692"/>
-    <cellStyle name="Input 4 2 2" xfId="693"/>
-    <cellStyle name="Input 4 2 3" xfId="694"/>
-    <cellStyle name="Input 4 2 4" xfId="695"/>
-    <cellStyle name="Input 4 2 5" xfId="696"/>
-    <cellStyle name="Input 4 2 6" xfId="697"/>
-    <cellStyle name="Input 4 2 7" xfId="698"/>
-    <cellStyle name="Input 4 2 8" xfId="699"/>
-    <cellStyle name="Input 4 2 9" xfId="700"/>
-    <cellStyle name="Input 4 3" xfId="701"/>
-    <cellStyle name="Input 4 3 10" xfId="702"/>
-    <cellStyle name="Input 4 3 2" xfId="703"/>
-    <cellStyle name="Input 4 3 3" xfId="704"/>
-    <cellStyle name="Input 4 3 4" xfId="705"/>
-    <cellStyle name="Input 4 3 5" xfId="706"/>
-    <cellStyle name="Input 4 3 6" xfId="707"/>
-    <cellStyle name="Input 4 3 7" xfId="708"/>
-    <cellStyle name="Input 4 3 8" xfId="709"/>
-    <cellStyle name="Input 4 3 9" xfId="710"/>
-    <cellStyle name="Input 4 4" xfId="711"/>
-    <cellStyle name="Input 4 5" xfId="712"/>
-    <cellStyle name="Input 4 6" xfId="713"/>
-    <cellStyle name="Input 4 7" xfId="714"/>
-    <cellStyle name="Input 4 8" xfId="715"/>
-    <cellStyle name="Input 4 9" xfId="716"/>
-    <cellStyle name="Input 5" xfId="717"/>
-    <cellStyle name="Input 5 10" xfId="718"/>
-    <cellStyle name="Input 5 11" xfId="719"/>
-    <cellStyle name="Input 5 12" xfId="720"/>
-    <cellStyle name="Input 5 2" xfId="721"/>
-    <cellStyle name="Input 5 2 10" xfId="722"/>
-    <cellStyle name="Input 5 2 2" xfId="723"/>
-    <cellStyle name="Input 5 2 3" xfId="724"/>
-    <cellStyle name="Input 5 2 4" xfId="725"/>
-    <cellStyle name="Input 5 2 5" xfId="726"/>
-    <cellStyle name="Input 5 2 6" xfId="727"/>
-    <cellStyle name="Input 5 2 7" xfId="728"/>
-    <cellStyle name="Input 5 2 8" xfId="729"/>
-    <cellStyle name="Input 5 2 9" xfId="730"/>
-    <cellStyle name="Input 5 3" xfId="731"/>
-    <cellStyle name="Input 5 3 10" xfId="732"/>
-    <cellStyle name="Input 5 3 2" xfId="733"/>
-    <cellStyle name="Input 5 3 3" xfId="734"/>
-    <cellStyle name="Input 5 3 4" xfId="735"/>
-    <cellStyle name="Input 5 3 5" xfId="736"/>
-    <cellStyle name="Input 5 3 6" xfId="737"/>
-    <cellStyle name="Input 5 3 7" xfId="738"/>
-    <cellStyle name="Input 5 3 8" xfId="739"/>
-    <cellStyle name="Input 5 3 9" xfId="740"/>
-    <cellStyle name="Input 5 4" xfId="741"/>
-    <cellStyle name="Input 5 5" xfId="742"/>
-    <cellStyle name="Input 5 6" xfId="743"/>
-    <cellStyle name="Input 5 7" xfId="744"/>
-    <cellStyle name="Input 5 8" xfId="745"/>
-    <cellStyle name="Input 5 9" xfId="746"/>
-    <cellStyle name="Input 6" xfId="747"/>
-    <cellStyle name="Input 6 10" xfId="748"/>
-    <cellStyle name="Input 6 11" xfId="749"/>
-    <cellStyle name="Input 6 12" xfId="750"/>
-    <cellStyle name="Input 6 2" xfId="751"/>
-    <cellStyle name="Input 6 2 10" xfId="752"/>
-    <cellStyle name="Input 6 2 2" xfId="753"/>
-    <cellStyle name="Input 6 2 3" xfId="754"/>
-    <cellStyle name="Input 6 2 4" xfId="755"/>
-    <cellStyle name="Input 6 2 5" xfId="756"/>
-    <cellStyle name="Input 6 2 6" xfId="757"/>
-    <cellStyle name="Input 6 2 7" xfId="758"/>
-    <cellStyle name="Input 6 2 8" xfId="759"/>
-    <cellStyle name="Input 6 2 9" xfId="760"/>
-    <cellStyle name="Input 6 3" xfId="761"/>
-    <cellStyle name="Input 6 3 10" xfId="762"/>
-    <cellStyle name="Input 6 3 2" xfId="763"/>
-    <cellStyle name="Input 6 3 3" xfId="764"/>
-    <cellStyle name="Input 6 3 4" xfId="765"/>
-    <cellStyle name="Input 6 3 5" xfId="766"/>
-    <cellStyle name="Input 6 3 6" xfId="767"/>
-    <cellStyle name="Input 6 3 7" xfId="768"/>
-    <cellStyle name="Input 6 3 8" xfId="769"/>
-    <cellStyle name="Input 6 3 9" xfId="770"/>
-    <cellStyle name="Input 6 4" xfId="771"/>
-    <cellStyle name="Input 6 5" xfId="772"/>
-    <cellStyle name="Input 6 6" xfId="773"/>
-    <cellStyle name="Input 6 7" xfId="774"/>
-    <cellStyle name="Input 6 8" xfId="775"/>
-    <cellStyle name="Input 6 9" xfId="776"/>
-    <cellStyle name="Input 7" xfId="777"/>
-    <cellStyle name="Input 7 10" xfId="778"/>
-    <cellStyle name="Input 7 11" xfId="779"/>
-    <cellStyle name="Input 7 12" xfId="780"/>
-    <cellStyle name="Input 7 2" xfId="781"/>
-    <cellStyle name="Input 7 2 10" xfId="782"/>
-    <cellStyle name="Input 7 2 2" xfId="783"/>
-    <cellStyle name="Input 7 2 3" xfId="784"/>
-    <cellStyle name="Input 7 2 4" xfId="785"/>
-    <cellStyle name="Input 7 2 5" xfId="786"/>
-    <cellStyle name="Input 7 2 6" xfId="787"/>
-    <cellStyle name="Input 7 2 7" xfId="788"/>
-    <cellStyle name="Input 7 2 8" xfId="789"/>
-    <cellStyle name="Input 7 2 9" xfId="790"/>
-    <cellStyle name="Input 7 3" xfId="791"/>
-    <cellStyle name="Input 7 3 10" xfId="792"/>
-    <cellStyle name="Input 7 3 2" xfId="793"/>
-    <cellStyle name="Input 7 3 3" xfId="794"/>
-    <cellStyle name="Input 7 3 4" xfId="795"/>
-    <cellStyle name="Input 7 3 5" xfId="796"/>
-    <cellStyle name="Input 7 3 6" xfId="797"/>
-    <cellStyle name="Input 7 3 7" xfId="798"/>
-    <cellStyle name="Input 7 3 8" xfId="799"/>
-    <cellStyle name="Input 7 3 9" xfId="800"/>
-    <cellStyle name="Input 7 4" xfId="801"/>
-    <cellStyle name="Input 7 5" xfId="802"/>
-    <cellStyle name="Input 7 6" xfId="803"/>
-    <cellStyle name="Input 7 7" xfId="804"/>
-    <cellStyle name="Input 7 8" xfId="805"/>
-    <cellStyle name="Input 7 9" xfId="806"/>
-    <cellStyle name="Input 8" xfId="807"/>
-    <cellStyle name="Input 8 10" xfId="808"/>
-    <cellStyle name="Input 8 11" xfId="809"/>
-    <cellStyle name="Input 8 12" xfId="810"/>
-    <cellStyle name="Input 8 2" xfId="811"/>
-    <cellStyle name="Input 8 2 10" xfId="812"/>
-    <cellStyle name="Input 8 2 2" xfId="813"/>
-    <cellStyle name="Input 8 2 3" xfId="814"/>
-    <cellStyle name="Input 8 2 4" xfId="815"/>
-    <cellStyle name="Input 8 2 5" xfId="816"/>
-    <cellStyle name="Input 8 2 6" xfId="817"/>
-    <cellStyle name="Input 8 2 7" xfId="818"/>
-    <cellStyle name="Input 8 2 8" xfId="819"/>
-    <cellStyle name="Input 8 2 9" xfId="820"/>
-    <cellStyle name="Input 8 3" xfId="821"/>
-    <cellStyle name="Input 8 3 10" xfId="822"/>
-    <cellStyle name="Input 8 3 2" xfId="823"/>
-    <cellStyle name="Input 8 3 3" xfId="824"/>
-    <cellStyle name="Input 8 3 4" xfId="825"/>
-    <cellStyle name="Input 8 3 5" xfId="826"/>
-    <cellStyle name="Input 8 3 6" xfId="827"/>
-    <cellStyle name="Input 8 3 7" xfId="828"/>
-    <cellStyle name="Input 8 3 8" xfId="829"/>
-    <cellStyle name="Input 8 3 9" xfId="830"/>
-    <cellStyle name="Input 8 4" xfId="831"/>
-    <cellStyle name="Input 8 5" xfId="832"/>
-    <cellStyle name="Input 8 6" xfId="833"/>
-    <cellStyle name="Input 8 7" xfId="834"/>
-    <cellStyle name="Input 8 8" xfId="835"/>
-    <cellStyle name="Input 8 9" xfId="836"/>
-    <cellStyle name="Input 9" xfId="837"/>
-    <cellStyle name="Input 9 10" xfId="838"/>
-    <cellStyle name="Input 9 11" xfId="839"/>
-    <cellStyle name="Input 9 12" xfId="840"/>
-    <cellStyle name="Input 9 2" xfId="841"/>
-    <cellStyle name="Input 9 2 10" xfId="842"/>
-    <cellStyle name="Input 9 2 2" xfId="843"/>
-    <cellStyle name="Input 9 2 3" xfId="844"/>
-    <cellStyle name="Input 9 2 4" xfId="845"/>
-    <cellStyle name="Input 9 2 5" xfId="846"/>
-    <cellStyle name="Input 9 2 6" xfId="847"/>
-    <cellStyle name="Input 9 2 7" xfId="848"/>
-    <cellStyle name="Input 9 2 8" xfId="849"/>
-    <cellStyle name="Input 9 2 9" xfId="850"/>
-    <cellStyle name="Input 9 3" xfId="851"/>
-    <cellStyle name="Input 9 3 10" xfId="852"/>
-    <cellStyle name="Input 9 3 2" xfId="853"/>
-    <cellStyle name="Input 9 3 3" xfId="854"/>
-    <cellStyle name="Input 9 3 4" xfId="855"/>
-    <cellStyle name="Input 9 3 5" xfId="856"/>
-    <cellStyle name="Input 9 3 6" xfId="857"/>
-    <cellStyle name="Input 9 3 7" xfId="858"/>
-    <cellStyle name="Input 9 3 8" xfId="859"/>
-    <cellStyle name="Input 9 3 9" xfId="860"/>
-    <cellStyle name="Input 9 4" xfId="861"/>
-    <cellStyle name="Input 9 5" xfId="862"/>
-    <cellStyle name="Input 9 6" xfId="863"/>
-    <cellStyle name="Input 9 7" xfId="864"/>
-    <cellStyle name="Input 9 8" xfId="865"/>
-    <cellStyle name="Input 9 9" xfId="866"/>
-    <cellStyle name="Linked Cell 10" xfId="867"/>
-    <cellStyle name="Linked Cell 2" xfId="868"/>
-    <cellStyle name="Linked Cell 3" xfId="869"/>
-    <cellStyle name="Linked Cell 4" xfId="870"/>
-    <cellStyle name="Linked Cell 5" xfId="871"/>
-    <cellStyle name="Linked Cell 6" xfId="872"/>
-    <cellStyle name="Linked Cell 7" xfId="873"/>
-    <cellStyle name="Linked Cell 8" xfId="874"/>
-    <cellStyle name="Linked Cell 9" xfId="875"/>
-    <cellStyle name="Neutral 10" xfId="876"/>
-    <cellStyle name="Neutral 2" xfId="877"/>
-    <cellStyle name="Neutral 3" xfId="878"/>
-    <cellStyle name="Neutral 4" xfId="879"/>
-    <cellStyle name="Neutral 5" xfId="880"/>
-    <cellStyle name="Neutral 6" xfId="881"/>
-    <cellStyle name="Neutral 7" xfId="882"/>
-    <cellStyle name="Neutral 8" xfId="883"/>
-    <cellStyle name="Neutral 9" xfId="884"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="885"/>
-    <cellStyle name="Normal 11" xfId="886"/>
-    <cellStyle name="Normal 12" xfId="887"/>
-    <cellStyle name="Normal 12 2" xfId="888"/>
-    <cellStyle name="Normal 12 2 2" xfId="889"/>
-    <cellStyle name="Normal 12 2 3" xfId="890"/>
-    <cellStyle name="Normal 12 3" xfId="891"/>
-    <cellStyle name="Normal 12 3 2" xfId="892"/>
-    <cellStyle name="Normal 12 3 3" xfId="893"/>
-    <cellStyle name="Normal 12 4" xfId="894"/>
-    <cellStyle name="Normal 12 5" xfId="895"/>
-    <cellStyle name="Normal 13" xfId="896"/>
-    <cellStyle name="Normal 13 2" xfId="897"/>
-    <cellStyle name="Normal 13 2 2" xfId="898"/>
-    <cellStyle name="Normal 13 2 3" xfId="899"/>
-    <cellStyle name="Normal 13 2 4" xfId="900"/>
-    <cellStyle name="Normal 13 3" xfId="901"/>
-    <cellStyle name="Normal 13 3 2" xfId="902"/>
-    <cellStyle name="Normal 13 3 3" xfId="903"/>
-    <cellStyle name="Normal 13 4" xfId="904"/>
-    <cellStyle name="Normal 13 4 2" xfId="905"/>
-    <cellStyle name="Normal 13 4 3" xfId="906"/>
-    <cellStyle name="Normal 13 5" xfId="907"/>
-    <cellStyle name="Normal 13 6" xfId="908"/>
-    <cellStyle name="Normal 13 7" xfId="909"/>
-    <cellStyle name="Normal 13 7 2" xfId="910"/>
-    <cellStyle name="Normal 13 7 3" xfId="911"/>
-    <cellStyle name="Normal 13 7 4" xfId="912"/>
-    <cellStyle name="Normal 13 7 5" xfId="913"/>
-    <cellStyle name="Normal 13 7 5 2" xfId="914"/>
-    <cellStyle name="Normal 14" xfId="915"/>
-    <cellStyle name="Normal 14 2" xfId="916"/>
-    <cellStyle name="Normal 14 2 2" xfId="917"/>
-    <cellStyle name="Normal 14 2 3" xfId="918"/>
-    <cellStyle name="Normal 14 2 4" xfId="919"/>
-    <cellStyle name="Normal 14 3" xfId="920"/>
-    <cellStyle name="Normal 14 3 2" xfId="921"/>
-    <cellStyle name="Normal 14 3 3" xfId="922"/>
-    <cellStyle name="Normal 14 4" xfId="923"/>
-    <cellStyle name="Normal 14 4 2" xfId="924"/>
-    <cellStyle name="Normal 14 4 3" xfId="925"/>
-    <cellStyle name="Normal 14 5" xfId="926"/>
-    <cellStyle name="Normal 14 6" xfId="927"/>
-    <cellStyle name="Normal 14 6 2" xfId="928"/>
-    <cellStyle name="Normal 14 7" xfId="929"/>
-    <cellStyle name="Normal 15" xfId="930"/>
-    <cellStyle name="Normal 15 2" xfId="931"/>
-    <cellStyle name="Normal 15 2 2" xfId="932"/>
-    <cellStyle name="Normal 15 2 3" xfId="933"/>
-    <cellStyle name="Normal 15 2 4" xfId="934"/>
-    <cellStyle name="Normal 15 3" xfId="935"/>
-    <cellStyle name="Normal 15 3 2" xfId="936"/>
-    <cellStyle name="Normal 15 3 3" xfId="937"/>
-    <cellStyle name="Normal 15 4" xfId="938"/>
-    <cellStyle name="Normal 15 4 2" xfId="939"/>
-    <cellStyle name="Normal 15 4 3" xfId="940"/>
-    <cellStyle name="Normal 15 5" xfId="941"/>
-    <cellStyle name="Normal 15 6" xfId="942"/>
-    <cellStyle name="Normal 15 6 2" xfId="943"/>
-    <cellStyle name="Normal 15 7" xfId="944"/>
-    <cellStyle name="Normal 15 8" xfId="945"/>
-    <cellStyle name="Normal 16" xfId="946"/>
-    <cellStyle name="Normal 16 2" xfId="947"/>
-    <cellStyle name="Normal 16 2 2" xfId="948"/>
-    <cellStyle name="Normal 16 2 3" xfId="949"/>
-    <cellStyle name="Normal 16 2 4" xfId="950"/>
-    <cellStyle name="Normal 16 3" xfId="951"/>
-    <cellStyle name="Normal 16 3 2" xfId="952"/>
-    <cellStyle name="Normal 16 3 3" xfId="953"/>
-    <cellStyle name="Normal 16 4" xfId="954"/>
-    <cellStyle name="Normal 16 4 2" xfId="955"/>
-    <cellStyle name="Normal 16 4 3" xfId="956"/>
-    <cellStyle name="Normal 16 5" xfId="957"/>
-    <cellStyle name="Normal 16 6" xfId="958"/>
-    <cellStyle name="Normal 16 6 2" xfId="959"/>
-    <cellStyle name="Normal 16 7" xfId="960"/>
-    <cellStyle name="Normal 17" xfId="961"/>
-    <cellStyle name="Normal 18" xfId="962"/>
-    <cellStyle name="Normal 19" xfId="963"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 2 2" xfId="965"/>
-    <cellStyle name="Normal 2 3" xfId="966"/>
-    <cellStyle name="Normal 2 4" xfId="967"/>
-    <cellStyle name="Normal 2 5" xfId="968"/>
-    <cellStyle name="Normal 2 6" xfId="969"/>
-    <cellStyle name="Normal 2 6 2" xfId="970"/>
-    <cellStyle name="Normal 2 6 2 2" xfId="971"/>
-    <cellStyle name="Normal 2 6 2 3" xfId="972"/>
-    <cellStyle name="Normal 2 6 2 4" xfId="973"/>
-    <cellStyle name="Normal 2 6 3" xfId="974"/>
-    <cellStyle name="Normal 2 6 3 2" xfId="975"/>
-    <cellStyle name="Normal 2 6 3 3" xfId="976"/>
-    <cellStyle name="Normal 2 6 4" xfId="977"/>
-    <cellStyle name="Normal 2 6 4 2" xfId="978"/>
-    <cellStyle name="Normal 2 6 4 3" xfId="979"/>
-    <cellStyle name="Normal 2 6 5" xfId="980"/>
-    <cellStyle name="Normal 2 6 6" xfId="981"/>
-    <cellStyle name="Normal 2 6 7" xfId="982"/>
-    <cellStyle name="Normal 2 7" xfId="983"/>
-    <cellStyle name="Normal 2 8" xfId="964"/>
-    <cellStyle name="Normal 2 9" xfId="1882"/>
-    <cellStyle name="Normal 20" xfId="984"/>
-    <cellStyle name="Normal 21" xfId="985"/>
-    <cellStyle name="Normal 22" xfId="986"/>
-    <cellStyle name="Normal 23" xfId="987"/>
-    <cellStyle name="Normal 24" xfId="988"/>
-    <cellStyle name="Normal 24 2" xfId="989"/>
-    <cellStyle name="Normal 24 2 2" xfId="990"/>
-    <cellStyle name="Normal 24 2 3" xfId="991"/>
-    <cellStyle name="Normal 24 2 4" xfId="992"/>
-    <cellStyle name="Normal 24 3" xfId="993"/>
-    <cellStyle name="Normal 24 4" xfId="994"/>
-    <cellStyle name="Normal 24 5" xfId="995"/>
-    <cellStyle name="Normal 25" xfId="996"/>
-    <cellStyle name="Normal 26" xfId="997"/>
-    <cellStyle name="Normal 27" xfId="998"/>
-    <cellStyle name="Normal 28" xfId="999"/>
-    <cellStyle name="Normal 29" xfId="1000"/>
-    <cellStyle name="Normal 3" xfId="10"/>
-    <cellStyle name="Normal 3 2" xfId="4"/>
-    <cellStyle name="Normal 3 2 2" xfId="1002"/>
-    <cellStyle name="Normal 3 3" xfId="1001"/>
-    <cellStyle name="Normal 30" xfId="1003"/>
-    <cellStyle name="Normal 31" xfId="1004"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="1006"/>
-    <cellStyle name="Normal 4 2 2" xfId="1007"/>
-    <cellStyle name="Normal 4 2 3" xfId="1008"/>
-    <cellStyle name="Normal 4 2 4" xfId="1009"/>
-    <cellStyle name="Normal 4 3" xfId="1010"/>
-    <cellStyle name="Normal 4 4" xfId="1011"/>
-    <cellStyle name="Normal 4 5" xfId="1012"/>
-    <cellStyle name="Normal 4 6" xfId="1013"/>
-    <cellStyle name="Normal 4 7" xfId="1005"/>
-    <cellStyle name="Normal 5" xfId="23"/>
-    <cellStyle name="Normal 5 2" xfId="1015"/>
-    <cellStyle name="Normal 5 3" xfId="1016"/>
-    <cellStyle name="Normal 5 4" xfId="1017"/>
-    <cellStyle name="Normal 5 5" xfId="1018"/>
-    <cellStyle name="Normal 5 6" xfId="1014"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Normal 6 2" xfId="1020"/>
-    <cellStyle name="Normal 6 2 2" xfId="1021"/>
-    <cellStyle name="Normal 6 2 3" xfId="1022"/>
-    <cellStyle name="Normal 6 2 4" xfId="1023"/>
-    <cellStyle name="Normal 6 3" xfId="1024"/>
-    <cellStyle name="Normal 6 3 2" xfId="1025"/>
-    <cellStyle name="Normal 6 3 3" xfId="1026"/>
-    <cellStyle name="Normal 6 4" xfId="1027"/>
-    <cellStyle name="Normal 6 4 2" xfId="1028"/>
-    <cellStyle name="Normal 6 4 3" xfId="1029"/>
-    <cellStyle name="Normal 6 5" xfId="1030"/>
-    <cellStyle name="Normal 6 6" xfId="1031"/>
-    <cellStyle name="Normal 6 6 2" xfId="1032"/>
-    <cellStyle name="Normal 6 7" xfId="1033"/>
-    <cellStyle name="Normal 6 8" xfId="1019"/>
-    <cellStyle name="Normal 7" xfId="12"/>
-    <cellStyle name="Normal 7 2" xfId="13"/>
-    <cellStyle name="Normal 7 2 2" xfId="1036"/>
-    <cellStyle name="Normal 7 2 3" xfId="1037"/>
-    <cellStyle name="Normal 7 2 4" xfId="1038"/>
-    <cellStyle name="Normal 7 2 5" xfId="1035"/>
-    <cellStyle name="Normal 7 3" xfId="1039"/>
-    <cellStyle name="Normal 7 3 2" xfId="1040"/>
-    <cellStyle name="Normal 7 3 3" xfId="1041"/>
-    <cellStyle name="Normal 7 4" xfId="1042"/>
-    <cellStyle name="Normal 7 4 2" xfId="1043"/>
-    <cellStyle name="Normal 7 4 3" xfId="1044"/>
-    <cellStyle name="Normal 7 5" xfId="1045"/>
-    <cellStyle name="Normal 7 6" xfId="1046"/>
-    <cellStyle name="Normal 7 6 2" xfId="1047"/>
-    <cellStyle name="Normal 7 7" xfId="1048"/>
-    <cellStyle name="Normal 7 8" xfId="1049"/>
-    <cellStyle name="Normal 7 9" xfId="1034"/>
-    <cellStyle name="Normal 8" xfId="1050"/>
-    <cellStyle name="Normal 9" xfId="1051"/>
-    <cellStyle name="Note 10" xfId="1052"/>
-    <cellStyle name="Note 10 10" xfId="1053"/>
-    <cellStyle name="Note 10 11" xfId="1054"/>
-    <cellStyle name="Note 10 12" xfId="1055"/>
-    <cellStyle name="Note 10 2" xfId="1056"/>
-    <cellStyle name="Note 10 2 10" xfId="1057"/>
-    <cellStyle name="Note 10 2 2" xfId="1058"/>
-    <cellStyle name="Note 10 2 3" xfId="1059"/>
-    <cellStyle name="Note 10 2 4" xfId="1060"/>
-    <cellStyle name="Note 10 2 5" xfId="1061"/>
-    <cellStyle name="Note 10 2 6" xfId="1062"/>
-    <cellStyle name="Note 10 2 7" xfId="1063"/>
-    <cellStyle name="Note 10 2 8" xfId="1064"/>
-    <cellStyle name="Note 10 2 9" xfId="1065"/>
-    <cellStyle name="Note 10 3" xfId="1066"/>
-    <cellStyle name="Note 10 3 10" xfId="1067"/>
-    <cellStyle name="Note 10 3 2" xfId="1068"/>
-    <cellStyle name="Note 10 3 3" xfId="1069"/>
-    <cellStyle name="Note 10 3 4" xfId="1070"/>
-    <cellStyle name="Note 10 3 5" xfId="1071"/>
-    <cellStyle name="Note 10 3 6" xfId="1072"/>
-    <cellStyle name="Note 10 3 7" xfId="1073"/>
-    <cellStyle name="Note 10 3 8" xfId="1074"/>
-    <cellStyle name="Note 10 3 9" xfId="1075"/>
-    <cellStyle name="Note 10 4" xfId="1076"/>
-    <cellStyle name="Note 10 5" xfId="1077"/>
-    <cellStyle name="Note 10 6" xfId="1078"/>
-    <cellStyle name="Note 10 7" xfId="1079"/>
-    <cellStyle name="Note 10 8" xfId="1080"/>
-    <cellStyle name="Note 10 9" xfId="1081"/>
-    <cellStyle name="Note 2" xfId="1082"/>
-    <cellStyle name="Note 2 10" xfId="1083"/>
-    <cellStyle name="Note 2 11" xfId="1084"/>
-    <cellStyle name="Note 2 12" xfId="1085"/>
-    <cellStyle name="Note 2 2" xfId="1086"/>
-    <cellStyle name="Note 2 2 10" xfId="1087"/>
-    <cellStyle name="Note 2 2 2" xfId="1088"/>
-    <cellStyle name="Note 2 2 3" xfId="1089"/>
-    <cellStyle name="Note 2 2 4" xfId="1090"/>
-    <cellStyle name="Note 2 2 5" xfId="1091"/>
-    <cellStyle name="Note 2 2 6" xfId="1092"/>
-    <cellStyle name="Note 2 2 7" xfId="1093"/>
-    <cellStyle name="Note 2 2 8" xfId="1094"/>
-    <cellStyle name="Note 2 2 9" xfId="1095"/>
-    <cellStyle name="Note 2 3" xfId="1096"/>
-    <cellStyle name="Note 2 3 10" xfId="1097"/>
-    <cellStyle name="Note 2 3 2" xfId="1098"/>
-    <cellStyle name="Note 2 3 3" xfId="1099"/>
-    <cellStyle name="Note 2 3 4" xfId="1100"/>
-    <cellStyle name="Note 2 3 5" xfId="1101"/>
-    <cellStyle name="Note 2 3 6" xfId="1102"/>
-    <cellStyle name="Note 2 3 7" xfId="1103"/>
-    <cellStyle name="Note 2 3 8" xfId="1104"/>
-    <cellStyle name="Note 2 3 9" xfId="1105"/>
-    <cellStyle name="Note 2 4" xfId="1106"/>
-    <cellStyle name="Note 2 5" xfId="1107"/>
-    <cellStyle name="Note 2 6" xfId="1108"/>
-    <cellStyle name="Note 2 7" xfId="1109"/>
-    <cellStyle name="Note 2 8" xfId="1110"/>
-    <cellStyle name="Note 2 9" xfId="1111"/>
-    <cellStyle name="Note 3" xfId="1112"/>
-    <cellStyle name="Note 3 10" xfId="1113"/>
-    <cellStyle name="Note 3 11" xfId="1114"/>
-    <cellStyle name="Note 3 12" xfId="1115"/>
-    <cellStyle name="Note 3 2" xfId="1116"/>
-    <cellStyle name="Note 3 2 10" xfId="1117"/>
-    <cellStyle name="Note 3 2 2" xfId="1118"/>
-    <cellStyle name="Note 3 2 3" xfId="1119"/>
-    <cellStyle name="Note 3 2 4" xfId="1120"/>
-    <cellStyle name="Note 3 2 5" xfId="1121"/>
-    <cellStyle name="Note 3 2 6" xfId="1122"/>
-    <cellStyle name="Note 3 2 7" xfId="1123"/>
-    <cellStyle name="Note 3 2 8" xfId="1124"/>
-    <cellStyle name="Note 3 2 9" xfId="1125"/>
-    <cellStyle name="Note 3 3" xfId="1126"/>
-    <cellStyle name="Note 3 3 10" xfId="1127"/>
-    <cellStyle name="Note 3 3 2" xfId="1128"/>
-    <cellStyle name="Note 3 3 3" xfId="1129"/>
-    <cellStyle name="Note 3 3 4" xfId="1130"/>
-    <cellStyle name="Note 3 3 5" xfId="1131"/>
-    <cellStyle name="Note 3 3 6" xfId="1132"/>
-    <cellStyle name="Note 3 3 7" xfId="1133"/>
-    <cellStyle name="Note 3 3 8" xfId="1134"/>
-    <cellStyle name="Note 3 3 9" xfId="1135"/>
-    <cellStyle name="Note 3 4" xfId="1136"/>
-    <cellStyle name="Note 3 5" xfId="1137"/>
-    <cellStyle name="Note 3 6" xfId="1138"/>
-    <cellStyle name="Note 3 7" xfId="1139"/>
-    <cellStyle name="Note 3 8" xfId="1140"/>
-    <cellStyle name="Note 3 9" xfId="1141"/>
-    <cellStyle name="Note 4" xfId="1142"/>
-    <cellStyle name="Note 4 10" xfId="1143"/>
-    <cellStyle name="Note 4 11" xfId="1144"/>
-    <cellStyle name="Note 4 12" xfId="1145"/>
-    <cellStyle name="Note 4 2" xfId="1146"/>
-    <cellStyle name="Note 4 2 10" xfId="1147"/>
-    <cellStyle name="Note 4 2 2" xfId="1148"/>
-    <cellStyle name="Note 4 2 3" xfId="1149"/>
-    <cellStyle name="Note 4 2 4" xfId="1150"/>
-    <cellStyle name="Note 4 2 5" xfId="1151"/>
-    <cellStyle name="Note 4 2 6" xfId="1152"/>
-    <cellStyle name="Note 4 2 7" xfId="1153"/>
-    <cellStyle name="Note 4 2 8" xfId="1154"/>
-    <cellStyle name="Note 4 2 9" xfId="1155"/>
-    <cellStyle name="Note 4 3" xfId="1156"/>
-    <cellStyle name="Note 4 3 10" xfId="1157"/>
-    <cellStyle name="Note 4 3 2" xfId="1158"/>
-    <cellStyle name="Note 4 3 3" xfId="1159"/>
-    <cellStyle name="Note 4 3 4" xfId="1160"/>
-    <cellStyle name="Note 4 3 5" xfId="1161"/>
-    <cellStyle name="Note 4 3 6" xfId="1162"/>
-    <cellStyle name="Note 4 3 7" xfId="1163"/>
-    <cellStyle name="Note 4 3 8" xfId="1164"/>
-    <cellStyle name="Note 4 3 9" xfId="1165"/>
-    <cellStyle name="Note 4 4" xfId="1166"/>
-    <cellStyle name="Note 4 5" xfId="1167"/>
-    <cellStyle name="Note 4 6" xfId="1168"/>
-    <cellStyle name="Note 4 7" xfId="1169"/>
-    <cellStyle name="Note 4 8" xfId="1170"/>
-    <cellStyle name="Note 4 9" xfId="1171"/>
-    <cellStyle name="Note 5" xfId="1172"/>
-    <cellStyle name="Note 5 10" xfId="1173"/>
-    <cellStyle name="Note 5 11" xfId="1174"/>
-    <cellStyle name="Note 5 12" xfId="1175"/>
-    <cellStyle name="Note 5 2" xfId="1176"/>
-    <cellStyle name="Note 5 2 10" xfId="1177"/>
-    <cellStyle name="Note 5 2 2" xfId="1178"/>
-    <cellStyle name="Note 5 2 3" xfId="1179"/>
-    <cellStyle name="Note 5 2 4" xfId="1180"/>
-    <cellStyle name="Note 5 2 5" xfId="1181"/>
-    <cellStyle name="Note 5 2 6" xfId="1182"/>
-    <cellStyle name="Note 5 2 7" xfId="1183"/>
-    <cellStyle name="Note 5 2 8" xfId="1184"/>
-    <cellStyle name="Note 5 2 9" xfId="1185"/>
-    <cellStyle name="Note 5 3" xfId="1186"/>
-    <cellStyle name="Note 5 3 10" xfId="1187"/>
-    <cellStyle name="Note 5 3 2" xfId="1188"/>
-    <cellStyle name="Note 5 3 3" xfId="1189"/>
-    <cellStyle name="Note 5 3 4" xfId="1190"/>
-    <cellStyle name="Note 5 3 5" xfId="1191"/>
-    <cellStyle name="Note 5 3 6" xfId="1192"/>
-    <cellStyle name="Note 5 3 7" xfId="1193"/>
-    <cellStyle name="Note 5 3 8" xfId="1194"/>
-    <cellStyle name="Note 5 3 9" xfId="1195"/>
-    <cellStyle name="Note 5 4" xfId="1196"/>
-    <cellStyle name="Note 5 5" xfId="1197"/>
-    <cellStyle name="Note 5 6" xfId="1198"/>
-    <cellStyle name="Note 5 7" xfId="1199"/>
-    <cellStyle name="Note 5 8" xfId="1200"/>
-    <cellStyle name="Note 5 9" xfId="1201"/>
-    <cellStyle name="Note 6" xfId="1202"/>
-    <cellStyle name="Note 6 10" xfId="1203"/>
-    <cellStyle name="Note 6 11" xfId="1204"/>
-    <cellStyle name="Note 6 12" xfId="1205"/>
-    <cellStyle name="Note 6 2" xfId="1206"/>
-    <cellStyle name="Note 6 2 10" xfId="1207"/>
-    <cellStyle name="Note 6 2 2" xfId="1208"/>
-    <cellStyle name="Note 6 2 3" xfId="1209"/>
-    <cellStyle name="Note 6 2 4" xfId="1210"/>
-    <cellStyle name="Note 6 2 5" xfId="1211"/>
-    <cellStyle name="Note 6 2 6" xfId="1212"/>
-    <cellStyle name="Note 6 2 7" xfId="1213"/>
-    <cellStyle name="Note 6 2 8" xfId="1214"/>
-    <cellStyle name="Note 6 2 9" xfId="1215"/>
-    <cellStyle name="Note 6 3" xfId="1216"/>
-    <cellStyle name="Note 6 3 10" xfId="1217"/>
-    <cellStyle name="Note 6 3 2" xfId="1218"/>
-    <cellStyle name="Note 6 3 3" xfId="1219"/>
-    <cellStyle name="Note 6 3 4" xfId="1220"/>
-    <cellStyle name="Note 6 3 5" xfId="1221"/>
-    <cellStyle name="Note 6 3 6" xfId="1222"/>
-    <cellStyle name="Note 6 3 7" xfId="1223"/>
-    <cellStyle name="Note 6 3 8" xfId="1224"/>
-    <cellStyle name="Note 6 3 9" xfId="1225"/>
-    <cellStyle name="Note 6 4" xfId="1226"/>
-    <cellStyle name="Note 6 5" xfId="1227"/>
-    <cellStyle name="Note 6 6" xfId="1228"/>
-    <cellStyle name="Note 6 7" xfId="1229"/>
-    <cellStyle name="Note 6 8" xfId="1230"/>
-    <cellStyle name="Note 6 9" xfId="1231"/>
-    <cellStyle name="Note 7" xfId="1232"/>
-    <cellStyle name="Note 7 10" xfId="1233"/>
-    <cellStyle name="Note 7 11" xfId="1234"/>
-    <cellStyle name="Note 7 12" xfId="1235"/>
-    <cellStyle name="Note 7 2" xfId="1236"/>
-    <cellStyle name="Note 7 2 10" xfId="1237"/>
-    <cellStyle name="Note 7 2 2" xfId="1238"/>
-    <cellStyle name="Note 7 2 3" xfId="1239"/>
-    <cellStyle name="Note 7 2 4" xfId="1240"/>
-    <cellStyle name="Note 7 2 5" xfId="1241"/>
-    <cellStyle name="Note 7 2 6" xfId="1242"/>
-    <cellStyle name="Note 7 2 7" xfId="1243"/>
-    <cellStyle name="Note 7 2 8" xfId="1244"/>
-    <cellStyle name="Note 7 2 9" xfId="1245"/>
-    <cellStyle name="Note 7 3" xfId="1246"/>
-    <cellStyle name="Note 7 3 10" xfId="1247"/>
-    <cellStyle name="Note 7 3 2" xfId="1248"/>
-    <cellStyle name="Note 7 3 3" xfId="1249"/>
-    <cellStyle name="Note 7 3 4" xfId="1250"/>
-    <cellStyle name="Note 7 3 5" xfId="1251"/>
-    <cellStyle name="Note 7 3 6" xfId="1252"/>
-    <cellStyle name="Note 7 3 7" xfId="1253"/>
-    <cellStyle name="Note 7 3 8" xfId="1254"/>
-    <cellStyle name="Note 7 3 9" xfId="1255"/>
-    <cellStyle name="Note 7 4" xfId="1256"/>
-    <cellStyle name="Note 7 5" xfId="1257"/>
-    <cellStyle name="Note 7 6" xfId="1258"/>
-    <cellStyle name="Note 7 7" xfId="1259"/>
-    <cellStyle name="Note 7 8" xfId="1260"/>
-    <cellStyle name="Note 7 9" xfId="1261"/>
-    <cellStyle name="Note 8" xfId="1262"/>
-    <cellStyle name="Note 8 10" xfId="1263"/>
-    <cellStyle name="Note 8 11" xfId="1264"/>
-    <cellStyle name="Note 8 12" xfId="1265"/>
-    <cellStyle name="Note 8 2" xfId="1266"/>
-    <cellStyle name="Note 8 2 10" xfId="1267"/>
-    <cellStyle name="Note 8 2 2" xfId="1268"/>
-    <cellStyle name="Note 8 2 3" xfId="1269"/>
-    <cellStyle name="Note 8 2 4" xfId="1270"/>
-    <cellStyle name="Note 8 2 5" xfId="1271"/>
-    <cellStyle name="Note 8 2 6" xfId="1272"/>
-    <cellStyle name="Note 8 2 7" xfId="1273"/>
-    <cellStyle name="Note 8 2 8" xfId="1274"/>
-    <cellStyle name="Note 8 2 9" xfId="1275"/>
-    <cellStyle name="Note 8 3" xfId="1276"/>
-    <cellStyle name="Note 8 3 10" xfId="1277"/>
-    <cellStyle name="Note 8 3 2" xfId="1278"/>
-    <cellStyle name="Note 8 3 3" xfId="1279"/>
-    <cellStyle name="Note 8 3 4" xfId="1280"/>
-    <cellStyle name="Note 8 3 5" xfId="1281"/>
-    <cellStyle name="Note 8 3 6" xfId="1282"/>
-    <cellStyle name="Note 8 3 7" xfId="1283"/>
-    <cellStyle name="Note 8 3 8" xfId="1284"/>
-    <cellStyle name="Note 8 3 9" xfId="1285"/>
-    <cellStyle name="Note 8 4" xfId="1286"/>
-    <cellStyle name="Note 8 5" xfId="1287"/>
-    <cellStyle name="Note 8 6" xfId="1288"/>
-    <cellStyle name="Note 8 7" xfId="1289"/>
-    <cellStyle name="Note 8 8" xfId="1290"/>
-    <cellStyle name="Note 8 9" xfId="1291"/>
-    <cellStyle name="Note 9" xfId="1292"/>
-    <cellStyle name="Note 9 10" xfId="1293"/>
-    <cellStyle name="Note 9 11" xfId="1294"/>
-    <cellStyle name="Note 9 12" xfId="1295"/>
-    <cellStyle name="Note 9 2" xfId="1296"/>
-    <cellStyle name="Note 9 2 10" xfId="1297"/>
-    <cellStyle name="Note 9 2 2" xfId="1298"/>
-    <cellStyle name="Note 9 2 3" xfId="1299"/>
-    <cellStyle name="Note 9 2 4" xfId="1300"/>
-    <cellStyle name="Note 9 2 5" xfId="1301"/>
-    <cellStyle name="Note 9 2 6" xfId="1302"/>
-    <cellStyle name="Note 9 2 7" xfId="1303"/>
-    <cellStyle name="Note 9 2 8" xfId="1304"/>
-    <cellStyle name="Note 9 2 9" xfId="1305"/>
-    <cellStyle name="Note 9 3" xfId="1306"/>
-    <cellStyle name="Note 9 3 10" xfId="1307"/>
-    <cellStyle name="Note 9 3 2" xfId="1308"/>
-    <cellStyle name="Note 9 3 3" xfId="1309"/>
-    <cellStyle name="Note 9 3 4" xfId="1310"/>
-    <cellStyle name="Note 9 3 5" xfId="1311"/>
-    <cellStyle name="Note 9 3 6" xfId="1312"/>
-    <cellStyle name="Note 9 3 7" xfId="1313"/>
-    <cellStyle name="Note 9 3 8" xfId="1314"/>
-    <cellStyle name="Note 9 3 9" xfId="1315"/>
-    <cellStyle name="Note 9 4" xfId="1316"/>
-    <cellStyle name="Note 9 5" xfId="1317"/>
-    <cellStyle name="Note 9 6" xfId="1318"/>
-    <cellStyle name="Note 9 7" xfId="1319"/>
-    <cellStyle name="Note 9 8" xfId="1320"/>
-    <cellStyle name="Note 9 9" xfId="1321"/>
-    <cellStyle name="Output 10" xfId="1322"/>
-    <cellStyle name="Output 10 10" xfId="1323"/>
-    <cellStyle name="Output 10 11" xfId="1324"/>
-    <cellStyle name="Output 10 12" xfId="1325"/>
-    <cellStyle name="Output 10 2" xfId="1326"/>
-    <cellStyle name="Output 10 2 10" xfId="1327"/>
-    <cellStyle name="Output 10 2 2" xfId="1328"/>
-    <cellStyle name="Output 10 2 3" xfId="1329"/>
-    <cellStyle name="Output 10 2 4" xfId="1330"/>
-    <cellStyle name="Output 10 2 5" xfId="1331"/>
-    <cellStyle name="Output 10 2 6" xfId="1332"/>
-    <cellStyle name="Output 10 2 7" xfId="1333"/>
-    <cellStyle name="Output 10 2 8" xfId="1334"/>
-    <cellStyle name="Output 10 2 9" xfId="1335"/>
-    <cellStyle name="Output 10 3" xfId="1336"/>
-    <cellStyle name="Output 10 3 10" xfId="1337"/>
-    <cellStyle name="Output 10 3 2" xfId="1338"/>
-    <cellStyle name="Output 10 3 3" xfId="1339"/>
-    <cellStyle name="Output 10 3 4" xfId="1340"/>
-    <cellStyle name="Output 10 3 5" xfId="1341"/>
-    <cellStyle name="Output 10 3 6" xfId="1342"/>
-    <cellStyle name="Output 10 3 7" xfId="1343"/>
-    <cellStyle name="Output 10 3 8" xfId="1344"/>
-    <cellStyle name="Output 10 3 9" xfId="1345"/>
-    <cellStyle name="Output 10 4" xfId="1346"/>
-    <cellStyle name="Output 10 5" xfId="1347"/>
-    <cellStyle name="Output 10 6" xfId="1348"/>
-    <cellStyle name="Output 10 7" xfId="1349"/>
-    <cellStyle name="Output 10 8" xfId="1350"/>
-    <cellStyle name="Output 10 9" xfId="1351"/>
-    <cellStyle name="Output 2" xfId="1352"/>
-    <cellStyle name="Output 2 10" xfId="1353"/>
-    <cellStyle name="Output 2 11" xfId="1354"/>
-    <cellStyle name="Output 2 12" xfId="1355"/>
-    <cellStyle name="Output 2 2" xfId="1356"/>
-    <cellStyle name="Output 2 2 10" xfId="1357"/>
-    <cellStyle name="Output 2 2 2" xfId="1358"/>
-    <cellStyle name="Output 2 2 3" xfId="1359"/>
-    <cellStyle name="Output 2 2 4" xfId="1360"/>
-    <cellStyle name="Output 2 2 5" xfId="1361"/>
-    <cellStyle name="Output 2 2 6" xfId="1362"/>
-    <cellStyle name="Output 2 2 7" xfId="1363"/>
-    <cellStyle name="Output 2 2 8" xfId="1364"/>
-    <cellStyle name="Output 2 2 9" xfId="1365"/>
-    <cellStyle name="Output 2 3" xfId="1366"/>
-    <cellStyle name="Output 2 3 10" xfId="1367"/>
-    <cellStyle name="Output 2 3 2" xfId="1368"/>
-    <cellStyle name="Output 2 3 3" xfId="1369"/>
-    <cellStyle name="Output 2 3 4" xfId="1370"/>
-    <cellStyle name="Output 2 3 5" xfId="1371"/>
-    <cellStyle name="Output 2 3 6" xfId="1372"/>
-    <cellStyle name="Output 2 3 7" xfId="1373"/>
-    <cellStyle name="Output 2 3 8" xfId="1374"/>
-    <cellStyle name="Output 2 3 9" xfId="1375"/>
-    <cellStyle name="Output 2 4" xfId="1376"/>
-    <cellStyle name="Output 2 5" xfId="1377"/>
-    <cellStyle name="Output 2 6" xfId="1378"/>
-    <cellStyle name="Output 2 7" xfId="1379"/>
-    <cellStyle name="Output 2 8" xfId="1380"/>
-    <cellStyle name="Output 2 9" xfId="1381"/>
-    <cellStyle name="Output 3" xfId="1382"/>
-    <cellStyle name="Output 3 10" xfId="1383"/>
-    <cellStyle name="Output 3 11" xfId="1384"/>
-    <cellStyle name="Output 3 12" xfId="1385"/>
-    <cellStyle name="Output 3 2" xfId="1386"/>
-    <cellStyle name="Output 3 2 10" xfId="1387"/>
-    <cellStyle name="Output 3 2 2" xfId="1388"/>
-    <cellStyle name="Output 3 2 3" xfId="1389"/>
-    <cellStyle name="Output 3 2 4" xfId="1390"/>
-    <cellStyle name="Output 3 2 5" xfId="1391"/>
-    <cellStyle name="Output 3 2 6" xfId="1392"/>
-    <cellStyle name="Output 3 2 7" xfId="1393"/>
-    <cellStyle name="Output 3 2 8" xfId="1394"/>
-    <cellStyle name="Output 3 2 9" xfId="1395"/>
-    <cellStyle name="Output 3 3" xfId="1396"/>
-    <cellStyle name="Output 3 3 10" xfId="1397"/>
-    <cellStyle name="Output 3 3 2" xfId="1398"/>
-    <cellStyle name="Output 3 3 3" xfId="1399"/>
-    <cellStyle name="Output 3 3 4" xfId="1400"/>
-    <cellStyle name="Output 3 3 5" xfId="1401"/>
-    <cellStyle name="Output 3 3 6" xfId="1402"/>
-    <cellStyle name="Output 3 3 7" xfId="1403"/>
-    <cellStyle name="Output 3 3 8" xfId="1404"/>
-    <cellStyle name="Output 3 3 9" xfId="1405"/>
-    <cellStyle name="Output 3 4" xfId="1406"/>
-    <cellStyle name="Output 3 5" xfId="1407"/>
-    <cellStyle name="Output 3 6" xfId="1408"/>
-    <cellStyle name="Output 3 7" xfId="1409"/>
-    <cellStyle name="Output 3 8" xfId="1410"/>
-    <cellStyle name="Output 3 9" xfId="1411"/>
-    <cellStyle name="Output 4" xfId="1412"/>
-    <cellStyle name="Output 4 10" xfId="1413"/>
-    <cellStyle name="Output 4 11" xfId="1414"/>
-    <cellStyle name="Output 4 12" xfId="1415"/>
-    <cellStyle name="Output 4 2" xfId="1416"/>
-    <cellStyle name="Output 4 2 10" xfId="1417"/>
-    <cellStyle name="Output 4 2 2" xfId="1418"/>
-    <cellStyle name="Output 4 2 3" xfId="1419"/>
-    <cellStyle name="Output 4 2 4" xfId="1420"/>
-    <cellStyle name="Output 4 2 5" xfId="1421"/>
-    <cellStyle name="Output 4 2 6" xfId="1422"/>
-    <cellStyle name="Output 4 2 7" xfId="1423"/>
-    <cellStyle name="Output 4 2 8" xfId="1424"/>
-    <cellStyle name="Output 4 2 9" xfId="1425"/>
-    <cellStyle name="Output 4 3" xfId="1426"/>
-    <cellStyle name="Output 4 3 10" xfId="1427"/>
-    <cellStyle name="Output 4 3 2" xfId="1428"/>
-    <cellStyle name="Output 4 3 3" xfId="1429"/>
-    <cellStyle name="Output 4 3 4" xfId="1430"/>
-    <cellStyle name="Output 4 3 5" xfId="1431"/>
-    <cellStyle name="Output 4 3 6" xfId="1432"/>
-    <cellStyle name="Output 4 3 7" xfId="1433"/>
-    <cellStyle name="Output 4 3 8" xfId="1434"/>
-    <cellStyle name="Output 4 3 9" xfId="1435"/>
-    <cellStyle name="Output 4 4" xfId="1436"/>
-    <cellStyle name="Output 4 5" xfId="1437"/>
-    <cellStyle name="Output 4 6" xfId="1438"/>
-    <cellStyle name="Output 4 7" xfId="1439"/>
-    <cellStyle name="Output 4 8" xfId="1440"/>
-    <cellStyle name="Output 4 9" xfId="1441"/>
-    <cellStyle name="Output 5" xfId="1442"/>
-    <cellStyle name="Output 5 10" xfId="1443"/>
-    <cellStyle name="Output 5 11" xfId="1444"/>
-    <cellStyle name="Output 5 12" xfId="1445"/>
-    <cellStyle name="Output 5 2" xfId="1446"/>
-    <cellStyle name="Output 5 2 10" xfId="1447"/>
-    <cellStyle name="Output 5 2 2" xfId="1448"/>
-    <cellStyle name="Output 5 2 3" xfId="1449"/>
-    <cellStyle name="Output 5 2 4" xfId="1450"/>
-    <cellStyle name="Output 5 2 5" xfId="1451"/>
-    <cellStyle name="Output 5 2 6" xfId="1452"/>
-    <cellStyle name="Output 5 2 7" xfId="1453"/>
-    <cellStyle name="Output 5 2 8" xfId="1454"/>
-    <cellStyle name="Output 5 2 9" xfId="1455"/>
-    <cellStyle name="Output 5 3" xfId="1456"/>
-    <cellStyle name="Output 5 3 10" xfId="1457"/>
-    <cellStyle name="Output 5 3 2" xfId="1458"/>
-    <cellStyle name="Output 5 3 3" xfId="1459"/>
-    <cellStyle name="Output 5 3 4" xfId="1460"/>
-    <cellStyle name="Output 5 3 5" xfId="1461"/>
-    <cellStyle name="Output 5 3 6" xfId="1462"/>
-    <cellStyle name="Output 5 3 7" xfId="1463"/>
-    <cellStyle name="Output 5 3 8" xfId="1464"/>
-    <cellStyle name="Output 5 3 9" xfId="1465"/>
-    <cellStyle name="Output 5 4" xfId="1466"/>
-    <cellStyle name="Output 5 5" xfId="1467"/>
-    <cellStyle name="Output 5 6" xfId="1468"/>
-    <cellStyle name="Output 5 7" xfId="1469"/>
-    <cellStyle name="Output 5 8" xfId="1470"/>
-    <cellStyle name="Output 5 9" xfId="1471"/>
-    <cellStyle name="Output 6" xfId="1472"/>
-    <cellStyle name="Output 6 10" xfId="1473"/>
-    <cellStyle name="Output 6 11" xfId="1474"/>
-    <cellStyle name="Output 6 12" xfId="1475"/>
-    <cellStyle name="Output 6 2" xfId="1476"/>
-    <cellStyle name="Output 6 2 10" xfId="1477"/>
-    <cellStyle name="Output 6 2 2" xfId="1478"/>
-    <cellStyle name="Output 6 2 3" xfId="1479"/>
-    <cellStyle name="Output 6 2 4" xfId="1480"/>
-    <cellStyle name="Output 6 2 5" xfId="1481"/>
-    <cellStyle name="Output 6 2 6" xfId="1482"/>
-    <cellStyle name="Output 6 2 7" xfId="1483"/>
-    <cellStyle name="Output 6 2 8" xfId="1484"/>
-    <cellStyle name="Output 6 2 9" xfId="1485"/>
-    <cellStyle name="Output 6 3" xfId="1486"/>
-    <cellStyle name="Output 6 3 10" xfId="1487"/>
-    <cellStyle name="Output 6 3 2" xfId="1488"/>
-    <cellStyle name="Output 6 3 3" xfId="1489"/>
-    <cellStyle name="Output 6 3 4" xfId="1490"/>
-    <cellStyle name="Output 6 3 5" xfId="1491"/>
-    <cellStyle name="Output 6 3 6" xfId="1492"/>
-    <cellStyle name="Output 6 3 7" xfId="1493"/>
-    <cellStyle name="Output 6 3 8" xfId="1494"/>
-    <cellStyle name="Output 6 3 9" xfId="1495"/>
-    <cellStyle name="Output 6 4" xfId="1496"/>
-    <cellStyle name="Output 6 5" xfId="1497"/>
-    <cellStyle name="Output 6 6" xfId="1498"/>
-    <cellStyle name="Output 6 7" xfId="1499"/>
-    <cellStyle name="Output 6 8" xfId="1500"/>
-    <cellStyle name="Output 6 9" xfId="1501"/>
-    <cellStyle name="Output 7" xfId="1502"/>
-    <cellStyle name="Output 7 10" xfId="1503"/>
-    <cellStyle name="Output 7 11" xfId="1504"/>
-    <cellStyle name="Output 7 12" xfId="1505"/>
-    <cellStyle name="Output 7 2" xfId="1506"/>
-    <cellStyle name="Output 7 2 10" xfId="1507"/>
-    <cellStyle name="Output 7 2 2" xfId="1508"/>
-    <cellStyle name="Output 7 2 3" xfId="1509"/>
-    <cellStyle name="Output 7 2 4" xfId="1510"/>
-    <cellStyle name="Output 7 2 5" xfId="1511"/>
-    <cellStyle name="Output 7 2 6" xfId="1512"/>
-    <cellStyle name="Output 7 2 7" xfId="1513"/>
-    <cellStyle name="Output 7 2 8" xfId="1514"/>
-    <cellStyle name="Output 7 2 9" xfId="1515"/>
-    <cellStyle name="Output 7 3" xfId="1516"/>
-    <cellStyle name="Output 7 3 10" xfId="1517"/>
-    <cellStyle name="Output 7 3 2" xfId="1518"/>
-    <cellStyle name="Output 7 3 3" xfId="1519"/>
-    <cellStyle name="Output 7 3 4" xfId="1520"/>
-    <cellStyle name="Output 7 3 5" xfId="1521"/>
-    <cellStyle name="Output 7 3 6" xfId="1522"/>
-    <cellStyle name="Output 7 3 7" xfId="1523"/>
-    <cellStyle name="Output 7 3 8" xfId="1524"/>
-    <cellStyle name="Output 7 3 9" xfId="1525"/>
-    <cellStyle name="Output 7 4" xfId="1526"/>
-    <cellStyle name="Output 7 5" xfId="1527"/>
-    <cellStyle name="Output 7 6" xfId="1528"/>
-    <cellStyle name="Output 7 7" xfId="1529"/>
-    <cellStyle name="Output 7 8" xfId="1530"/>
-    <cellStyle name="Output 7 9" xfId="1531"/>
-    <cellStyle name="Output 8" xfId="1532"/>
-    <cellStyle name="Output 8 10" xfId="1533"/>
-    <cellStyle name="Output 8 11" xfId="1534"/>
-    <cellStyle name="Output 8 12" xfId="1535"/>
-    <cellStyle name="Output 8 2" xfId="1536"/>
-    <cellStyle name="Output 8 2 10" xfId="1537"/>
-    <cellStyle name="Output 8 2 2" xfId="1538"/>
-    <cellStyle name="Output 8 2 3" xfId="1539"/>
-    <cellStyle name="Output 8 2 4" xfId="1540"/>
-    <cellStyle name="Output 8 2 5" xfId="1541"/>
-    <cellStyle name="Output 8 2 6" xfId="1542"/>
-    <cellStyle name="Output 8 2 7" xfId="1543"/>
-    <cellStyle name="Output 8 2 8" xfId="1544"/>
-    <cellStyle name="Output 8 2 9" xfId="1545"/>
-    <cellStyle name="Output 8 3" xfId="1546"/>
-    <cellStyle name="Output 8 3 10" xfId="1547"/>
-    <cellStyle name="Output 8 3 2" xfId="1548"/>
-    <cellStyle name="Output 8 3 3" xfId="1549"/>
-    <cellStyle name="Output 8 3 4" xfId="1550"/>
-    <cellStyle name="Output 8 3 5" xfId="1551"/>
-    <cellStyle name="Output 8 3 6" xfId="1552"/>
-    <cellStyle name="Output 8 3 7" xfId="1553"/>
-    <cellStyle name="Output 8 3 8" xfId="1554"/>
-    <cellStyle name="Output 8 3 9" xfId="1555"/>
-    <cellStyle name="Output 8 4" xfId="1556"/>
-    <cellStyle name="Output 8 5" xfId="1557"/>
-    <cellStyle name="Output 8 6" xfId="1558"/>
-    <cellStyle name="Output 8 7" xfId="1559"/>
-    <cellStyle name="Output 8 8" xfId="1560"/>
-    <cellStyle name="Output 8 9" xfId="1561"/>
-    <cellStyle name="Output 9" xfId="1562"/>
-    <cellStyle name="Output 9 10" xfId="1563"/>
-    <cellStyle name="Output 9 11" xfId="1564"/>
-    <cellStyle name="Output 9 12" xfId="1565"/>
-    <cellStyle name="Output 9 2" xfId="1566"/>
-    <cellStyle name="Output 9 2 10" xfId="1567"/>
-    <cellStyle name="Output 9 2 2" xfId="1568"/>
-    <cellStyle name="Output 9 2 3" xfId="1569"/>
-    <cellStyle name="Output 9 2 4" xfId="1570"/>
-    <cellStyle name="Output 9 2 5" xfId="1571"/>
-    <cellStyle name="Output 9 2 6" xfId="1572"/>
-    <cellStyle name="Output 9 2 7" xfId="1573"/>
-    <cellStyle name="Output 9 2 8" xfId="1574"/>
-    <cellStyle name="Output 9 2 9" xfId="1575"/>
-    <cellStyle name="Output 9 3" xfId="1576"/>
-    <cellStyle name="Output 9 3 10" xfId="1577"/>
-    <cellStyle name="Output 9 3 2" xfId="1578"/>
-    <cellStyle name="Output 9 3 3" xfId="1579"/>
-    <cellStyle name="Output 9 3 4" xfId="1580"/>
-    <cellStyle name="Output 9 3 5" xfId="1581"/>
-    <cellStyle name="Output 9 3 6" xfId="1582"/>
-    <cellStyle name="Output 9 3 7" xfId="1583"/>
-    <cellStyle name="Output 9 3 8" xfId="1584"/>
-    <cellStyle name="Output 9 3 9" xfId="1585"/>
-    <cellStyle name="Output 9 4" xfId="1586"/>
-    <cellStyle name="Output 9 5" xfId="1587"/>
-    <cellStyle name="Output 9 6" xfId="1588"/>
-    <cellStyle name="Output 9 7" xfId="1589"/>
-    <cellStyle name="Output 9 8" xfId="1590"/>
-    <cellStyle name="Output 9 9" xfId="1591"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="1592"/>
-    <cellStyle name="Section Heading" xfId="1593"/>
-    <cellStyle name="Title 10" xfId="1594"/>
-    <cellStyle name="Title 2" xfId="1595"/>
-    <cellStyle name="Title 3" xfId="1596"/>
-    <cellStyle name="Title 4" xfId="1597"/>
-    <cellStyle name="Title 5" xfId="1598"/>
-    <cellStyle name="Title 6" xfId="1599"/>
-    <cellStyle name="Title 7" xfId="1600"/>
-    <cellStyle name="Title 8" xfId="1601"/>
-    <cellStyle name="Title 9" xfId="1602"/>
-    <cellStyle name="Total 10" xfId="1603"/>
-    <cellStyle name="Total 10 10" xfId="1604"/>
-    <cellStyle name="Total 10 11" xfId="1605"/>
-    <cellStyle name="Total 10 12" xfId="1606"/>
-    <cellStyle name="Total 10 2" xfId="1607"/>
-    <cellStyle name="Total 10 2 10" xfId="1608"/>
-    <cellStyle name="Total 10 2 2" xfId="1609"/>
-    <cellStyle name="Total 10 2 3" xfId="1610"/>
-    <cellStyle name="Total 10 2 4" xfId="1611"/>
-    <cellStyle name="Total 10 2 5" xfId="1612"/>
-    <cellStyle name="Total 10 2 6" xfId="1613"/>
-    <cellStyle name="Total 10 2 7" xfId="1614"/>
-    <cellStyle name="Total 10 2 8" xfId="1615"/>
-    <cellStyle name="Total 10 2 9" xfId="1616"/>
-    <cellStyle name="Total 10 3" xfId="1617"/>
-    <cellStyle name="Total 10 3 10" xfId="1618"/>
-    <cellStyle name="Total 10 3 2" xfId="1619"/>
-    <cellStyle name="Total 10 3 3" xfId="1620"/>
-    <cellStyle name="Total 10 3 4" xfId="1621"/>
-    <cellStyle name="Total 10 3 5" xfId="1622"/>
-    <cellStyle name="Total 10 3 6" xfId="1623"/>
-    <cellStyle name="Total 10 3 7" xfId="1624"/>
-    <cellStyle name="Total 10 3 8" xfId="1625"/>
-    <cellStyle name="Total 10 3 9" xfId="1626"/>
-    <cellStyle name="Total 10 4" xfId="1627"/>
-    <cellStyle name="Total 10 5" xfId="1628"/>
-    <cellStyle name="Total 10 6" xfId="1629"/>
-    <cellStyle name="Total 10 7" xfId="1630"/>
-    <cellStyle name="Total 10 8" xfId="1631"/>
-    <cellStyle name="Total 10 9" xfId="1632"/>
-    <cellStyle name="Total 2" xfId="1633"/>
-    <cellStyle name="Total 2 10" xfId="1634"/>
-    <cellStyle name="Total 2 11" xfId="1635"/>
-    <cellStyle name="Total 2 12" xfId="1636"/>
-    <cellStyle name="Total 2 2" xfId="1637"/>
-    <cellStyle name="Total 2 2 10" xfId="1638"/>
-    <cellStyle name="Total 2 2 2" xfId="1639"/>
-    <cellStyle name="Total 2 2 3" xfId="1640"/>
-    <cellStyle name="Total 2 2 4" xfId="1641"/>
-    <cellStyle name="Total 2 2 5" xfId="1642"/>
-    <cellStyle name="Total 2 2 6" xfId="1643"/>
-    <cellStyle name="Total 2 2 7" xfId="1644"/>
-    <cellStyle name="Total 2 2 8" xfId="1645"/>
-    <cellStyle name="Total 2 2 9" xfId="1646"/>
-    <cellStyle name="Total 2 3" xfId="1647"/>
-    <cellStyle name="Total 2 3 10" xfId="1648"/>
-    <cellStyle name="Total 2 3 2" xfId="1649"/>
-    <cellStyle name="Total 2 3 3" xfId="1650"/>
-    <cellStyle name="Total 2 3 4" xfId="1651"/>
-    <cellStyle name="Total 2 3 5" xfId="1652"/>
-    <cellStyle name="Total 2 3 6" xfId="1653"/>
-    <cellStyle name="Total 2 3 7" xfId="1654"/>
-    <cellStyle name="Total 2 3 8" xfId="1655"/>
-    <cellStyle name="Total 2 3 9" xfId="1656"/>
-    <cellStyle name="Total 2 4" xfId="1657"/>
-    <cellStyle name="Total 2 5" xfId="1658"/>
-    <cellStyle name="Total 2 6" xfId="1659"/>
-    <cellStyle name="Total 2 7" xfId="1660"/>
-    <cellStyle name="Total 2 8" xfId="1661"/>
-    <cellStyle name="Total 2 9" xfId="1662"/>
-    <cellStyle name="Total 3" xfId="1663"/>
-    <cellStyle name="Total 3 10" xfId="1664"/>
-    <cellStyle name="Total 3 11" xfId="1665"/>
-    <cellStyle name="Total 3 12" xfId="1666"/>
-    <cellStyle name="Total 3 2" xfId="1667"/>
-    <cellStyle name="Total 3 2 10" xfId="1668"/>
-    <cellStyle name="Total 3 2 2" xfId="1669"/>
-    <cellStyle name="Total 3 2 3" xfId="1670"/>
-    <cellStyle name="Total 3 2 4" xfId="1671"/>
-    <cellStyle name="Total 3 2 5" xfId="1672"/>
-    <cellStyle name="Total 3 2 6" xfId="1673"/>
-    <cellStyle name="Total 3 2 7" xfId="1674"/>
-    <cellStyle name="Total 3 2 8" xfId="1675"/>
-    <cellStyle name="Total 3 2 9" xfId="1676"/>
-    <cellStyle name="Total 3 3" xfId="1677"/>
-    <cellStyle name="Total 3 3 10" xfId="1678"/>
-    <cellStyle name="Total 3 3 2" xfId="1679"/>
-    <cellStyle name="Total 3 3 3" xfId="1680"/>
-    <cellStyle name="Total 3 3 4" xfId="1681"/>
-    <cellStyle name="Total 3 3 5" xfId="1682"/>
-    <cellStyle name="Total 3 3 6" xfId="1683"/>
-    <cellStyle name="Total 3 3 7" xfId="1684"/>
-    <cellStyle name="Total 3 3 8" xfId="1685"/>
-    <cellStyle name="Total 3 3 9" xfId="1686"/>
-    <cellStyle name="Total 3 4" xfId="1687"/>
-    <cellStyle name="Total 3 5" xfId="1688"/>
-    <cellStyle name="Total 3 6" xfId="1689"/>
-    <cellStyle name="Total 3 7" xfId="1690"/>
-    <cellStyle name="Total 3 8" xfId="1691"/>
-    <cellStyle name="Total 3 9" xfId="1692"/>
-    <cellStyle name="Total 4" xfId="1693"/>
-    <cellStyle name="Total 4 10" xfId="1694"/>
-    <cellStyle name="Total 4 11" xfId="1695"/>
-    <cellStyle name="Total 4 12" xfId="1696"/>
-    <cellStyle name="Total 4 2" xfId="1697"/>
-    <cellStyle name="Total 4 2 10" xfId="1698"/>
-    <cellStyle name="Total 4 2 2" xfId="1699"/>
-    <cellStyle name="Total 4 2 3" xfId="1700"/>
-    <cellStyle name="Total 4 2 4" xfId="1701"/>
-    <cellStyle name="Total 4 2 5" xfId="1702"/>
-    <cellStyle name="Total 4 2 6" xfId="1703"/>
-    <cellStyle name="Total 4 2 7" xfId="1704"/>
-    <cellStyle name="Total 4 2 8" xfId="1705"/>
-    <cellStyle name="Total 4 2 9" xfId="1706"/>
-    <cellStyle name="Total 4 3" xfId="1707"/>
-    <cellStyle name="Total 4 3 10" xfId="1708"/>
-    <cellStyle name="Total 4 3 2" xfId="1709"/>
-    <cellStyle name="Total 4 3 3" xfId="1710"/>
-    <cellStyle name="Total 4 3 4" xfId="1711"/>
-    <cellStyle name="Total 4 3 5" xfId="1712"/>
-    <cellStyle name="Total 4 3 6" xfId="1713"/>
-    <cellStyle name="Total 4 3 7" xfId="1714"/>
-    <cellStyle name="Total 4 3 8" xfId="1715"/>
-    <cellStyle name="Total 4 3 9" xfId="1716"/>
-    <cellStyle name="Total 4 4" xfId="1717"/>
-    <cellStyle name="Total 4 5" xfId="1718"/>
-    <cellStyle name="Total 4 6" xfId="1719"/>
-    <cellStyle name="Total 4 7" xfId="1720"/>
-    <cellStyle name="Total 4 8" xfId="1721"/>
-    <cellStyle name="Total 4 9" xfId="1722"/>
-    <cellStyle name="Total 5" xfId="1723"/>
-    <cellStyle name="Total 5 10" xfId="1724"/>
-    <cellStyle name="Total 5 11" xfId="1725"/>
-    <cellStyle name="Total 5 12" xfId="1726"/>
-    <cellStyle name="Total 5 2" xfId="1727"/>
-    <cellStyle name="Total 5 2 10" xfId="1728"/>
-    <cellStyle name="Total 5 2 2" xfId="1729"/>
-    <cellStyle name="Total 5 2 3" xfId="1730"/>
-    <cellStyle name="Total 5 2 4" xfId="1731"/>
-    <cellStyle name="Total 5 2 5" xfId="1732"/>
-    <cellStyle name="Total 5 2 6" xfId="1733"/>
-    <cellStyle name="Total 5 2 7" xfId="1734"/>
-    <cellStyle name="Total 5 2 8" xfId="1735"/>
-    <cellStyle name="Total 5 2 9" xfId="1736"/>
-    <cellStyle name="Total 5 3" xfId="1737"/>
-    <cellStyle name="Total 5 3 10" xfId="1738"/>
-    <cellStyle name="Total 5 3 2" xfId="1739"/>
-    <cellStyle name="Total 5 3 3" xfId="1740"/>
-    <cellStyle name="Total 5 3 4" xfId="1741"/>
-    <cellStyle name="Total 5 3 5" xfId="1742"/>
-    <cellStyle name="Total 5 3 6" xfId="1743"/>
-    <cellStyle name="Total 5 3 7" xfId="1744"/>
-    <cellStyle name="Total 5 3 8" xfId="1745"/>
-    <cellStyle name="Total 5 3 9" xfId="1746"/>
-    <cellStyle name="Total 5 4" xfId="1747"/>
-    <cellStyle name="Total 5 5" xfId="1748"/>
-    <cellStyle name="Total 5 6" xfId="1749"/>
-    <cellStyle name="Total 5 7" xfId="1750"/>
-    <cellStyle name="Total 5 8" xfId="1751"/>
-    <cellStyle name="Total 5 9" xfId="1752"/>
-    <cellStyle name="Total 6" xfId="1753"/>
-    <cellStyle name="Total 6 10" xfId="1754"/>
-    <cellStyle name="Total 6 11" xfId="1755"/>
-    <cellStyle name="Total 6 12" xfId="1756"/>
-    <cellStyle name="Total 6 2" xfId="1757"/>
-    <cellStyle name="Total 6 2 10" xfId="1758"/>
-    <cellStyle name="Total 6 2 2" xfId="1759"/>
-    <cellStyle name="Total 6 2 3" xfId="1760"/>
-    <cellStyle name="Total 6 2 4" xfId="1761"/>
-    <cellStyle name="Total 6 2 5" xfId="1762"/>
-    <cellStyle name="Total 6 2 6" xfId="1763"/>
-    <cellStyle name="Total 6 2 7" xfId="1764"/>
-    <cellStyle name="Total 6 2 8" xfId="1765"/>
-    <cellStyle name="Total 6 2 9" xfId="1766"/>
-    <cellStyle name="Total 6 3" xfId="1767"/>
-    <cellStyle name="Total 6 3 10" xfId="1768"/>
-    <cellStyle name="Total 6 3 2" xfId="1769"/>
-    <cellStyle name="Total 6 3 3" xfId="1770"/>
-    <cellStyle name="Total 6 3 4" xfId="1771"/>
-    <cellStyle name="Total 6 3 5" xfId="1772"/>
-    <cellStyle name="Total 6 3 6" xfId="1773"/>
-    <cellStyle name="Total 6 3 7" xfId="1774"/>
-    <cellStyle name="Total 6 3 8" xfId="1775"/>
-    <cellStyle name="Total 6 3 9" xfId="1776"/>
-    <cellStyle name="Total 6 4" xfId="1777"/>
-    <cellStyle name="Total 6 5" xfId="1778"/>
-    <cellStyle name="Total 6 6" xfId="1779"/>
-    <cellStyle name="Total 6 7" xfId="1780"/>
-    <cellStyle name="Total 6 8" xfId="1781"/>
-    <cellStyle name="Total 6 9" xfId="1782"/>
-    <cellStyle name="Total 7" xfId="1783"/>
-    <cellStyle name="Total 7 10" xfId="1784"/>
-    <cellStyle name="Total 7 11" xfId="1785"/>
-    <cellStyle name="Total 7 12" xfId="1786"/>
-    <cellStyle name="Total 7 2" xfId="1787"/>
-    <cellStyle name="Total 7 2 10" xfId="1788"/>
-    <cellStyle name="Total 7 2 2" xfId="1789"/>
-    <cellStyle name="Total 7 2 3" xfId="1790"/>
-    <cellStyle name="Total 7 2 4" xfId="1791"/>
-    <cellStyle name="Total 7 2 5" xfId="1792"/>
-    <cellStyle name="Total 7 2 6" xfId="1793"/>
-    <cellStyle name="Total 7 2 7" xfId="1794"/>
-    <cellStyle name="Total 7 2 8" xfId="1795"/>
-    <cellStyle name="Total 7 2 9" xfId="1796"/>
-    <cellStyle name="Total 7 3" xfId="1797"/>
-    <cellStyle name="Total 7 3 10" xfId="1798"/>
-    <cellStyle name="Total 7 3 2" xfId="1799"/>
-    <cellStyle name="Total 7 3 3" xfId="1800"/>
-    <cellStyle name="Total 7 3 4" xfId="1801"/>
-    <cellStyle name="Total 7 3 5" xfId="1802"/>
-    <cellStyle name="Total 7 3 6" xfId="1803"/>
-    <cellStyle name="Total 7 3 7" xfId="1804"/>
-    <cellStyle name="Total 7 3 8" xfId="1805"/>
-    <cellStyle name="Total 7 3 9" xfId="1806"/>
-    <cellStyle name="Total 7 4" xfId="1807"/>
-    <cellStyle name="Total 7 5" xfId="1808"/>
-    <cellStyle name="Total 7 6" xfId="1809"/>
-    <cellStyle name="Total 7 7" xfId="1810"/>
-    <cellStyle name="Total 7 8" xfId="1811"/>
-    <cellStyle name="Total 7 9" xfId="1812"/>
-    <cellStyle name="Total 8" xfId="1813"/>
-    <cellStyle name="Total 8 10" xfId="1814"/>
-    <cellStyle name="Total 8 11" xfId="1815"/>
-    <cellStyle name="Total 8 12" xfId="1816"/>
-    <cellStyle name="Total 8 2" xfId="1817"/>
-    <cellStyle name="Total 8 2 10" xfId="1818"/>
-    <cellStyle name="Total 8 2 2" xfId="1819"/>
-    <cellStyle name="Total 8 2 3" xfId="1820"/>
-    <cellStyle name="Total 8 2 4" xfId="1821"/>
-    <cellStyle name="Total 8 2 5" xfId="1822"/>
-    <cellStyle name="Total 8 2 6" xfId="1823"/>
-    <cellStyle name="Total 8 2 7" xfId="1824"/>
-    <cellStyle name="Total 8 2 8" xfId="1825"/>
-    <cellStyle name="Total 8 2 9" xfId="1826"/>
-    <cellStyle name="Total 8 3" xfId="1827"/>
-    <cellStyle name="Total 8 3 10" xfId="1828"/>
-    <cellStyle name="Total 8 3 2" xfId="1829"/>
-    <cellStyle name="Total 8 3 3" xfId="1830"/>
-    <cellStyle name="Total 8 3 4" xfId="1831"/>
-    <cellStyle name="Total 8 3 5" xfId="1832"/>
-    <cellStyle name="Total 8 3 6" xfId="1833"/>
-    <cellStyle name="Total 8 3 7" xfId="1834"/>
-    <cellStyle name="Total 8 3 8" xfId="1835"/>
-    <cellStyle name="Total 8 3 9" xfId="1836"/>
-    <cellStyle name="Total 8 4" xfId="1837"/>
-    <cellStyle name="Total 8 5" xfId="1838"/>
-    <cellStyle name="Total 8 6" xfId="1839"/>
-    <cellStyle name="Total 8 7" xfId="1840"/>
-    <cellStyle name="Total 8 8" xfId="1841"/>
-    <cellStyle name="Total 8 9" xfId="1842"/>
-    <cellStyle name="Total 9" xfId="1843"/>
-    <cellStyle name="Total 9 10" xfId="1844"/>
-    <cellStyle name="Total 9 11" xfId="1845"/>
-    <cellStyle name="Total 9 12" xfId="1846"/>
-    <cellStyle name="Total 9 2" xfId="1847"/>
-    <cellStyle name="Total 9 2 10" xfId="1848"/>
-    <cellStyle name="Total 9 2 2" xfId="1849"/>
-    <cellStyle name="Total 9 2 3" xfId="1850"/>
-    <cellStyle name="Total 9 2 4" xfId="1851"/>
-    <cellStyle name="Total 9 2 5" xfId="1852"/>
-    <cellStyle name="Total 9 2 6" xfId="1853"/>
-    <cellStyle name="Total 9 2 7" xfId="1854"/>
-    <cellStyle name="Total 9 2 8" xfId="1855"/>
-    <cellStyle name="Total 9 2 9" xfId="1856"/>
-    <cellStyle name="Total 9 3" xfId="1857"/>
-    <cellStyle name="Total 9 3 10" xfId="1858"/>
-    <cellStyle name="Total 9 3 2" xfId="1859"/>
-    <cellStyle name="Total 9 3 3" xfId="1860"/>
-    <cellStyle name="Total 9 3 4" xfId="1861"/>
-    <cellStyle name="Total 9 3 5" xfId="1862"/>
-    <cellStyle name="Total 9 3 6" xfId="1863"/>
-    <cellStyle name="Total 9 3 7" xfId="1864"/>
-    <cellStyle name="Total 9 3 8" xfId="1865"/>
-    <cellStyle name="Total 9 3 9" xfId="1866"/>
-    <cellStyle name="Total 9 4" xfId="1867"/>
-    <cellStyle name="Total 9 5" xfId="1868"/>
-    <cellStyle name="Total 9 6" xfId="1869"/>
-    <cellStyle name="Total 9 7" xfId="1870"/>
-    <cellStyle name="Total 9 8" xfId="1871"/>
-    <cellStyle name="Total 9 9" xfId="1872"/>
-    <cellStyle name="Warning Text 10" xfId="1873"/>
-    <cellStyle name="Warning Text 2" xfId="1874"/>
-    <cellStyle name="Warning Text 3" xfId="1875"/>
-    <cellStyle name="Warning Text 4" xfId="1876"/>
-    <cellStyle name="Warning Text 5" xfId="1877"/>
-    <cellStyle name="Warning Text 6" xfId="1878"/>
-    <cellStyle name="Warning Text 7" xfId="1879"/>
-    <cellStyle name="Warning Text 8" xfId="1880"/>
-    <cellStyle name="Warning Text 9" xfId="1881"/>
-    <cellStyle name="Гиперссылка 2" xfId="14"/>
-    <cellStyle name="Обычный 2" xfId="15"/>
-    <cellStyle name="Обычный 2 2" xfId="16"/>
-    <cellStyle name="Обычный 3" xfId="17"/>
-    <cellStyle name="Обычный 4" xfId="18"/>
-    <cellStyle name="Обычный 5" xfId="20"/>
-    <cellStyle name="Обычный 5 2" xfId="21"/>
-    <cellStyle name="Обычный 5 3" xfId="22"/>
-    <cellStyle name="Обычный 6" xfId="19"/>
+    <cellStyle name="20% - Accent1 10" xfId="42" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 5" xfId="38" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 7" xfId="36" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 9" xfId="34" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent2 10" xfId="33" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent2 4" xfId="31" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent2 5" xfId="24" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent2 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent2 7" xfId="29" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent2 8" xfId="26" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent2 9" xfId="28" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent3 10" xfId="27" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent3 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent3 5" xfId="46" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Accent3 6" xfId="47" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - Accent3 7" xfId="48" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - Accent3 8" xfId="49" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent3 9" xfId="50" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Accent4 10" xfId="51" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="53" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent4 4" xfId="54" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Accent4 5" xfId="55" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Accent4 6" xfId="56" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Accent4 7" xfId="57" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Accent4 8" xfId="58" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Accent4 9" xfId="59" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Accent5 10" xfId="60" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="62" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - Accent5 4" xfId="63" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - Accent5 5" xfId="64" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - Accent5 6" xfId="65" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Accent5 7" xfId="66" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - Accent5 8" xfId="67" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - Accent5 9" xfId="68" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - Accent6 10" xfId="69" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="71" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - Accent6 4" xfId="72" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="20% - Accent6 5" xfId="73" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - Accent6 6" xfId="74" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - Accent6 7" xfId="75" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - Accent6 8" xfId="76" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - Accent6 9" xfId="77" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - Accent1 10" xfId="78" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - Accent1 4" xfId="81" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - Accent1 5" xfId="82" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="40% - Accent1 6" xfId="83" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="40% - Accent1 7" xfId="84" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="40% - Accent1 8" xfId="85" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="40% - Accent1 9" xfId="86" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="40% - Accent2 10" xfId="87" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - Accent2 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - Accent2 5" xfId="91" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - Accent2 6" xfId="92" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - Accent2 7" xfId="93" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - Accent2 8" xfId="94" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - Accent2 9" xfId="95" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - Accent3 10" xfId="96" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="98" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - Accent3 4" xfId="99" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - Accent3 5" xfId="100" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - Accent3 6" xfId="101" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - Accent3 7" xfId="102" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - Accent3 8" xfId="103" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - Accent3 9" xfId="104" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - Accent4 10" xfId="105" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="107" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - Accent4 4" xfId="108" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - Accent4 5" xfId="109" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - Accent4 6" xfId="110" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - Accent4 7" xfId="111" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - Accent4 8" xfId="112" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - Accent4 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - Accent5 10" xfId="114" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="115" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="116" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="40% - Accent5 4" xfId="117" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="40% - Accent5 5" xfId="118" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="40% - Accent5 6" xfId="119" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - Accent5 7" xfId="120" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="40% - Accent5 8" xfId="121" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="40% - Accent5 9" xfId="122" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - Accent6 10" xfId="123" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="124" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="125" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - Accent6 4" xfId="126" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="40% - Accent6 5" xfId="127" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="40% - Accent6 6" xfId="128" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="40% - Accent6 7" xfId="129" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="40% - Accent6 8" xfId="130" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - Accent6 9" xfId="131" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="60% - Accent1 10" xfId="132" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="133" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="60% - Accent1 3" xfId="134" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="60% - Accent1 4" xfId="135" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="60% - Accent1 5" xfId="136" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="60% - Accent1 6" xfId="137" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="60% - Accent1 7" xfId="138" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="60% - Accent1 8" xfId="139" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="60% - Accent1 9" xfId="140" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="60% - Accent2 10" xfId="141" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="142" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="60% - Accent2 3" xfId="143" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="60% - Accent2 4" xfId="144" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="60% - Accent2 5" xfId="145" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="60% - Accent2 6" xfId="146" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="60% - Accent2 7" xfId="147" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="60% - Accent2 8" xfId="148" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="60% - Accent2 9" xfId="149" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="60% - Accent3 10" xfId="150" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="60% - Accent3 3" xfId="152" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="60% - Accent3 4" xfId="153" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="60% - Accent3 5" xfId="154" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="60% - Accent3 6" xfId="155" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="60% - Accent3 7" xfId="156" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="60% - Accent3 8" xfId="157" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="60% - Accent3 9" xfId="158" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="60% - Accent4 10" xfId="159" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="160" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="60% - Accent4 3" xfId="161" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="60% - Accent4 4" xfId="162" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="60% - Accent4 5" xfId="163" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="60% - Accent4 6" xfId="164" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="60% - Accent4 7" xfId="165" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="60% - Accent4 8" xfId="166" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="60% - Accent4 9" xfId="167" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="60% - Accent5 10" xfId="168" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="60% - Accent5 3" xfId="170" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="60% - Accent5 4" xfId="171" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="60% - Accent5 5" xfId="172" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="60% - Accent5 6" xfId="173" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="60% - Accent5 7" xfId="174" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="60% - Accent5 8" xfId="175" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="60% - Accent5 9" xfId="176" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="60% - Accent6 10" xfId="177" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="178" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="60% - Accent6 3" xfId="179" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="60% - Accent6 4" xfId="180" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="60% - Accent6 5" xfId="181" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="60% - Accent6 6" xfId="182" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="60% - Accent6 7" xfId="183" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="60% - Accent6 8" xfId="184" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="60% - Accent6 9" xfId="185" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Accent1 10" xfId="186" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Accent1 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Accent1 3" xfId="188" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Accent1 4" xfId="189" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Accent1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Accent1 6" xfId="191" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Accent1 7" xfId="192" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Accent1 8" xfId="193" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Accent1 9" xfId="194" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Accent2 10" xfId="195" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Accent2 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Accent2 3" xfId="197" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Accent2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Accent2 5" xfId="199" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Accent2 6" xfId="200" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Accent2 7" xfId="201" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Accent2 8" xfId="202" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Accent2 9" xfId="203" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Accent3 10" xfId="204" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Accent3 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Accent3 3" xfId="206" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Accent3 4" xfId="207" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Accent3 5" xfId="208" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Accent3 6" xfId="209" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Accent3 7" xfId="210" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Accent3 8" xfId="211" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Accent3 9" xfId="212" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Accent4 10" xfId="213" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Accent4 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Accent4 3" xfId="215" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Accent4 4" xfId="216" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Accent4 5" xfId="217" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Accent4 6" xfId="218" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Accent4 7" xfId="219" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Accent4 8" xfId="220" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Accent4 9" xfId="221" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Accent5 10" xfId="222" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Accent5 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Accent5 3" xfId="224" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Accent5 4" xfId="225" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Accent5 5" xfId="226" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Accent5 6" xfId="227" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Accent5 7" xfId="228" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Accent5 8" xfId="229" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Accent5 9" xfId="230" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Accent6 10" xfId="231" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Accent6 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Accent6 3" xfId="233" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Accent6 4" xfId="234" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Accent6 5" xfId="235" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Accent6 6" xfId="236" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Accent6 7" xfId="237" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Accent6 8" xfId="238" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Accent6 9" xfId="239" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="AFE" xfId="240" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Bad 10" xfId="241" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Bad 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Bad 3" xfId="243" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Bad 4" xfId="244" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Bad 5" xfId="245" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Bad 6" xfId="246" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Bad 7" xfId="247" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Bad 8" xfId="248" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Bad 9" xfId="249" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Button" xfId="250" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Calculation 10" xfId="251" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Calculation 10 10" xfId="252" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Calculation 10 11" xfId="253" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Calculation 10 12" xfId="254" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Calculation 10 2" xfId="255" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Calculation 10 2 10" xfId="256" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Calculation 10 2 2" xfId="257" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Calculation 10 2 3" xfId="258" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Calculation 10 2 4" xfId="259" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Calculation 10 2 5" xfId="260" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Calculation 10 2 6" xfId="261" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Calculation 10 2 7" xfId="262" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Calculation 10 2 8" xfId="263" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Calculation 10 2 9" xfId="264" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Calculation 10 3" xfId="265" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Calculation 10 3 10" xfId="266" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Calculation 10 3 2" xfId="267" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Calculation 10 3 3" xfId="268" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Calculation 10 3 4" xfId="269" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Calculation 10 3 5" xfId="270" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Calculation 10 3 6" xfId="271" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Calculation 10 3 7" xfId="272" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Calculation 10 3 8" xfId="273" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Calculation 10 3 9" xfId="274" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Calculation 10 4" xfId="275" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Calculation 10 5" xfId="276" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Calculation 10 6" xfId="277" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Calculation 10 7" xfId="278" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Calculation 10 8" xfId="279" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Calculation 10 9" xfId="280" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Calculation 11" xfId="281" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Calculation 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Calculation 2 10" xfId="283" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Calculation 2 11" xfId="284" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Calculation 2 12" xfId="285" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Calculation 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Calculation 2 2 10" xfId="287" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Calculation 2 2 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Calculation 2 2 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Calculation 2 2 4" xfId="290" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Calculation 2 2 5" xfId="291" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Calculation 2 2 6" xfId="292" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Calculation 2 2 7" xfId="293" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Calculation 2 2 8" xfId="294" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Calculation 2 2 9" xfId="295" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Calculation 2 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Calculation 2 3 10" xfId="297" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Calculation 2 3 2" xfId="298" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Calculation 2 3 3" xfId="299" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Calculation 2 3 4" xfId="300" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Calculation 2 3 5" xfId="301" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Calculation 2 3 6" xfId="302" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Calculation 2 3 7" xfId="303" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="Calculation 2 3 8" xfId="304" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Calculation 2 3 9" xfId="305" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Calculation 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Calculation 2 5" xfId="307" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Calculation 2 6" xfId="308" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Calculation 2 7" xfId="309" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Calculation 2 8" xfId="310" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Calculation 2 9" xfId="311" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Calculation 3" xfId="312" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Calculation 3 10" xfId="313" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Calculation 3 11" xfId="314" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Calculation 3 12" xfId="315" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Calculation 3 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Calculation 3 2 10" xfId="317" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Calculation 3 2 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Calculation 3 2 3" xfId="319" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Calculation 3 2 4" xfId="320" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Calculation 3 2 5" xfId="321" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Calculation 3 2 6" xfId="322" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Calculation 3 2 7" xfId="323" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Calculation 3 2 8" xfId="324" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Calculation 3 2 9" xfId="325" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Calculation 3 3" xfId="326" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Calculation 3 3 10" xfId="327" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Calculation 3 3 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Calculation 3 3 3" xfId="329" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Calculation 3 3 4" xfId="330" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Calculation 3 3 5" xfId="331" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Calculation 3 3 6" xfId="332" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Calculation 3 3 7" xfId="333" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Calculation 3 3 8" xfId="334" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Calculation 3 3 9" xfId="335" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Calculation 3 4" xfId="336" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Calculation 3 5" xfId="337" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Calculation 3 6" xfId="338" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Calculation 3 7" xfId="339" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Calculation 3 8" xfId="340" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Calculation 3 9" xfId="341" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Calculation 4" xfId="342" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Calculation 4 10" xfId="343" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Calculation 4 11" xfId="344" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Calculation 4 12" xfId="345" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Calculation 4 2" xfId="346" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Calculation 4 2 10" xfId="347" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Calculation 4 2 2" xfId="348" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Calculation 4 2 3" xfId="349" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Calculation 4 2 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Calculation 4 2 5" xfId="351" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Calculation 4 2 6" xfId="352" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Calculation 4 2 7" xfId="353" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Calculation 4 2 8" xfId="354" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Calculation 4 2 9" xfId="355" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Calculation 4 3" xfId="356" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Calculation 4 3 10" xfId="357" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Calculation 4 3 2" xfId="358" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Calculation 4 3 3" xfId="359" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Calculation 4 3 4" xfId="360" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Calculation 4 3 5" xfId="361" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Calculation 4 3 6" xfId="362" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Calculation 4 3 7" xfId="363" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Calculation 4 3 8" xfId="364" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Calculation 4 3 9" xfId="365" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Calculation 4 4" xfId="366" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Calculation 4 5" xfId="367" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Calculation 4 6" xfId="368" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Calculation 4 7" xfId="369" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Calculation 4 8" xfId="370" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Calculation 4 9" xfId="371" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Calculation 5" xfId="372" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Calculation 5 10" xfId="373" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Calculation 5 11" xfId="374" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Calculation 5 12" xfId="375" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Calculation 5 2" xfId="376" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Calculation 5 2 10" xfId="377" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Calculation 5 2 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Calculation 5 2 3" xfId="379" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Calculation 5 2 4" xfId="380" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Calculation 5 2 5" xfId="381" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Calculation 5 2 6" xfId="382" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Calculation 5 2 7" xfId="383" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Calculation 5 2 8" xfId="384" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Calculation 5 2 9" xfId="385" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Calculation 5 3" xfId="386" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Calculation 5 3 10" xfId="387" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Calculation 5 3 2" xfId="388" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Calculation 5 3 3" xfId="389" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Calculation 5 3 4" xfId="390" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Calculation 5 3 5" xfId="391" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Calculation 5 3 6" xfId="392" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Calculation 5 3 7" xfId="393" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Calculation 5 3 8" xfId="394" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Calculation 5 3 9" xfId="395" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Calculation 5 4" xfId="396" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Calculation 5 5" xfId="397" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Calculation 5 6" xfId="398" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Calculation 5 7" xfId="399" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Calculation 5 8" xfId="400" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Calculation 5 9" xfId="401" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Calculation 6" xfId="402" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Calculation 6 10" xfId="403" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Calculation 6 11" xfId="404" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Calculation 6 12" xfId="405" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Calculation 6 2" xfId="406" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Calculation 6 2 10" xfId="407" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Calculation 6 2 2" xfId="408" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Calculation 6 2 3" xfId="409" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Calculation 6 2 4" xfId="410" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Calculation 6 2 5" xfId="411" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Calculation 6 2 6" xfId="412" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Calculation 6 2 7" xfId="413" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Calculation 6 2 8" xfId="414" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Calculation 6 2 9" xfId="415" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Calculation 6 3" xfId="416" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Calculation 6 3 10" xfId="417" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Calculation 6 3 2" xfId="418" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Calculation 6 3 3" xfId="419" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Calculation 6 3 4" xfId="420" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Calculation 6 3 5" xfId="421" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Calculation 6 3 6" xfId="422" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Calculation 6 3 7" xfId="423" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="Calculation 6 3 8" xfId="424" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Calculation 6 3 9" xfId="425" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Calculation 6 4" xfId="426" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Calculation 6 5" xfId="427" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Calculation 6 6" xfId="428" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Calculation 6 7" xfId="429" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Calculation 6 8" xfId="430" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Calculation 6 9" xfId="431" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Calculation 7" xfId="432" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Calculation 7 10" xfId="433" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Calculation 7 11" xfId="434" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Calculation 7 12" xfId="435" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Calculation 7 2" xfId="436" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Calculation 7 2 10" xfId="437" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Calculation 7 2 2" xfId="438" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Calculation 7 2 3" xfId="439" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Calculation 7 2 4" xfId="440" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Calculation 7 2 5" xfId="441" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Calculation 7 2 6" xfId="442" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Calculation 7 2 7" xfId="443" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Calculation 7 2 8" xfId="444" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Calculation 7 2 9" xfId="445" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Calculation 7 3" xfId="446" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Calculation 7 3 10" xfId="447" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Calculation 7 3 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="Calculation 7 3 3" xfId="449" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="Calculation 7 3 4" xfId="450" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Calculation 7 3 5" xfId="451" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Calculation 7 3 6" xfId="452" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Calculation 7 3 7" xfId="453" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Calculation 7 3 8" xfId="454" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Calculation 7 3 9" xfId="455" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="Calculation 7 4" xfId="456" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="Calculation 7 5" xfId="457" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="Calculation 7 6" xfId="458" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Calculation 7 7" xfId="459" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Calculation 7 8" xfId="460" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Calculation 7 9" xfId="461" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Calculation 8" xfId="462" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Calculation 8 10" xfId="463" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Calculation 8 11" xfId="464" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Calculation 8 12" xfId="465" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="Calculation 8 2" xfId="466" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="Calculation 8 2 10" xfId="467" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="Calculation 8 2 2" xfId="468" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Calculation 8 2 3" xfId="469" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Calculation 8 2 4" xfId="470" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="Calculation 8 2 5" xfId="471" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="Calculation 8 2 6" xfId="472" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Calculation 8 2 7" xfId="473" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Calculation 8 2 8" xfId="474" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="Calculation 8 2 9" xfId="475" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Calculation 8 3" xfId="476" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="Calculation 8 3 10" xfId="477" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Calculation 8 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Calculation 8 3 3" xfId="479" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Calculation 8 3 4" xfId="480" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Calculation 8 3 5" xfId="481" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="Calculation 8 3 6" xfId="482" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Calculation 8 3 7" xfId="483" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Calculation 8 3 8" xfId="484" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Calculation 8 3 9" xfId="485" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Calculation 8 4" xfId="486" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Calculation 8 5" xfId="487" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Calculation 8 6" xfId="488" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Calculation 8 7" xfId="489" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Calculation 8 8" xfId="490" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="Calculation 8 9" xfId="491" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Calculation 9" xfId="492" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Calculation 9 10" xfId="493" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Calculation 9 11" xfId="494" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Calculation 9 12" xfId="495" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Calculation 9 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Calculation 9 2 10" xfId="497" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Calculation 9 2 2" xfId="498" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Calculation 9 2 3" xfId="499" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Calculation 9 2 4" xfId="500" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Calculation 9 2 5" xfId="501" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Calculation 9 2 6" xfId="502" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Calculation 9 2 7" xfId="503" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Calculation 9 2 8" xfId="504" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Calculation 9 2 9" xfId="505" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Calculation 9 3" xfId="506" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Calculation 9 3 10" xfId="507" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Calculation 9 3 2" xfId="508" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Calculation 9 3 3" xfId="509" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Calculation 9 3 4" xfId="510" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Calculation 9 3 5" xfId="511" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Calculation 9 3 6" xfId="512" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Calculation 9 3 7" xfId="513" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Calculation 9 3 8" xfId="514" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Calculation 9 3 9" xfId="515" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Calculation 9 4" xfId="516" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Calculation 9 5" xfId="517" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Calculation 9 6" xfId="518" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Calculation 9 7" xfId="519" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Calculation 9 8" xfId="520" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Calculation 9 9" xfId="521" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Check Cell 10" xfId="522" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Check Cell 2" xfId="523" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Check Cell 3" xfId="524" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Check Cell 4" xfId="525" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Check Cell 5" xfId="526" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Check Cell 6" xfId="527" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Check Cell 7" xfId="528" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Check Cell 8" xfId="529" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Check Cell 9" xfId="530" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Column Heading" xfId="531" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Component Header" xfId="532" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Component Heading" xfId="533" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Currency 2" xfId="6" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Explanatory Text 10" xfId="534" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="535" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Explanatory Text 3" xfId="536" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Explanatory Text 4" xfId="537" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Explanatory Text 5" xfId="538" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Explanatory Text 6" xfId="539" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Explanatory Text 7" xfId="540" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Explanatory Text 8" xfId="541" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Explanatory Text 9" xfId="542" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="First attribute link" xfId="543" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Good 10" xfId="544" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Good 2" xfId="545" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Good 3" xfId="546" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Good 4" xfId="547" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Good 5" xfId="548" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Good 6" xfId="549" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Good 7" xfId="550" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Good 8" xfId="551" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Good 9" xfId="552" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Heading 1 10" xfId="553" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Heading 1 2" xfId="554" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Heading 1 3" xfId="555" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Heading 1 4" xfId="556" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Heading 1 5" xfId="557" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Heading 1 6" xfId="558" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Heading 1 7" xfId="559" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Heading 1 8" xfId="560" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Heading 1 9" xfId="561" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Heading 2 10" xfId="562" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Heading 2 11" xfId="563" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Heading 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="565" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="564" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Heading 2 3" xfId="566" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="Heading 2 4" xfId="567" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Heading 2 5" xfId="568" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Heading 2 6" xfId="569" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Heading 2 7" xfId="570" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Heading 2 8" xfId="571" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Heading 2 9" xfId="572" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="Heading 3 10" xfId="573" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Heading 3 11" xfId="574" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="Heading 3 11 2" xfId="575" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="Heading 3 2" xfId="576" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="Heading 3 3" xfId="577" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Heading 3 4" xfId="578" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Heading 3 5" xfId="579" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="Heading 3 6" xfId="580" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Heading 3 7" xfId="581" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Heading 3 8" xfId="582" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Heading 3 9" xfId="583" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="Heading 4 10" xfId="584" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Heading 4 2" xfId="585" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Heading 4 3" xfId="586" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Heading 4 4" xfId="587" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Heading 4 5" xfId="588" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Heading 4 6" xfId="589" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Heading 4 7" xfId="590" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Heading 4 8" xfId="591" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Heading 4 9" xfId="592" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="headings" xfId="593" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="Hyperlink 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="595" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="594" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Hyperlink 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="596" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="Input 10" xfId="597" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Input 10 10" xfId="598" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Input 10 11" xfId="599" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Input 10 12" xfId="600" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="Input 10 2" xfId="601" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Input 10 2 10" xfId="602" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Input 10 2 2" xfId="603" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Input 10 2 3" xfId="604" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="Input 10 2 4" xfId="605" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="Input 10 2 5" xfId="606" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Input 10 2 6" xfId="607" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Input 10 2 7" xfId="608" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="Input 10 2 8" xfId="609" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Input 10 2 9" xfId="610" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Input 10 3" xfId="611" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Input 10 3 10" xfId="612" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Input 10 3 2" xfId="613" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Input 10 3 3" xfId="614" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Input 10 3 4" xfId="615" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="Input 10 3 5" xfId="616" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="Input 10 3 6" xfId="617" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Input 10 3 7" xfId="618" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Input 10 3 8" xfId="619" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Input 10 3 9" xfId="620" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Input 10 4" xfId="621" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Input 10 5" xfId="622" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Input 10 6" xfId="623" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Input 10 7" xfId="624" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="Input 10 8" xfId="625" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Input 10 9" xfId="626" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Input 2" xfId="627" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Input 2 10" xfId="628" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Input 2 11" xfId="629" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Input 2 12" xfId="630" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Input 2 2" xfId="631" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Input 2 2 10" xfId="632" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Input 2 2 2" xfId="633" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Input 2 2 3" xfId="634" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Input 2 2 4" xfId="635" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Input 2 2 5" xfId="636" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="Input 2 2 6" xfId="637" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Input 2 2 7" xfId="638" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Input 2 2 8" xfId="639" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Input 2 2 9" xfId="640" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Input 2 3" xfId="641" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Input 2 3 10" xfId="642" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Input 2 3 2" xfId="643" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Input 2 3 3" xfId="644" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Input 2 3 4" xfId="645" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Input 2 3 5" xfId="646" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Input 2 3 6" xfId="647" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Input 2 3 7" xfId="648" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Input 2 3 8" xfId="649" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Input 2 3 9" xfId="650" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Input 2 4" xfId="651" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Input 2 5" xfId="652" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="Input 2 6" xfId="653" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Input 2 7" xfId="654" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Input 2 8" xfId="655" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Input 2 9" xfId="656" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="Input 3" xfId="657" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Input 3 10" xfId="658" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Input 3 11" xfId="659" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Input 3 12" xfId="660" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="Input 3 2" xfId="661" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Input 3 2 10" xfId="662" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Input 3 2 2" xfId="663" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Input 3 2 3" xfId="664" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="Input 3 2 4" xfId="665" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Input 3 2 5" xfId="666" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Input 3 2 6" xfId="667" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Input 3 2 7" xfId="668" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Input 3 2 8" xfId="669" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Input 3 2 9" xfId="670" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Input 3 3" xfId="671" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Input 3 3 10" xfId="672" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Input 3 3 2" xfId="673" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Input 3 3 3" xfId="674" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Input 3 3 4" xfId="675" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Input 3 3 5" xfId="676" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="Input 3 3 6" xfId="677" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Input 3 3 7" xfId="678" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Input 3 3 8" xfId="679" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Input 3 3 9" xfId="680" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="Input 3 4" xfId="681" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Input 3 5" xfId="682" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Input 3 6" xfId="683" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Input 3 7" xfId="684" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Input 3 8" xfId="685" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Input 3 9" xfId="686" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Input 4" xfId="687" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Input 4 10" xfId="688" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="Input 4 11" xfId="689" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Input 4 12" xfId="690" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="Input 4 2" xfId="691" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="Input 4 2 10" xfId="692" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="Input 4 2 2" xfId="693" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Input 4 2 3" xfId="694" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Input 4 2 4" xfId="695" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Input 4 2 5" xfId="696" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="Input 4 2 6" xfId="697" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Input 4 2 7" xfId="698" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Input 4 2 8" xfId="699" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Input 4 2 9" xfId="700" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Input 4 3" xfId="701" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Input 4 3 10" xfId="702" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Input 4 3 2" xfId="703" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Input 4 3 3" xfId="704" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="Input 4 3 4" xfId="705" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Input 4 3 5" xfId="706" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Input 4 3 6" xfId="707" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Input 4 3 7" xfId="708" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Input 4 3 8" xfId="709" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Input 4 3 9" xfId="710" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Input 4 4" xfId="711" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Input 4 5" xfId="712" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Input 4 6" xfId="713" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Input 4 7" xfId="714" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Input 4 8" xfId="715" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Input 4 9" xfId="716" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="Input 5" xfId="717" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Input 5 10" xfId="718" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Input 5 11" xfId="719" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Input 5 12" xfId="720" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Input 5 2" xfId="721" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Input 5 2 10" xfId="722" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Input 5 2 2" xfId="723" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Input 5 2 3" xfId="724" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Input 5 2 4" xfId="725" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Input 5 2 5" xfId="726" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Input 5 2 6" xfId="727" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Input 5 2 7" xfId="728" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Input 5 2 8" xfId="729" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Input 5 2 9" xfId="730" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Input 5 3" xfId="731" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Input 5 3 10" xfId="732" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Input 5 3 2" xfId="733" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Input 5 3 3" xfId="734" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="Input 5 3 4" xfId="735" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Input 5 3 5" xfId="736" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Input 5 3 6" xfId="737" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="Input 5 3 7" xfId="738" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Input 5 3 8" xfId="739" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Input 5 3 9" xfId="740" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Input 5 4" xfId="741" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Input 5 5" xfId="742" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Input 5 6" xfId="743" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Input 5 7" xfId="744" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="Input 5 8" xfId="745" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Input 5 9" xfId="746" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="Input 6" xfId="747" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="Input 6 10" xfId="748" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Input 6 11" xfId="749" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="Input 6 12" xfId="750" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Input 6 2" xfId="751" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="Input 6 2 10" xfId="752" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="Input 6 2 2" xfId="753" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Input 6 2 3" xfId="754" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Input 6 2 4" xfId="755" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Input 6 2 5" xfId="756" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Input 6 2 6" xfId="757" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Input 6 2 7" xfId="758" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Input 6 2 8" xfId="759" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Input 6 2 9" xfId="760" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Input 6 3" xfId="761" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Input 6 3 10" xfId="762" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Input 6 3 2" xfId="763" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Input 6 3 3" xfId="764" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Input 6 3 4" xfId="765" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Input 6 3 5" xfId="766" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Input 6 3 6" xfId="767" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Input 6 3 7" xfId="768" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Input 6 3 8" xfId="769" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Input 6 3 9" xfId="770" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Input 6 4" xfId="771" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Input 6 5" xfId="772" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Input 6 6" xfId="773" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Input 6 7" xfId="774" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Input 6 8" xfId="775" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Input 6 9" xfId="776" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Input 7" xfId="777" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Input 7 10" xfId="778" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Input 7 11" xfId="779" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Input 7 12" xfId="780" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Input 7 2" xfId="781" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Input 7 2 10" xfId="782" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Input 7 2 2" xfId="783" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="Input 7 2 3" xfId="784" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Input 7 2 4" xfId="785" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="Input 7 2 5" xfId="786" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Input 7 2 6" xfId="787" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Input 7 2 7" xfId="788" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="Input 7 2 8" xfId="789" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="Input 7 2 9" xfId="790" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Input 7 3" xfId="791" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Input 7 3 10" xfId="792" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Input 7 3 2" xfId="793" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Input 7 3 3" xfId="794" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Input 7 3 4" xfId="795" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Input 7 3 5" xfId="796" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Input 7 3 6" xfId="797" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="Input 7 3 7" xfId="798" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="Input 7 3 8" xfId="799" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Input 7 3 9" xfId="800" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="Input 7 4" xfId="801" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="Input 7 5" xfId="802" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Input 7 6" xfId="803" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="Input 7 7" xfId="804" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Input 7 8" xfId="805" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Input 7 9" xfId="806" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Input 8" xfId="807" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="Input 8 10" xfId="808" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Input 8 11" xfId="809" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Input 8 12" xfId="810" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Input 8 2" xfId="811" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Input 8 2 10" xfId="812" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Input 8 2 2" xfId="813" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Input 8 2 3" xfId="814" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Input 8 2 4" xfId="815" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="Input 8 2 5" xfId="816" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Input 8 2 6" xfId="817" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Input 8 2 7" xfId="818" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="Input 8 2 8" xfId="819" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Input 8 2 9" xfId="820" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="Input 8 3" xfId="821" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Input 8 3 10" xfId="822" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Input 8 3 2" xfId="823" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Input 8 3 3" xfId="824" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Input 8 3 4" xfId="825" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Input 8 3 5" xfId="826" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Input 8 3 6" xfId="827" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Input 8 3 7" xfId="828" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Input 8 3 8" xfId="829" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Input 8 3 9" xfId="830" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Input 8 4" xfId="831" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Input 8 5" xfId="832" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Input 8 6" xfId="833" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Input 8 7" xfId="834" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Input 8 8" xfId="835" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Input 8 9" xfId="836" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Input 9" xfId="837" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Input 9 10" xfId="838" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Input 9 11" xfId="839" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Input 9 12" xfId="840" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Input 9 2" xfId="841" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Input 9 2 10" xfId="842" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Input 9 2 2" xfId="843" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Input 9 2 3" xfId="844" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Input 9 2 4" xfId="845" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Input 9 2 5" xfId="846" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Input 9 2 6" xfId="847" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Input 9 2 7" xfId="848" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Input 9 2 8" xfId="849" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Input 9 2 9" xfId="850" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Input 9 3" xfId="851" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Input 9 3 10" xfId="852" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Input 9 3 2" xfId="853" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Input 9 3 3" xfId="854" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Input 9 3 4" xfId="855" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Input 9 3 5" xfId="856" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Input 9 3 6" xfId="857" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Input 9 3 7" xfId="858" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Input 9 3 8" xfId="859" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Input 9 3 9" xfId="860" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Input 9 4" xfId="861" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Input 9 5" xfId="862" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Input 9 6" xfId="863" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Input 9 7" xfId="864" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Input 9 8" xfId="865" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Input 9 9" xfId="866" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Linked Cell 10" xfId="867" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Linked Cell 2" xfId="868" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Linked Cell 3" xfId="869" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Linked Cell 4" xfId="870" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Linked Cell 5" xfId="871" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Linked Cell 6" xfId="872" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Linked Cell 7" xfId="873" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Linked Cell 8" xfId="874" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Linked Cell 9" xfId="875" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Neutral 10" xfId="876" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Neutral 2" xfId="877" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Neutral 3" xfId="878" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Neutral 4" xfId="879" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Neutral 5" xfId="880" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Neutral 6" xfId="881" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Neutral 7" xfId="882" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Neutral 8" xfId="883" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Neutral 9" xfId="884" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Normal 10" xfId="885" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Normal 11" xfId="886" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Normal 12" xfId="887" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Normal 12 2" xfId="888" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Normal 12 2 2" xfId="889" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Normal 12 2 3" xfId="890" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Normal 12 3" xfId="891" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Normal 12 3 2" xfId="892" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Normal 12 3 3" xfId="893" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Normal 12 4" xfId="894" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Normal 12 5" xfId="895" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Normal 13" xfId="896" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Normal 13 2" xfId="897" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Normal 13 2 2" xfId="898" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Normal 13 2 3" xfId="899" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Normal 13 2 4" xfId="900" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Normal 13 3" xfId="901" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Normal 13 3 2" xfId="902" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Normal 13 3 3" xfId="903" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normal 13 4" xfId="904" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Normal 13 4 2" xfId="905" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Normal 13 4 3" xfId="906" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Normal 13 5" xfId="907" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Normal 13 6" xfId="908" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Normal 13 7" xfId="909" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Normal 13 7 2" xfId="910" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Normal 13 7 3" xfId="911" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Normal 13 7 4" xfId="912" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Normal 13 7 5" xfId="913" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Normal 13 7 5 2" xfId="914" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Normal 14" xfId="915" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Normal 14 2" xfId="916" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Normal 14 2 2" xfId="917" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Normal 14 2 3" xfId="918" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Normal 14 2 4" xfId="919" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Normal 14 3" xfId="920" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Normal 14 3 2" xfId="921" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Normal 14 3 3" xfId="922" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Normal 14 4" xfId="923" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Normal 14 4 2" xfId="924" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Normal 14 4 3" xfId="925" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Normal 14 5" xfId="926" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Normal 14 6" xfId="927" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Normal 14 6 2" xfId="928" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normal 14 7" xfId="929" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Normal 15" xfId="930" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normal 15 2" xfId="931" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Normal 15 2 2" xfId="932" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Normal 15 2 3" xfId="933" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Normal 15 2 4" xfId="934" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Normal 15 3" xfId="935" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Normal 15 3 2" xfId="936" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Normal 15 3 3" xfId="937" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Normal 15 4" xfId="938" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Normal 15 4 2" xfId="939" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Normal 15 4 3" xfId="940" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Normal 15 5" xfId="941" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Normal 15 6" xfId="942" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Normal 15 6 2" xfId="943" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Normal 15 7" xfId="944" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Normal 15 8" xfId="945" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Normal 16" xfId="946" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Normal 16 2" xfId="947" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Normal 16 2 2" xfId="948" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Normal 16 2 3" xfId="949" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Normal 16 2 4" xfId="950" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Normal 16 3" xfId="951" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Normal 16 3 2" xfId="952" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Normal 16 3 3" xfId="953" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Normal 16 4" xfId="954" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Normal 16 4 2" xfId="955" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Normal 16 4 3" xfId="956" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Normal 16 5" xfId="957" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Normal 16 6" xfId="958" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Normal 16 6 2" xfId="959" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Normal 16 7" xfId="960" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Normal 17" xfId="961" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Normal 18" xfId="962" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Normal 19" xfId="963" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Normal 2 2" xfId="965" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Normal 2 3" xfId="966" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Normal 2 4" xfId="967" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Normal 2 5" xfId="968" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Normal 2 6" xfId="969" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Normal 2 6 2" xfId="970" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Normal 2 6 2 2" xfId="971" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Normal 2 6 2 3" xfId="972" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Normal 2 6 2 4" xfId="973" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Normal 2 6 3" xfId="974" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Normal 2 6 3 2" xfId="975" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Normal 2 6 3 3" xfId="976" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Normal 2 6 4" xfId="977" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Normal 2 6 4 2" xfId="978" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Normal 2 6 4 3" xfId="979" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Normal 2 6 5" xfId="980" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Normal 2 6 6" xfId="981" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Normal 2 6 7" xfId="982" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Normal 2 7" xfId="983" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Normal 2 8" xfId="964" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Normal 2 9" xfId="1882" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Normal 20" xfId="984" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Normal 21" xfId="985" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Normal 22" xfId="986" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Normal 23" xfId="987" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Normal 24" xfId="988" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Normal 24 2" xfId="989" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Normal 24 2 2" xfId="990" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Normal 24 2 3" xfId="991" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Normal 24 2 4" xfId="992" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Normal 24 3" xfId="993" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Normal 24 4" xfId="994" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Normal 24 5" xfId="995" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Normal 25" xfId="996" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Normal 26" xfId="997" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Normal 27" xfId="998" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Normal 28" xfId="999" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Normal 29" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Normal 3 3" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Normal 30" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Normal 31" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Normal 4 2" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Normal 4 2 4" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Normal 4 3" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Normal 4 4" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Normal 4 5" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Normal 4 6" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Normal 4 7" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Normal 5" xfId="23" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Normal 5 2" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Normal 5 3" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Normal 5 4" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Normal 5 5" xfId="1018" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Normal 5 6" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Normal 6 2" xfId="1020" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Normal 6 2 2" xfId="1021" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Normal 6 2 3" xfId="1022" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Normal 6 2 4" xfId="1023" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Normal 6 3" xfId="1024" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Normal 6 3 2" xfId="1025" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Normal 6 3 3" xfId="1026" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Normal 6 4" xfId="1027" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Normal 6 4 2" xfId="1028" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Normal 6 4 3" xfId="1029" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Normal 6 5" xfId="1030" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Normal 6 6" xfId="1031" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Normal 6 6 2" xfId="1032" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Normal 6 7" xfId="1033" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Normal 6 8" xfId="1019" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Normal 7" xfId="12" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Normal 7 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Normal 7 2 2" xfId="1036" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Normal 7 2 3" xfId="1037" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Normal 7 2 4" xfId="1038" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Normal 7 2 5" xfId="1035" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Normal 7 3" xfId="1039" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Normal 7 3 2" xfId="1040" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Normal 7 3 3" xfId="1041" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Normal 7 4" xfId="1042" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Normal 7 4 2" xfId="1043" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Normal 7 4 3" xfId="1044" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Normal 7 5" xfId="1045" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Normal 7 6" xfId="1046" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Normal 7 6 2" xfId="1047" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Normal 7 7" xfId="1048" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Normal 7 8" xfId="1049" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Normal 7 9" xfId="1034" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Normal 8" xfId="1050" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Normal 9" xfId="1051" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Note 10" xfId="1052" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Note 10 10" xfId="1053" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Note 10 11" xfId="1054" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Note 10 12" xfId="1055" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Note 10 2" xfId="1056" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Note 10 2 10" xfId="1057" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Note 10 2 2" xfId="1058" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Note 10 2 3" xfId="1059" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Note 10 2 4" xfId="1060" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Note 10 2 5" xfId="1061" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Note 10 2 6" xfId="1062" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Note 10 2 7" xfId="1063" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Note 10 2 8" xfId="1064" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Note 10 2 9" xfId="1065" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Note 10 3" xfId="1066" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Note 10 3 10" xfId="1067" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Note 10 3 2" xfId="1068" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Note 10 3 3" xfId="1069" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Note 10 3 4" xfId="1070" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Note 10 3 5" xfId="1071" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Note 10 3 6" xfId="1072" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Note 10 3 7" xfId="1073" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Note 10 3 8" xfId="1074" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Note 10 3 9" xfId="1075" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Note 10 4" xfId="1076" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Note 10 5" xfId="1077" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Note 10 6" xfId="1078" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Note 10 7" xfId="1079" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Note 10 8" xfId="1080" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Note 10 9" xfId="1081" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Note 2" xfId="1082" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Note 2 10" xfId="1083" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Note 2 11" xfId="1084" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Note 2 12" xfId="1085" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Note 2 2" xfId="1086" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Note 2 2 10" xfId="1087" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Note 2 2 2" xfId="1088" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Note 2 2 3" xfId="1089" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Note 2 2 4" xfId="1090" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Note 2 2 5" xfId="1091" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Note 2 2 6" xfId="1092" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Note 2 2 7" xfId="1093" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Note 2 2 8" xfId="1094" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Note 2 2 9" xfId="1095" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Note 2 3" xfId="1096" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Note 2 3 10" xfId="1097" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Note 2 3 2" xfId="1098" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Note 2 3 3" xfId="1099" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Note 2 3 4" xfId="1100" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Note 2 3 5" xfId="1101" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Note 2 3 6" xfId="1102" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Note 2 3 7" xfId="1103" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Note 2 3 8" xfId="1104" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Note 2 3 9" xfId="1105" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Note 2 4" xfId="1106" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Note 2 5" xfId="1107" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Note 2 6" xfId="1108" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Note 2 7" xfId="1109" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Note 2 8" xfId="1110" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Note 2 9" xfId="1111" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Note 3" xfId="1112" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Note 3 10" xfId="1113" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Note 3 11" xfId="1114" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Note 3 12" xfId="1115" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Note 3 2" xfId="1116" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Note 3 2 10" xfId="1117" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Note 3 2 2" xfId="1118" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Note 3 2 3" xfId="1119" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Note 3 2 4" xfId="1120" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Note 3 2 5" xfId="1121" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Note 3 2 6" xfId="1122" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Note 3 2 7" xfId="1123" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Note 3 2 8" xfId="1124" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Note 3 2 9" xfId="1125" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Note 3 3" xfId="1126" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Note 3 3 10" xfId="1127" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Note 3 3 2" xfId="1128" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Note 3 3 3" xfId="1129" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Note 3 3 4" xfId="1130" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Note 3 3 5" xfId="1131" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Note 3 3 6" xfId="1132" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Note 3 3 7" xfId="1133" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Note 3 3 8" xfId="1134" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Note 3 3 9" xfId="1135" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Note 3 4" xfId="1136" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Note 3 5" xfId="1137" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Note 3 6" xfId="1138" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Note 3 7" xfId="1139" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Note 3 8" xfId="1140" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Note 3 9" xfId="1141" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Note 4" xfId="1142" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Note 4 10" xfId="1143" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Note 4 11" xfId="1144" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Note 4 12" xfId="1145" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Note 4 2" xfId="1146" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Note 4 2 10" xfId="1147" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Note 4 2 2" xfId="1148" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Note 4 2 3" xfId="1149" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Note 4 2 4" xfId="1150" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Note 4 2 5" xfId="1151" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Note 4 2 6" xfId="1152" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Note 4 2 7" xfId="1153" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Note 4 2 8" xfId="1154" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Note 4 2 9" xfId="1155" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Note 4 3" xfId="1156" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Note 4 3 10" xfId="1157" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Note 4 3 2" xfId="1158" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Note 4 3 3" xfId="1159" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Note 4 3 4" xfId="1160" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Note 4 3 5" xfId="1161" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Note 4 3 6" xfId="1162" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Note 4 3 7" xfId="1163" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Note 4 3 8" xfId="1164" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Note 4 3 9" xfId="1165" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Note 4 4" xfId="1166" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Note 4 5" xfId="1167" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Note 4 6" xfId="1168" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Note 4 7" xfId="1169" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Note 4 8" xfId="1170" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Note 4 9" xfId="1171" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Note 5" xfId="1172" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Note 5 10" xfId="1173" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Note 5 11" xfId="1174" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Note 5 12" xfId="1175" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Note 5 2" xfId="1176" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Note 5 2 10" xfId="1177" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Note 5 2 2" xfId="1178" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Note 5 2 3" xfId="1179" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Note 5 2 4" xfId="1180" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Note 5 2 5" xfId="1181" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Note 5 2 6" xfId="1182" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Note 5 2 7" xfId="1183" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Note 5 2 8" xfId="1184" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Note 5 2 9" xfId="1185" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Note 5 3" xfId="1186" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Note 5 3 10" xfId="1187" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Note 5 3 2" xfId="1188" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Note 5 3 3" xfId="1189" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="Note 5 3 4" xfId="1190" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="Note 5 3 5" xfId="1191" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Note 5 3 6" xfId="1192" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Note 5 3 7" xfId="1193" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Note 5 3 8" xfId="1194" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Note 5 3 9" xfId="1195" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Note 5 4" xfId="1196" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Note 5 5" xfId="1197" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Note 5 6" xfId="1198" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Note 5 7" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="Note 5 8" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Note 5 9" xfId="1201" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Note 6" xfId="1202" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Note 6 10" xfId="1203" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Note 6 11" xfId="1204" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Note 6 12" xfId="1205" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Note 6 2" xfId="1206" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Note 6 2 10" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Note 6 2 2" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Note 6 2 3" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Note 6 2 4" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Note 6 2 5" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Note 6 2 6" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Note 6 2 7" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Note 6 2 8" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Note 6 2 9" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Note 6 3" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Note 6 3 10" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Note 6 3 2" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="Note 6 3 3" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Note 6 3 4" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="Note 6 3 5" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="Note 6 3 6" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Note 6 3 7" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Note 6 3 8" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Note 6 3 9" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="Note 6 4" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="Note 6 5" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="Note 6 6" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Note 6 7" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Note 6 8" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="Note 6 9" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Note 7" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Note 7 10" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Note 7 11" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="Note 7 12" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Note 7 2" xfId="1236" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Note 7 2 10" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Note 7 2 2" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Note 7 2 3" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Note 7 2 4" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Note 7 2 5" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Note 7 2 6" xfId="1242" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Note 7 2 7" xfId="1243" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="Note 7 2 8" xfId="1244" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Note 7 2 9" xfId="1245" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Note 7 3" xfId="1246" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Note 7 3 10" xfId="1247" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Note 7 3 2" xfId="1248" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Note 7 3 3" xfId="1249" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Note 7 3 4" xfId="1250" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="Note 7 3 5" xfId="1251" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Note 7 3 6" xfId="1252" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="Note 7 3 7" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Note 7 3 8" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Note 7 3 9" xfId="1255" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="Note 7 4" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="Note 7 5" xfId="1257" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="Note 7 6" xfId="1258" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="Note 7 7" xfId="1259" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="Note 7 8" xfId="1260" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Note 7 9" xfId="1261" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Note 8" xfId="1262" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Note 8 10" xfId="1263" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="Note 8 11" xfId="1264" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Note 8 12" xfId="1265" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Note 8 2" xfId="1266" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="Note 8 2 10" xfId="1267" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Note 8 2 2" xfId="1268" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Note 8 2 3" xfId="1269" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Note 8 2 4" xfId="1270" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Note 8 2 5" xfId="1271" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Note 8 2 6" xfId="1272" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Note 8 2 7" xfId="1273" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Note 8 2 8" xfId="1274" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
+    <cellStyle name="Note 8 2 9" xfId="1275" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
+    <cellStyle name="Note 8 3" xfId="1276" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Note 8 3 10" xfId="1277" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Note 8 3 2" xfId="1278" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="Note 8 3 3" xfId="1279" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Note 8 3 4" xfId="1280" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Note 8 3 5" xfId="1281" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Note 8 3 6" xfId="1282" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Note 8 3 7" xfId="1283" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Note 8 3 8" xfId="1284" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Note 8 3 9" xfId="1285" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Note 8 4" xfId="1286" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Note 8 5" xfId="1287" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Note 8 6" xfId="1288" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Note 8 7" xfId="1289" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
+    <cellStyle name="Note 8 8" xfId="1290" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Note 8 9" xfId="1291" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Note 9" xfId="1292" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Note 9 10" xfId="1293" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Note 9 11" xfId="1294" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Note 9 12" xfId="1295" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Note 9 2" xfId="1296" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Note 9 2 10" xfId="1297" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Note 9 2 2" xfId="1298" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="Note 9 2 3" xfId="1299" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Note 9 2 4" xfId="1300" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
+    <cellStyle name="Note 9 2 5" xfId="1301" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
+    <cellStyle name="Note 9 2 6" xfId="1302" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
+    <cellStyle name="Note 9 2 7" xfId="1303" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Note 9 2 8" xfId="1304" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Note 9 2 9" xfId="1305" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
+    <cellStyle name="Note 9 3" xfId="1306" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
+    <cellStyle name="Note 9 3 10" xfId="1307" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
+    <cellStyle name="Note 9 3 2" xfId="1308" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Note 9 3 3" xfId="1309" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Note 9 3 4" xfId="1310" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
+    <cellStyle name="Note 9 3 5" xfId="1311" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
+    <cellStyle name="Note 9 3 6" xfId="1312" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Note 9 3 7" xfId="1313" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Note 9 3 8" xfId="1314" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
+    <cellStyle name="Note 9 3 9" xfId="1315" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Note 9 4" xfId="1316" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Note 9 5" xfId="1317" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
+    <cellStyle name="Note 9 6" xfId="1318" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
+    <cellStyle name="Note 9 7" xfId="1319" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Note 9 8" xfId="1320" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Note 9 9" xfId="1321" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
+    <cellStyle name="Output 10" xfId="1322" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
+    <cellStyle name="Output 10 10" xfId="1323" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
+    <cellStyle name="Output 10 11" xfId="1324" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Output 10 12" xfId="1325" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Output 10 2" xfId="1326" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
+    <cellStyle name="Output 10 2 10" xfId="1327" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
+    <cellStyle name="Output 10 2 2" xfId="1328" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Output 10 2 3" xfId="1329" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Output 10 2 4" xfId="1330" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
+    <cellStyle name="Output 10 2 5" xfId="1331" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Output 10 2 6" xfId="1332" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
+    <cellStyle name="Output 10 2 7" xfId="1333" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
+    <cellStyle name="Output 10 2 8" xfId="1334" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
+    <cellStyle name="Output 10 2 9" xfId="1335" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Output 10 3" xfId="1336" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Output 10 3 10" xfId="1337" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
+    <cellStyle name="Output 10 3 2" xfId="1338" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
+    <cellStyle name="Output 10 3 3" xfId="1339" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
+    <cellStyle name="Output 10 3 4" xfId="1340" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Output 10 3 5" xfId="1341" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Output 10 3 6" xfId="1342" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
+    <cellStyle name="Output 10 3 7" xfId="1343" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
+    <cellStyle name="Output 10 3 8" xfId="1344" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Output 10 3 9" xfId="1345" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Output 10 4" xfId="1346" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
+    <cellStyle name="Output 10 5" xfId="1347" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
+    <cellStyle name="Output 10 6" xfId="1348" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
+    <cellStyle name="Output 10 7" xfId="1349" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
+    <cellStyle name="Output 10 8" xfId="1350" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
+    <cellStyle name="Output 10 9" xfId="1351" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Output 2" xfId="1352" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Output 2 10" xfId="1353" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
+    <cellStyle name="Output 2 11" xfId="1354" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
+    <cellStyle name="Output 2 12" xfId="1355" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
+    <cellStyle name="Output 2 2" xfId="1356" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Output 2 2 10" xfId="1357" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Output 2 2 2" xfId="1358" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
+    <cellStyle name="Output 2 2 3" xfId="1359" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
+    <cellStyle name="Output 2 2 4" xfId="1360" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Output 2 2 5" xfId="1361" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Output 2 2 6" xfId="1362" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
+    <cellStyle name="Output 2 2 7" xfId="1363" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Output 2 2 8" xfId="1364" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
+    <cellStyle name="Output 2 2 9" xfId="1365" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
+    <cellStyle name="Output 2 3" xfId="1366" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
+    <cellStyle name="Output 2 3 10" xfId="1367" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Output 2 3 2" xfId="1368" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Output 2 3 3" xfId="1369" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
+    <cellStyle name="Output 2 3 4" xfId="1370" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
+    <cellStyle name="Output 2 3 5" xfId="1371" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
+    <cellStyle name="Output 2 3 6" xfId="1372" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Output 2 3 7" xfId="1373" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Output 2 3 8" xfId="1374" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
+    <cellStyle name="Output 2 3 9" xfId="1375" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
+    <cellStyle name="Output 2 4" xfId="1376" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Output 2 5" xfId="1377" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Output 2 6" xfId="1378" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
+    <cellStyle name="Output 2 7" xfId="1379" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Output 2 8" xfId="1380" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
+    <cellStyle name="Output 2 9" xfId="1381" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
+    <cellStyle name="Output 3" xfId="1382" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
+    <cellStyle name="Output 3 10" xfId="1383" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Output 3 11" xfId="1384" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
+    <cellStyle name="Output 3 12" xfId="1385" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
+    <cellStyle name="Output 3 2" xfId="1386" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
+    <cellStyle name="Output 3 2 10" xfId="1387" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
+    <cellStyle name="Output 3 2 2" xfId="1388" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Output 3 2 3" xfId="1389" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Output 3 2 4" xfId="1390" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
+    <cellStyle name="Output 3 2 5" xfId="1391" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
+    <cellStyle name="Output 3 2 6" xfId="1392" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Output 3 2 7" xfId="1393" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Output 3 2 8" xfId="1394" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
+    <cellStyle name="Output 3 2 9" xfId="1395" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Output 3 3" xfId="1396" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
+    <cellStyle name="Output 3 3 10" xfId="1397" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
+    <cellStyle name="Output 3 3 2" xfId="1398" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
+    <cellStyle name="Output 3 3 3" xfId="1399" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Output 3 3 4" xfId="1400" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
+    <cellStyle name="Output 3 3 5" xfId="1401" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
+    <cellStyle name="Output 3 3 6" xfId="1402" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
+    <cellStyle name="Output 3 3 7" xfId="1403" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
+    <cellStyle name="Output 3 3 8" xfId="1404" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
+    <cellStyle name="Output 3 3 9" xfId="1405" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
+    <cellStyle name="Output 3 4" xfId="1406" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
+    <cellStyle name="Output 3 5" xfId="1407" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
+    <cellStyle name="Output 3 6" xfId="1408" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
+    <cellStyle name="Output 3 7" xfId="1409" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Output 3 8" xfId="1410" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
+    <cellStyle name="Output 3 9" xfId="1411" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
+    <cellStyle name="Output 4" xfId="1412" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
+    <cellStyle name="Output 4 10" xfId="1413" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
+    <cellStyle name="Output 4 11" xfId="1414" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
+    <cellStyle name="Output 4 12" xfId="1415" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
+    <cellStyle name="Output 4 2" xfId="1416" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Output 4 2 10" xfId="1417" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
+    <cellStyle name="Output 4 2 2" xfId="1418" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
+    <cellStyle name="Output 4 2 3" xfId="1419" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
+    <cellStyle name="Output 4 2 4" xfId="1420" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
+    <cellStyle name="Output 4 2 5" xfId="1421" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Output 4 2 6" xfId="1422" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
+    <cellStyle name="Output 4 2 7" xfId="1423" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
+    <cellStyle name="Output 4 2 8" xfId="1424" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Output 4 2 9" xfId="1425" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
+    <cellStyle name="Output 4 3" xfId="1426" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
+    <cellStyle name="Output 4 3 10" xfId="1427" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
+    <cellStyle name="Output 4 3 2" xfId="1428" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
+    <cellStyle name="Output 4 3 3" xfId="1429" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
+    <cellStyle name="Output 4 3 4" xfId="1430" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Output 4 3 5" xfId="1431" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Output 4 3 6" xfId="1432" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
+    <cellStyle name="Output 4 3 7" xfId="1433" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
+    <cellStyle name="Output 4 3 8" xfId="1434" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
+    <cellStyle name="Output 4 3 9" xfId="1435" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
+    <cellStyle name="Output 4 4" xfId="1436" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
+    <cellStyle name="Output 4 5" xfId="1437" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Output 4 6" xfId="1438" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
+    <cellStyle name="Output 4 7" xfId="1439" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
+    <cellStyle name="Output 4 8" xfId="1440" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
+    <cellStyle name="Output 4 9" xfId="1441" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
+    <cellStyle name="Output 5" xfId="1442" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
+    <cellStyle name="Output 5 10" xfId="1443" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
+    <cellStyle name="Output 5 11" xfId="1444" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
+    <cellStyle name="Output 5 12" xfId="1445" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
+    <cellStyle name="Output 5 2" xfId="1446" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
+    <cellStyle name="Output 5 2 10" xfId="1447" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
+    <cellStyle name="Output 5 2 2" xfId="1448" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Output 5 2 3" xfId="1449" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
+    <cellStyle name="Output 5 2 4" xfId="1450" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
+    <cellStyle name="Output 5 2 5" xfId="1451" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
+    <cellStyle name="Output 5 2 6" xfId="1452" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
+    <cellStyle name="Output 5 2 7" xfId="1453" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
+    <cellStyle name="Output 5 2 8" xfId="1454" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Output 5 2 9" xfId="1455" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Output 5 3" xfId="1456" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
+    <cellStyle name="Output 5 3 10" xfId="1457" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Output 5 3 2" xfId="1458" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
+    <cellStyle name="Output 5 3 3" xfId="1459" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
+    <cellStyle name="Output 5 3 4" xfId="1460" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
+    <cellStyle name="Output 5 3 5" xfId="1461" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
+    <cellStyle name="Output 5 3 6" xfId="1462" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
+    <cellStyle name="Output 5 3 7" xfId="1463" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Output 5 3 8" xfId="1464" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
+    <cellStyle name="Output 5 3 9" xfId="1465" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
+    <cellStyle name="Output 5 4" xfId="1466" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
+    <cellStyle name="Output 5 5" xfId="1467" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
+    <cellStyle name="Output 5 6" xfId="1468" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
+    <cellStyle name="Output 5 7" xfId="1469" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Output 5 8" xfId="1470" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
+    <cellStyle name="Output 5 9" xfId="1471" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
+    <cellStyle name="Output 6" xfId="1472" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
+    <cellStyle name="Output 6 10" xfId="1473" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Output 6 11" xfId="1474" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
+    <cellStyle name="Output 6 12" xfId="1475" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Output 6 2" xfId="1476" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
+    <cellStyle name="Output 6 2 10" xfId="1477" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
+    <cellStyle name="Output 6 2 2" xfId="1478" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
+    <cellStyle name="Output 6 2 3" xfId="1479" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Output 6 2 4" xfId="1480" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
+    <cellStyle name="Output 6 2 5" xfId="1481" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
+    <cellStyle name="Output 6 2 6" xfId="1482" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
+    <cellStyle name="Output 6 2 7" xfId="1483" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
+    <cellStyle name="Output 6 2 8" xfId="1484" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Output 6 2 9" xfId="1485" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Output 6 3" xfId="1486" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
+    <cellStyle name="Output 6 3 10" xfId="1487" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
+    <cellStyle name="Output 6 3 2" xfId="1488" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Output 6 3 3" xfId="1489" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
+    <cellStyle name="Output 6 3 4" xfId="1490" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
+    <cellStyle name="Output 6 3 5" xfId="1491" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
+    <cellStyle name="Output 6 3 6" xfId="1492" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
+    <cellStyle name="Output 6 3 7" xfId="1493" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
+    <cellStyle name="Output 6 3 8" xfId="1494" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
+    <cellStyle name="Output 6 3 9" xfId="1495" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
+    <cellStyle name="Output 6 4" xfId="1496" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Output 6 5" xfId="1497" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
+    <cellStyle name="Output 6 6" xfId="1498" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
+    <cellStyle name="Output 6 7" xfId="1499" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
+    <cellStyle name="Output 6 8" xfId="1500" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
+    <cellStyle name="Output 6 9" xfId="1501" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
+    <cellStyle name="Output 7" xfId="1502" xr:uid="{00000000-0005-0000-0000-0000D6050000}"/>
+    <cellStyle name="Output 7 10" xfId="1503" xr:uid="{00000000-0005-0000-0000-0000D7050000}"/>
+    <cellStyle name="Output 7 11" xfId="1504" xr:uid="{00000000-0005-0000-0000-0000D8050000}"/>
+    <cellStyle name="Output 7 12" xfId="1505" xr:uid="{00000000-0005-0000-0000-0000D9050000}"/>
+    <cellStyle name="Output 7 2" xfId="1506" xr:uid="{00000000-0005-0000-0000-0000DA050000}"/>
+    <cellStyle name="Output 7 2 10" xfId="1507" xr:uid="{00000000-0005-0000-0000-0000DB050000}"/>
+    <cellStyle name="Output 7 2 2" xfId="1508" xr:uid="{00000000-0005-0000-0000-0000DC050000}"/>
+    <cellStyle name="Output 7 2 3" xfId="1509" xr:uid="{00000000-0005-0000-0000-0000DD050000}"/>
+    <cellStyle name="Output 7 2 4" xfId="1510" xr:uid="{00000000-0005-0000-0000-0000DE050000}"/>
+    <cellStyle name="Output 7 2 5" xfId="1511" xr:uid="{00000000-0005-0000-0000-0000DF050000}"/>
+    <cellStyle name="Output 7 2 6" xfId="1512" xr:uid="{00000000-0005-0000-0000-0000E0050000}"/>
+    <cellStyle name="Output 7 2 7" xfId="1513" xr:uid="{00000000-0005-0000-0000-0000E1050000}"/>
+    <cellStyle name="Output 7 2 8" xfId="1514" xr:uid="{00000000-0005-0000-0000-0000E2050000}"/>
+    <cellStyle name="Output 7 2 9" xfId="1515" xr:uid="{00000000-0005-0000-0000-0000E3050000}"/>
+    <cellStyle name="Output 7 3" xfId="1516" xr:uid="{00000000-0005-0000-0000-0000E4050000}"/>
+    <cellStyle name="Output 7 3 10" xfId="1517" xr:uid="{00000000-0005-0000-0000-0000E5050000}"/>
+    <cellStyle name="Output 7 3 2" xfId="1518" xr:uid="{00000000-0005-0000-0000-0000E6050000}"/>
+    <cellStyle name="Output 7 3 3" xfId="1519" xr:uid="{00000000-0005-0000-0000-0000E7050000}"/>
+    <cellStyle name="Output 7 3 4" xfId="1520" xr:uid="{00000000-0005-0000-0000-0000E8050000}"/>
+    <cellStyle name="Output 7 3 5" xfId="1521" xr:uid="{00000000-0005-0000-0000-0000E9050000}"/>
+    <cellStyle name="Output 7 3 6" xfId="1522" xr:uid="{00000000-0005-0000-0000-0000EA050000}"/>
+    <cellStyle name="Output 7 3 7" xfId="1523" xr:uid="{00000000-0005-0000-0000-0000EB050000}"/>
+    <cellStyle name="Output 7 3 8" xfId="1524" xr:uid="{00000000-0005-0000-0000-0000EC050000}"/>
+    <cellStyle name="Output 7 3 9" xfId="1525" xr:uid="{00000000-0005-0000-0000-0000ED050000}"/>
+    <cellStyle name="Output 7 4" xfId="1526" xr:uid="{00000000-0005-0000-0000-0000EE050000}"/>
+    <cellStyle name="Output 7 5" xfId="1527" xr:uid="{00000000-0005-0000-0000-0000EF050000}"/>
+    <cellStyle name="Output 7 6" xfId="1528" xr:uid="{00000000-0005-0000-0000-0000F0050000}"/>
+    <cellStyle name="Output 7 7" xfId="1529" xr:uid="{00000000-0005-0000-0000-0000F1050000}"/>
+    <cellStyle name="Output 7 8" xfId="1530" xr:uid="{00000000-0005-0000-0000-0000F2050000}"/>
+    <cellStyle name="Output 7 9" xfId="1531" xr:uid="{00000000-0005-0000-0000-0000F3050000}"/>
+    <cellStyle name="Output 8" xfId="1532" xr:uid="{00000000-0005-0000-0000-0000F4050000}"/>
+    <cellStyle name="Output 8 10" xfId="1533" xr:uid="{00000000-0005-0000-0000-0000F5050000}"/>
+    <cellStyle name="Output 8 11" xfId="1534" xr:uid="{00000000-0005-0000-0000-0000F6050000}"/>
+    <cellStyle name="Output 8 12" xfId="1535" xr:uid="{00000000-0005-0000-0000-0000F7050000}"/>
+    <cellStyle name="Output 8 2" xfId="1536" xr:uid="{00000000-0005-0000-0000-0000F8050000}"/>
+    <cellStyle name="Output 8 2 10" xfId="1537" xr:uid="{00000000-0005-0000-0000-0000F9050000}"/>
+    <cellStyle name="Output 8 2 2" xfId="1538" xr:uid="{00000000-0005-0000-0000-0000FA050000}"/>
+    <cellStyle name="Output 8 2 3" xfId="1539" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
+    <cellStyle name="Output 8 2 4" xfId="1540" xr:uid="{00000000-0005-0000-0000-0000FC050000}"/>
+    <cellStyle name="Output 8 2 5" xfId="1541" xr:uid="{00000000-0005-0000-0000-0000FD050000}"/>
+    <cellStyle name="Output 8 2 6" xfId="1542" xr:uid="{00000000-0005-0000-0000-0000FE050000}"/>
+    <cellStyle name="Output 8 2 7" xfId="1543" xr:uid="{00000000-0005-0000-0000-0000FF050000}"/>
+    <cellStyle name="Output 8 2 8" xfId="1544" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
+    <cellStyle name="Output 8 2 9" xfId="1545" xr:uid="{00000000-0005-0000-0000-000001060000}"/>
+    <cellStyle name="Output 8 3" xfId="1546" xr:uid="{00000000-0005-0000-0000-000002060000}"/>
+    <cellStyle name="Output 8 3 10" xfId="1547" xr:uid="{00000000-0005-0000-0000-000003060000}"/>
+    <cellStyle name="Output 8 3 2" xfId="1548" xr:uid="{00000000-0005-0000-0000-000004060000}"/>
+    <cellStyle name="Output 8 3 3" xfId="1549" xr:uid="{00000000-0005-0000-0000-000005060000}"/>
+    <cellStyle name="Output 8 3 4" xfId="1550" xr:uid="{00000000-0005-0000-0000-000006060000}"/>
+    <cellStyle name="Output 8 3 5" xfId="1551" xr:uid="{00000000-0005-0000-0000-000007060000}"/>
+    <cellStyle name="Output 8 3 6" xfId="1552" xr:uid="{00000000-0005-0000-0000-000008060000}"/>
+    <cellStyle name="Output 8 3 7" xfId="1553" xr:uid="{00000000-0005-0000-0000-000009060000}"/>
+    <cellStyle name="Output 8 3 8" xfId="1554" xr:uid="{00000000-0005-0000-0000-00000A060000}"/>
+    <cellStyle name="Output 8 3 9" xfId="1555" xr:uid="{00000000-0005-0000-0000-00000B060000}"/>
+    <cellStyle name="Output 8 4" xfId="1556" xr:uid="{00000000-0005-0000-0000-00000C060000}"/>
+    <cellStyle name="Output 8 5" xfId="1557" xr:uid="{00000000-0005-0000-0000-00000D060000}"/>
+    <cellStyle name="Output 8 6" xfId="1558" xr:uid="{00000000-0005-0000-0000-00000E060000}"/>
+    <cellStyle name="Output 8 7" xfId="1559" xr:uid="{00000000-0005-0000-0000-00000F060000}"/>
+    <cellStyle name="Output 8 8" xfId="1560" xr:uid="{00000000-0005-0000-0000-000010060000}"/>
+    <cellStyle name="Output 8 9" xfId="1561" xr:uid="{00000000-0005-0000-0000-000011060000}"/>
+    <cellStyle name="Output 9" xfId="1562" xr:uid="{00000000-0005-0000-0000-000012060000}"/>
+    <cellStyle name="Output 9 10" xfId="1563" xr:uid="{00000000-0005-0000-0000-000013060000}"/>
+    <cellStyle name="Output 9 11" xfId="1564" xr:uid="{00000000-0005-0000-0000-000014060000}"/>
+    <cellStyle name="Output 9 12" xfId="1565" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
+    <cellStyle name="Output 9 2" xfId="1566" xr:uid="{00000000-0005-0000-0000-000016060000}"/>
+    <cellStyle name="Output 9 2 10" xfId="1567" xr:uid="{00000000-0005-0000-0000-000017060000}"/>
+    <cellStyle name="Output 9 2 2" xfId="1568" xr:uid="{00000000-0005-0000-0000-000018060000}"/>
+    <cellStyle name="Output 9 2 3" xfId="1569" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
+    <cellStyle name="Output 9 2 4" xfId="1570" xr:uid="{00000000-0005-0000-0000-00001A060000}"/>
+    <cellStyle name="Output 9 2 5" xfId="1571" xr:uid="{00000000-0005-0000-0000-00001B060000}"/>
+    <cellStyle name="Output 9 2 6" xfId="1572" xr:uid="{00000000-0005-0000-0000-00001C060000}"/>
+    <cellStyle name="Output 9 2 7" xfId="1573" xr:uid="{00000000-0005-0000-0000-00001D060000}"/>
+    <cellStyle name="Output 9 2 8" xfId="1574" xr:uid="{00000000-0005-0000-0000-00001E060000}"/>
+    <cellStyle name="Output 9 2 9" xfId="1575" xr:uid="{00000000-0005-0000-0000-00001F060000}"/>
+    <cellStyle name="Output 9 3" xfId="1576" xr:uid="{00000000-0005-0000-0000-000020060000}"/>
+    <cellStyle name="Output 9 3 10" xfId="1577" xr:uid="{00000000-0005-0000-0000-000021060000}"/>
+    <cellStyle name="Output 9 3 2" xfId="1578" xr:uid="{00000000-0005-0000-0000-000022060000}"/>
+    <cellStyle name="Output 9 3 3" xfId="1579" xr:uid="{00000000-0005-0000-0000-000023060000}"/>
+    <cellStyle name="Output 9 3 4" xfId="1580" xr:uid="{00000000-0005-0000-0000-000024060000}"/>
+    <cellStyle name="Output 9 3 5" xfId="1581" xr:uid="{00000000-0005-0000-0000-000025060000}"/>
+    <cellStyle name="Output 9 3 6" xfId="1582" xr:uid="{00000000-0005-0000-0000-000026060000}"/>
+    <cellStyle name="Output 9 3 7" xfId="1583" xr:uid="{00000000-0005-0000-0000-000027060000}"/>
+    <cellStyle name="Output 9 3 8" xfId="1584" xr:uid="{00000000-0005-0000-0000-000028060000}"/>
+    <cellStyle name="Output 9 3 9" xfId="1585" xr:uid="{00000000-0005-0000-0000-000029060000}"/>
+    <cellStyle name="Output 9 4" xfId="1586" xr:uid="{00000000-0005-0000-0000-00002A060000}"/>
+    <cellStyle name="Output 9 5" xfId="1587" xr:uid="{00000000-0005-0000-0000-00002B060000}"/>
+    <cellStyle name="Output 9 6" xfId="1588" xr:uid="{00000000-0005-0000-0000-00002C060000}"/>
+    <cellStyle name="Output 9 7" xfId="1589" xr:uid="{00000000-0005-0000-0000-00002D060000}"/>
+    <cellStyle name="Output 9 8" xfId="1590" xr:uid="{00000000-0005-0000-0000-00002E060000}"/>
+    <cellStyle name="Output 9 9" xfId="1591" xr:uid="{00000000-0005-0000-0000-00002F060000}"/>
+    <cellStyle name="Percent 2" xfId="1592" xr:uid="{00000000-0005-0000-0000-000031060000}"/>
+    <cellStyle name="Section Heading" xfId="1593" xr:uid="{00000000-0005-0000-0000-000032060000}"/>
+    <cellStyle name="Title 10" xfId="1594" xr:uid="{00000000-0005-0000-0000-000033060000}"/>
+    <cellStyle name="Title 2" xfId="1595" xr:uid="{00000000-0005-0000-0000-000034060000}"/>
+    <cellStyle name="Title 3" xfId="1596" xr:uid="{00000000-0005-0000-0000-000035060000}"/>
+    <cellStyle name="Title 4" xfId="1597" xr:uid="{00000000-0005-0000-0000-000036060000}"/>
+    <cellStyle name="Title 5" xfId="1598" xr:uid="{00000000-0005-0000-0000-000037060000}"/>
+    <cellStyle name="Title 6" xfId="1599" xr:uid="{00000000-0005-0000-0000-000038060000}"/>
+    <cellStyle name="Title 7" xfId="1600" xr:uid="{00000000-0005-0000-0000-000039060000}"/>
+    <cellStyle name="Title 8" xfId="1601" xr:uid="{00000000-0005-0000-0000-00003A060000}"/>
+    <cellStyle name="Title 9" xfId="1602" xr:uid="{00000000-0005-0000-0000-00003B060000}"/>
+    <cellStyle name="Total 10" xfId="1603" xr:uid="{00000000-0005-0000-0000-00003C060000}"/>
+    <cellStyle name="Total 10 10" xfId="1604" xr:uid="{00000000-0005-0000-0000-00003D060000}"/>
+    <cellStyle name="Total 10 11" xfId="1605" xr:uid="{00000000-0005-0000-0000-00003E060000}"/>
+    <cellStyle name="Total 10 12" xfId="1606" xr:uid="{00000000-0005-0000-0000-00003F060000}"/>
+    <cellStyle name="Total 10 2" xfId="1607" xr:uid="{00000000-0005-0000-0000-000040060000}"/>
+    <cellStyle name="Total 10 2 10" xfId="1608" xr:uid="{00000000-0005-0000-0000-000041060000}"/>
+    <cellStyle name="Total 10 2 2" xfId="1609" xr:uid="{00000000-0005-0000-0000-000042060000}"/>
+    <cellStyle name="Total 10 2 3" xfId="1610" xr:uid="{00000000-0005-0000-0000-000043060000}"/>
+    <cellStyle name="Total 10 2 4" xfId="1611" xr:uid="{00000000-0005-0000-0000-000044060000}"/>
+    <cellStyle name="Total 10 2 5" xfId="1612" xr:uid="{00000000-0005-0000-0000-000045060000}"/>
+    <cellStyle name="Total 10 2 6" xfId="1613" xr:uid="{00000000-0005-0000-0000-000046060000}"/>
+    <cellStyle name="Total 10 2 7" xfId="1614" xr:uid="{00000000-0005-0000-0000-000047060000}"/>
+    <cellStyle name="Total 10 2 8" xfId="1615" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
+    <cellStyle name="Total 10 2 9" xfId="1616" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
+    <cellStyle name="Total 10 3" xfId="1617" xr:uid="{00000000-0005-0000-0000-00004A060000}"/>
+    <cellStyle name="Total 10 3 10" xfId="1618" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
+    <cellStyle name="Total 10 3 2" xfId="1619" xr:uid="{00000000-0005-0000-0000-00004C060000}"/>
+    <cellStyle name="Total 10 3 3" xfId="1620" xr:uid="{00000000-0005-0000-0000-00004D060000}"/>
+    <cellStyle name="Total 10 3 4" xfId="1621" xr:uid="{00000000-0005-0000-0000-00004E060000}"/>
+    <cellStyle name="Total 10 3 5" xfId="1622" xr:uid="{00000000-0005-0000-0000-00004F060000}"/>
+    <cellStyle name="Total 10 3 6" xfId="1623" xr:uid="{00000000-0005-0000-0000-000050060000}"/>
+    <cellStyle name="Total 10 3 7" xfId="1624" xr:uid="{00000000-0005-0000-0000-000051060000}"/>
+    <cellStyle name="Total 10 3 8" xfId="1625" xr:uid="{00000000-0005-0000-0000-000052060000}"/>
+    <cellStyle name="Total 10 3 9" xfId="1626" xr:uid="{00000000-0005-0000-0000-000053060000}"/>
+    <cellStyle name="Total 10 4" xfId="1627" xr:uid="{00000000-0005-0000-0000-000054060000}"/>
+    <cellStyle name="Total 10 5" xfId="1628" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
+    <cellStyle name="Total 10 6" xfId="1629" xr:uid="{00000000-0005-0000-0000-000056060000}"/>
+    <cellStyle name="Total 10 7" xfId="1630" xr:uid="{00000000-0005-0000-0000-000057060000}"/>
+    <cellStyle name="Total 10 8" xfId="1631" xr:uid="{00000000-0005-0000-0000-000058060000}"/>
+    <cellStyle name="Total 10 9" xfId="1632" xr:uid="{00000000-0005-0000-0000-000059060000}"/>
+    <cellStyle name="Total 2" xfId="1633" xr:uid="{00000000-0005-0000-0000-00005A060000}"/>
+    <cellStyle name="Total 2 10" xfId="1634" xr:uid="{00000000-0005-0000-0000-00005B060000}"/>
+    <cellStyle name="Total 2 11" xfId="1635" xr:uid="{00000000-0005-0000-0000-00005C060000}"/>
+    <cellStyle name="Total 2 12" xfId="1636" xr:uid="{00000000-0005-0000-0000-00005D060000}"/>
+    <cellStyle name="Total 2 2" xfId="1637" xr:uid="{00000000-0005-0000-0000-00005E060000}"/>
+    <cellStyle name="Total 2 2 10" xfId="1638" xr:uid="{00000000-0005-0000-0000-00005F060000}"/>
+    <cellStyle name="Total 2 2 2" xfId="1639" xr:uid="{00000000-0005-0000-0000-000060060000}"/>
+    <cellStyle name="Total 2 2 3" xfId="1640" xr:uid="{00000000-0005-0000-0000-000061060000}"/>
+    <cellStyle name="Total 2 2 4" xfId="1641" xr:uid="{00000000-0005-0000-0000-000062060000}"/>
+    <cellStyle name="Total 2 2 5" xfId="1642" xr:uid="{00000000-0005-0000-0000-000063060000}"/>
+    <cellStyle name="Total 2 2 6" xfId="1643" xr:uid="{00000000-0005-0000-0000-000064060000}"/>
+    <cellStyle name="Total 2 2 7" xfId="1644" xr:uid="{00000000-0005-0000-0000-000065060000}"/>
+    <cellStyle name="Total 2 2 8" xfId="1645" xr:uid="{00000000-0005-0000-0000-000066060000}"/>
+    <cellStyle name="Total 2 2 9" xfId="1646" xr:uid="{00000000-0005-0000-0000-000067060000}"/>
+    <cellStyle name="Total 2 3" xfId="1647" xr:uid="{00000000-0005-0000-0000-000068060000}"/>
+    <cellStyle name="Total 2 3 10" xfId="1648" xr:uid="{00000000-0005-0000-0000-000069060000}"/>
+    <cellStyle name="Total 2 3 2" xfId="1649" xr:uid="{00000000-0005-0000-0000-00006A060000}"/>
+    <cellStyle name="Total 2 3 3" xfId="1650" xr:uid="{00000000-0005-0000-0000-00006B060000}"/>
+    <cellStyle name="Total 2 3 4" xfId="1651" xr:uid="{00000000-0005-0000-0000-00006C060000}"/>
+    <cellStyle name="Total 2 3 5" xfId="1652" xr:uid="{00000000-0005-0000-0000-00006D060000}"/>
+    <cellStyle name="Total 2 3 6" xfId="1653" xr:uid="{00000000-0005-0000-0000-00006E060000}"/>
+    <cellStyle name="Total 2 3 7" xfId="1654" xr:uid="{00000000-0005-0000-0000-00006F060000}"/>
+    <cellStyle name="Total 2 3 8" xfId="1655" xr:uid="{00000000-0005-0000-0000-000070060000}"/>
+    <cellStyle name="Total 2 3 9" xfId="1656" xr:uid="{00000000-0005-0000-0000-000071060000}"/>
+    <cellStyle name="Total 2 4" xfId="1657" xr:uid="{00000000-0005-0000-0000-000072060000}"/>
+    <cellStyle name="Total 2 5" xfId="1658" xr:uid="{00000000-0005-0000-0000-000073060000}"/>
+    <cellStyle name="Total 2 6" xfId="1659" xr:uid="{00000000-0005-0000-0000-000074060000}"/>
+    <cellStyle name="Total 2 7" xfId="1660" xr:uid="{00000000-0005-0000-0000-000075060000}"/>
+    <cellStyle name="Total 2 8" xfId="1661" xr:uid="{00000000-0005-0000-0000-000076060000}"/>
+    <cellStyle name="Total 2 9" xfId="1662" xr:uid="{00000000-0005-0000-0000-000077060000}"/>
+    <cellStyle name="Total 3" xfId="1663" xr:uid="{00000000-0005-0000-0000-000078060000}"/>
+    <cellStyle name="Total 3 10" xfId="1664" xr:uid="{00000000-0005-0000-0000-000079060000}"/>
+    <cellStyle name="Total 3 11" xfId="1665" xr:uid="{00000000-0005-0000-0000-00007A060000}"/>
+    <cellStyle name="Total 3 12" xfId="1666" xr:uid="{00000000-0005-0000-0000-00007B060000}"/>
+    <cellStyle name="Total 3 2" xfId="1667" xr:uid="{00000000-0005-0000-0000-00007C060000}"/>
+    <cellStyle name="Total 3 2 10" xfId="1668" xr:uid="{00000000-0005-0000-0000-00007D060000}"/>
+    <cellStyle name="Total 3 2 2" xfId="1669" xr:uid="{00000000-0005-0000-0000-00007E060000}"/>
+    <cellStyle name="Total 3 2 3" xfId="1670" xr:uid="{00000000-0005-0000-0000-00007F060000}"/>
+    <cellStyle name="Total 3 2 4" xfId="1671" xr:uid="{00000000-0005-0000-0000-000080060000}"/>
+    <cellStyle name="Total 3 2 5" xfId="1672" xr:uid="{00000000-0005-0000-0000-000081060000}"/>
+    <cellStyle name="Total 3 2 6" xfId="1673" xr:uid="{00000000-0005-0000-0000-000082060000}"/>
+    <cellStyle name="Total 3 2 7" xfId="1674" xr:uid="{00000000-0005-0000-0000-000083060000}"/>
+    <cellStyle name="Total 3 2 8" xfId="1675" xr:uid="{00000000-0005-0000-0000-000084060000}"/>
+    <cellStyle name="Total 3 2 9" xfId="1676" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
+    <cellStyle name="Total 3 3" xfId="1677" xr:uid="{00000000-0005-0000-0000-000086060000}"/>
+    <cellStyle name="Total 3 3 10" xfId="1678" xr:uid="{00000000-0005-0000-0000-000087060000}"/>
+    <cellStyle name="Total 3 3 2" xfId="1679" xr:uid="{00000000-0005-0000-0000-000088060000}"/>
+    <cellStyle name="Total 3 3 3" xfId="1680" xr:uid="{00000000-0005-0000-0000-000089060000}"/>
+    <cellStyle name="Total 3 3 4" xfId="1681" xr:uid="{00000000-0005-0000-0000-00008A060000}"/>
+    <cellStyle name="Total 3 3 5" xfId="1682" xr:uid="{00000000-0005-0000-0000-00008B060000}"/>
+    <cellStyle name="Total 3 3 6" xfId="1683" xr:uid="{00000000-0005-0000-0000-00008C060000}"/>
+    <cellStyle name="Total 3 3 7" xfId="1684" xr:uid="{00000000-0005-0000-0000-00008D060000}"/>
+    <cellStyle name="Total 3 3 8" xfId="1685" xr:uid="{00000000-0005-0000-0000-00008E060000}"/>
+    <cellStyle name="Total 3 3 9" xfId="1686" xr:uid="{00000000-0005-0000-0000-00008F060000}"/>
+    <cellStyle name="Total 3 4" xfId="1687" xr:uid="{00000000-0005-0000-0000-000090060000}"/>
+    <cellStyle name="Total 3 5" xfId="1688" xr:uid="{00000000-0005-0000-0000-000091060000}"/>
+    <cellStyle name="Total 3 6" xfId="1689" xr:uid="{00000000-0005-0000-0000-000092060000}"/>
+    <cellStyle name="Total 3 7" xfId="1690" xr:uid="{00000000-0005-0000-0000-000093060000}"/>
+    <cellStyle name="Total 3 8" xfId="1691" xr:uid="{00000000-0005-0000-0000-000094060000}"/>
+    <cellStyle name="Total 3 9" xfId="1692" xr:uid="{00000000-0005-0000-0000-000095060000}"/>
+    <cellStyle name="Total 4" xfId="1693" xr:uid="{00000000-0005-0000-0000-000096060000}"/>
+    <cellStyle name="Total 4 10" xfId="1694" xr:uid="{00000000-0005-0000-0000-000097060000}"/>
+    <cellStyle name="Total 4 11" xfId="1695" xr:uid="{00000000-0005-0000-0000-000098060000}"/>
+    <cellStyle name="Total 4 12" xfId="1696" xr:uid="{00000000-0005-0000-0000-000099060000}"/>
+    <cellStyle name="Total 4 2" xfId="1697" xr:uid="{00000000-0005-0000-0000-00009A060000}"/>
+    <cellStyle name="Total 4 2 10" xfId="1698" xr:uid="{00000000-0005-0000-0000-00009B060000}"/>
+    <cellStyle name="Total 4 2 2" xfId="1699" xr:uid="{00000000-0005-0000-0000-00009C060000}"/>
+    <cellStyle name="Total 4 2 3" xfId="1700" xr:uid="{00000000-0005-0000-0000-00009D060000}"/>
+    <cellStyle name="Total 4 2 4" xfId="1701" xr:uid="{00000000-0005-0000-0000-00009E060000}"/>
+    <cellStyle name="Total 4 2 5" xfId="1702" xr:uid="{00000000-0005-0000-0000-00009F060000}"/>
+    <cellStyle name="Total 4 2 6" xfId="1703" xr:uid="{00000000-0005-0000-0000-0000A0060000}"/>
+    <cellStyle name="Total 4 2 7" xfId="1704" xr:uid="{00000000-0005-0000-0000-0000A1060000}"/>
+    <cellStyle name="Total 4 2 8" xfId="1705" xr:uid="{00000000-0005-0000-0000-0000A2060000}"/>
+    <cellStyle name="Total 4 2 9" xfId="1706" xr:uid="{00000000-0005-0000-0000-0000A3060000}"/>
+    <cellStyle name="Total 4 3" xfId="1707" xr:uid="{00000000-0005-0000-0000-0000A4060000}"/>
+    <cellStyle name="Total 4 3 10" xfId="1708" xr:uid="{00000000-0005-0000-0000-0000A5060000}"/>
+    <cellStyle name="Total 4 3 2" xfId="1709" xr:uid="{00000000-0005-0000-0000-0000A6060000}"/>
+    <cellStyle name="Total 4 3 3" xfId="1710" xr:uid="{00000000-0005-0000-0000-0000A7060000}"/>
+    <cellStyle name="Total 4 3 4" xfId="1711" xr:uid="{00000000-0005-0000-0000-0000A8060000}"/>
+    <cellStyle name="Total 4 3 5" xfId="1712" xr:uid="{00000000-0005-0000-0000-0000A9060000}"/>
+    <cellStyle name="Total 4 3 6" xfId="1713" xr:uid="{00000000-0005-0000-0000-0000AA060000}"/>
+    <cellStyle name="Total 4 3 7" xfId="1714" xr:uid="{00000000-0005-0000-0000-0000AB060000}"/>
+    <cellStyle name="Total 4 3 8" xfId="1715" xr:uid="{00000000-0005-0000-0000-0000AC060000}"/>
+    <cellStyle name="Total 4 3 9" xfId="1716" xr:uid="{00000000-0005-0000-0000-0000AD060000}"/>
+    <cellStyle name="Total 4 4" xfId="1717" xr:uid="{00000000-0005-0000-0000-0000AE060000}"/>
+    <cellStyle name="Total 4 5" xfId="1718" xr:uid="{00000000-0005-0000-0000-0000AF060000}"/>
+    <cellStyle name="Total 4 6" xfId="1719" xr:uid="{00000000-0005-0000-0000-0000B0060000}"/>
+    <cellStyle name="Total 4 7" xfId="1720" xr:uid="{00000000-0005-0000-0000-0000B1060000}"/>
+    <cellStyle name="Total 4 8" xfId="1721" xr:uid="{00000000-0005-0000-0000-0000B2060000}"/>
+    <cellStyle name="Total 4 9" xfId="1722" xr:uid="{00000000-0005-0000-0000-0000B3060000}"/>
+    <cellStyle name="Total 5" xfId="1723" xr:uid="{00000000-0005-0000-0000-0000B4060000}"/>
+    <cellStyle name="Total 5 10" xfId="1724" xr:uid="{00000000-0005-0000-0000-0000B5060000}"/>
+    <cellStyle name="Total 5 11" xfId="1725" xr:uid="{00000000-0005-0000-0000-0000B6060000}"/>
+    <cellStyle name="Total 5 12" xfId="1726" xr:uid="{00000000-0005-0000-0000-0000B7060000}"/>
+    <cellStyle name="Total 5 2" xfId="1727" xr:uid="{00000000-0005-0000-0000-0000B8060000}"/>
+    <cellStyle name="Total 5 2 10" xfId="1728" xr:uid="{00000000-0005-0000-0000-0000B9060000}"/>
+    <cellStyle name="Total 5 2 2" xfId="1729" xr:uid="{00000000-0005-0000-0000-0000BA060000}"/>
+    <cellStyle name="Total 5 2 3" xfId="1730" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
+    <cellStyle name="Total 5 2 4" xfId="1731" xr:uid="{00000000-0005-0000-0000-0000BC060000}"/>
+    <cellStyle name="Total 5 2 5" xfId="1732" xr:uid="{00000000-0005-0000-0000-0000BD060000}"/>
+    <cellStyle name="Total 5 2 6" xfId="1733" xr:uid="{00000000-0005-0000-0000-0000BE060000}"/>
+    <cellStyle name="Total 5 2 7" xfId="1734" xr:uid="{00000000-0005-0000-0000-0000BF060000}"/>
+    <cellStyle name="Total 5 2 8" xfId="1735" xr:uid="{00000000-0005-0000-0000-0000C0060000}"/>
+    <cellStyle name="Total 5 2 9" xfId="1736" xr:uid="{00000000-0005-0000-0000-0000C1060000}"/>
+    <cellStyle name="Total 5 3" xfId="1737" xr:uid="{00000000-0005-0000-0000-0000C2060000}"/>
+    <cellStyle name="Total 5 3 10" xfId="1738" xr:uid="{00000000-0005-0000-0000-0000C3060000}"/>
+    <cellStyle name="Total 5 3 2" xfId="1739" xr:uid="{00000000-0005-0000-0000-0000C4060000}"/>
+    <cellStyle name="Total 5 3 3" xfId="1740" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
+    <cellStyle name="Total 5 3 4" xfId="1741" xr:uid="{00000000-0005-0000-0000-0000C6060000}"/>
+    <cellStyle name="Total 5 3 5" xfId="1742" xr:uid="{00000000-0005-0000-0000-0000C7060000}"/>
+    <cellStyle name="Total 5 3 6" xfId="1743" xr:uid="{00000000-0005-0000-0000-0000C8060000}"/>
+    <cellStyle name="Total 5 3 7" xfId="1744" xr:uid="{00000000-0005-0000-0000-0000C9060000}"/>
+    <cellStyle name="Total 5 3 8" xfId="1745" xr:uid="{00000000-0005-0000-0000-0000CA060000}"/>
+    <cellStyle name="Total 5 3 9" xfId="1746" xr:uid="{00000000-0005-0000-0000-0000CB060000}"/>
+    <cellStyle name="Total 5 4" xfId="1747" xr:uid="{00000000-0005-0000-0000-0000CC060000}"/>
+    <cellStyle name="Total 5 5" xfId="1748" xr:uid="{00000000-0005-0000-0000-0000CD060000}"/>
+    <cellStyle name="Total 5 6" xfId="1749" xr:uid="{00000000-0005-0000-0000-0000CE060000}"/>
+    <cellStyle name="Total 5 7" xfId="1750" xr:uid="{00000000-0005-0000-0000-0000CF060000}"/>
+    <cellStyle name="Total 5 8" xfId="1751" xr:uid="{00000000-0005-0000-0000-0000D0060000}"/>
+    <cellStyle name="Total 5 9" xfId="1752" xr:uid="{00000000-0005-0000-0000-0000D1060000}"/>
+    <cellStyle name="Total 6" xfId="1753" xr:uid="{00000000-0005-0000-0000-0000D2060000}"/>
+    <cellStyle name="Total 6 10" xfId="1754" xr:uid="{00000000-0005-0000-0000-0000D3060000}"/>
+    <cellStyle name="Total 6 11" xfId="1755" xr:uid="{00000000-0005-0000-0000-0000D4060000}"/>
+    <cellStyle name="Total 6 12" xfId="1756" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
+    <cellStyle name="Total 6 2" xfId="1757" xr:uid="{00000000-0005-0000-0000-0000D6060000}"/>
+    <cellStyle name="Total 6 2 10" xfId="1758" xr:uid="{00000000-0005-0000-0000-0000D7060000}"/>
+    <cellStyle name="Total 6 2 2" xfId="1759" xr:uid="{00000000-0005-0000-0000-0000D8060000}"/>
+    <cellStyle name="Total 6 2 3" xfId="1760" xr:uid="{00000000-0005-0000-0000-0000D9060000}"/>
+    <cellStyle name="Total 6 2 4" xfId="1761" xr:uid="{00000000-0005-0000-0000-0000DA060000}"/>
+    <cellStyle name="Total 6 2 5" xfId="1762" xr:uid="{00000000-0005-0000-0000-0000DB060000}"/>
+    <cellStyle name="Total 6 2 6" xfId="1763" xr:uid="{00000000-0005-0000-0000-0000DC060000}"/>
+    <cellStyle name="Total 6 2 7" xfId="1764" xr:uid="{00000000-0005-0000-0000-0000DD060000}"/>
+    <cellStyle name="Total 6 2 8" xfId="1765" xr:uid="{00000000-0005-0000-0000-0000DE060000}"/>
+    <cellStyle name="Total 6 2 9" xfId="1766" xr:uid="{00000000-0005-0000-0000-0000DF060000}"/>
+    <cellStyle name="Total 6 3" xfId="1767" xr:uid="{00000000-0005-0000-0000-0000E0060000}"/>
+    <cellStyle name="Total 6 3 10" xfId="1768" xr:uid="{00000000-0005-0000-0000-0000E1060000}"/>
+    <cellStyle name="Total 6 3 2" xfId="1769" xr:uid="{00000000-0005-0000-0000-0000E2060000}"/>
+    <cellStyle name="Total 6 3 3" xfId="1770" xr:uid="{00000000-0005-0000-0000-0000E3060000}"/>
+    <cellStyle name="Total 6 3 4" xfId="1771" xr:uid="{00000000-0005-0000-0000-0000E4060000}"/>
+    <cellStyle name="Total 6 3 5" xfId="1772" xr:uid="{00000000-0005-0000-0000-0000E5060000}"/>
+    <cellStyle name="Total 6 3 6" xfId="1773" xr:uid="{00000000-0005-0000-0000-0000E6060000}"/>
+    <cellStyle name="Total 6 3 7" xfId="1774" xr:uid="{00000000-0005-0000-0000-0000E7060000}"/>
+    <cellStyle name="Total 6 3 8" xfId="1775" xr:uid="{00000000-0005-0000-0000-0000E8060000}"/>
+    <cellStyle name="Total 6 3 9" xfId="1776" xr:uid="{00000000-0005-0000-0000-0000E9060000}"/>
+    <cellStyle name="Total 6 4" xfId="1777" xr:uid="{00000000-0005-0000-0000-0000EA060000}"/>
+    <cellStyle name="Total 6 5" xfId="1778" xr:uid="{00000000-0005-0000-0000-0000EB060000}"/>
+    <cellStyle name="Total 6 6" xfId="1779" xr:uid="{00000000-0005-0000-0000-0000EC060000}"/>
+    <cellStyle name="Total 6 7" xfId="1780" xr:uid="{00000000-0005-0000-0000-0000ED060000}"/>
+    <cellStyle name="Total 6 8" xfId="1781" xr:uid="{00000000-0005-0000-0000-0000EE060000}"/>
+    <cellStyle name="Total 6 9" xfId="1782" xr:uid="{00000000-0005-0000-0000-0000EF060000}"/>
+    <cellStyle name="Total 7" xfId="1783" xr:uid="{00000000-0005-0000-0000-0000F0060000}"/>
+    <cellStyle name="Total 7 10" xfId="1784" xr:uid="{00000000-0005-0000-0000-0000F1060000}"/>
+    <cellStyle name="Total 7 11" xfId="1785" xr:uid="{00000000-0005-0000-0000-0000F2060000}"/>
+    <cellStyle name="Total 7 12" xfId="1786" xr:uid="{00000000-0005-0000-0000-0000F3060000}"/>
+    <cellStyle name="Total 7 2" xfId="1787" xr:uid="{00000000-0005-0000-0000-0000F4060000}"/>
+    <cellStyle name="Total 7 2 10" xfId="1788" xr:uid="{00000000-0005-0000-0000-0000F5060000}"/>
+    <cellStyle name="Total 7 2 2" xfId="1789" xr:uid="{00000000-0005-0000-0000-0000F6060000}"/>
+    <cellStyle name="Total 7 2 3" xfId="1790" xr:uid="{00000000-0005-0000-0000-0000F7060000}"/>
+    <cellStyle name="Total 7 2 4" xfId="1791" xr:uid="{00000000-0005-0000-0000-0000F8060000}"/>
+    <cellStyle name="Total 7 2 5" xfId="1792" xr:uid="{00000000-0005-0000-0000-0000F9060000}"/>
+    <cellStyle name="Total 7 2 6" xfId="1793" xr:uid="{00000000-0005-0000-0000-0000FA060000}"/>
+    <cellStyle name="Total 7 2 7" xfId="1794" xr:uid="{00000000-0005-0000-0000-0000FB060000}"/>
+    <cellStyle name="Total 7 2 8" xfId="1795" xr:uid="{00000000-0005-0000-0000-0000FC060000}"/>
+    <cellStyle name="Total 7 2 9" xfId="1796" xr:uid="{00000000-0005-0000-0000-0000FD060000}"/>
+    <cellStyle name="Total 7 3" xfId="1797" xr:uid="{00000000-0005-0000-0000-0000FE060000}"/>
+    <cellStyle name="Total 7 3 10" xfId="1798" xr:uid="{00000000-0005-0000-0000-0000FF060000}"/>
+    <cellStyle name="Total 7 3 2" xfId="1799" xr:uid="{00000000-0005-0000-0000-000000070000}"/>
+    <cellStyle name="Total 7 3 3" xfId="1800" xr:uid="{00000000-0005-0000-0000-000001070000}"/>
+    <cellStyle name="Total 7 3 4" xfId="1801" xr:uid="{00000000-0005-0000-0000-000002070000}"/>
+    <cellStyle name="Total 7 3 5" xfId="1802" xr:uid="{00000000-0005-0000-0000-000003070000}"/>
+    <cellStyle name="Total 7 3 6" xfId="1803" xr:uid="{00000000-0005-0000-0000-000004070000}"/>
+    <cellStyle name="Total 7 3 7" xfId="1804" xr:uid="{00000000-0005-0000-0000-000005070000}"/>
+    <cellStyle name="Total 7 3 8" xfId="1805" xr:uid="{00000000-0005-0000-0000-000006070000}"/>
+    <cellStyle name="Total 7 3 9" xfId="1806" xr:uid="{00000000-0005-0000-0000-000007070000}"/>
+    <cellStyle name="Total 7 4" xfId="1807" xr:uid="{00000000-0005-0000-0000-000008070000}"/>
+    <cellStyle name="Total 7 5" xfId="1808" xr:uid="{00000000-0005-0000-0000-000009070000}"/>
+    <cellStyle name="Total 7 6" xfId="1809" xr:uid="{00000000-0005-0000-0000-00000A070000}"/>
+    <cellStyle name="Total 7 7" xfId="1810" xr:uid="{00000000-0005-0000-0000-00000B070000}"/>
+    <cellStyle name="Total 7 8" xfId="1811" xr:uid="{00000000-0005-0000-0000-00000C070000}"/>
+    <cellStyle name="Total 7 9" xfId="1812" xr:uid="{00000000-0005-0000-0000-00000D070000}"/>
+    <cellStyle name="Total 8" xfId="1813" xr:uid="{00000000-0005-0000-0000-00000E070000}"/>
+    <cellStyle name="Total 8 10" xfId="1814" xr:uid="{00000000-0005-0000-0000-00000F070000}"/>
+    <cellStyle name="Total 8 11" xfId="1815" xr:uid="{00000000-0005-0000-0000-000010070000}"/>
+    <cellStyle name="Total 8 12" xfId="1816" xr:uid="{00000000-0005-0000-0000-000011070000}"/>
+    <cellStyle name="Total 8 2" xfId="1817" xr:uid="{00000000-0005-0000-0000-000012070000}"/>
+    <cellStyle name="Total 8 2 10" xfId="1818" xr:uid="{00000000-0005-0000-0000-000013070000}"/>
+    <cellStyle name="Total 8 2 2" xfId="1819" xr:uid="{00000000-0005-0000-0000-000014070000}"/>
+    <cellStyle name="Total 8 2 3" xfId="1820" xr:uid="{00000000-0005-0000-0000-000015070000}"/>
+    <cellStyle name="Total 8 2 4" xfId="1821" xr:uid="{00000000-0005-0000-0000-000016070000}"/>
+    <cellStyle name="Total 8 2 5" xfId="1822" xr:uid="{00000000-0005-0000-0000-000017070000}"/>
+    <cellStyle name="Total 8 2 6" xfId="1823" xr:uid="{00000000-0005-0000-0000-000018070000}"/>
+    <cellStyle name="Total 8 2 7" xfId="1824" xr:uid="{00000000-0005-0000-0000-000019070000}"/>
+    <cellStyle name="Total 8 2 8" xfId="1825" xr:uid="{00000000-0005-0000-0000-00001A070000}"/>
+    <cellStyle name="Total 8 2 9" xfId="1826" xr:uid="{00000000-0005-0000-0000-00001B070000}"/>
+    <cellStyle name="Total 8 3" xfId="1827" xr:uid="{00000000-0005-0000-0000-00001C070000}"/>
+    <cellStyle name="Total 8 3 10" xfId="1828" xr:uid="{00000000-0005-0000-0000-00001D070000}"/>
+    <cellStyle name="Total 8 3 2" xfId="1829" xr:uid="{00000000-0005-0000-0000-00001E070000}"/>
+    <cellStyle name="Total 8 3 3" xfId="1830" xr:uid="{00000000-0005-0000-0000-00001F070000}"/>
+    <cellStyle name="Total 8 3 4" xfId="1831" xr:uid="{00000000-0005-0000-0000-000020070000}"/>
+    <cellStyle name="Total 8 3 5" xfId="1832" xr:uid="{00000000-0005-0000-0000-000021070000}"/>
+    <cellStyle name="Total 8 3 6" xfId="1833" xr:uid="{00000000-0005-0000-0000-000022070000}"/>
+    <cellStyle name="Total 8 3 7" xfId="1834" xr:uid="{00000000-0005-0000-0000-000023070000}"/>
+    <cellStyle name="Total 8 3 8" xfId="1835" xr:uid="{00000000-0005-0000-0000-000024070000}"/>
+    <cellStyle name="Total 8 3 9" xfId="1836" xr:uid="{00000000-0005-0000-0000-000025070000}"/>
+    <cellStyle name="Total 8 4" xfId="1837" xr:uid="{00000000-0005-0000-0000-000026070000}"/>
+    <cellStyle name="Total 8 5" xfId="1838" xr:uid="{00000000-0005-0000-0000-000027070000}"/>
+    <cellStyle name="Total 8 6" xfId="1839" xr:uid="{00000000-0005-0000-0000-000028070000}"/>
+    <cellStyle name="Total 8 7" xfId="1840" xr:uid="{00000000-0005-0000-0000-000029070000}"/>
+    <cellStyle name="Total 8 8" xfId="1841" xr:uid="{00000000-0005-0000-0000-00002A070000}"/>
+    <cellStyle name="Total 8 9" xfId="1842" xr:uid="{00000000-0005-0000-0000-00002B070000}"/>
+    <cellStyle name="Total 9" xfId="1843" xr:uid="{00000000-0005-0000-0000-00002C070000}"/>
+    <cellStyle name="Total 9 10" xfId="1844" xr:uid="{00000000-0005-0000-0000-00002D070000}"/>
+    <cellStyle name="Total 9 11" xfId="1845" xr:uid="{00000000-0005-0000-0000-00002E070000}"/>
+    <cellStyle name="Total 9 12" xfId="1846" xr:uid="{00000000-0005-0000-0000-00002F070000}"/>
+    <cellStyle name="Total 9 2" xfId="1847" xr:uid="{00000000-0005-0000-0000-000030070000}"/>
+    <cellStyle name="Total 9 2 10" xfId="1848" xr:uid="{00000000-0005-0000-0000-000031070000}"/>
+    <cellStyle name="Total 9 2 2" xfId="1849" xr:uid="{00000000-0005-0000-0000-000032070000}"/>
+    <cellStyle name="Total 9 2 3" xfId="1850" xr:uid="{00000000-0005-0000-0000-000033070000}"/>
+    <cellStyle name="Total 9 2 4" xfId="1851" xr:uid="{00000000-0005-0000-0000-000034070000}"/>
+    <cellStyle name="Total 9 2 5" xfId="1852" xr:uid="{00000000-0005-0000-0000-000035070000}"/>
+    <cellStyle name="Total 9 2 6" xfId="1853" xr:uid="{00000000-0005-0000-0000-000036070000}"/>
+    <cellStyle name="Total 9 2 7" xfId="1854" xr:uid="{00000000-0005-0000-0000-000037070000}"/>
+    <cellStyle name="Total 9 2 8" xfId="1855" xr:uid="{00000000-0005-0000-0000-000038070000}"/>
+    <cellStyle name="Total 9 2 9" xfId="1856" xr:uid="{00000000-0005-0000-0000-000039070000}"/>
+    <cellStyle name="Total 9 3" xfId="1857" xr:uid="{00000000-0005-0000-0000-00003A070000}"/>
+    <cellStyle name="Total 9 3 10" xfId="1858" xr:uid="{00000000-0005-0000-0000-00003B070000}"/>
+    <cellStyle name="Total 9 3 2" xfId="1859" xr:uid="{00000000-0005-0000-0000-00003C070000}"/>
+    <cellStyle name="Total 9 3 3" xfId="1860" xr:uid="{00000000-0005-0000-0000-00003D070000}"/>
+    <cellStyle name="Total 9 3 4" xfId="1861" xr:uid="{00000000-0005-0000-0000-00003E070000}"/>
+    <cellStyle name="Total 9 3 5" xfId="1862" xr:uid="{00000000-0005-0000-0000-00003F070000}"/>
+    <cellStyle name="Total 9 3 6" xfId="1863" xr:uid="{00000000-0005-0000-0000-000040070000}"/>
+    <cellStyle name="Total 9 3 7" xfId="1864" xr:uid="{00000000-0005-0000-0000-000041070000}"/>
+    <cellStyle name="Total 9 3 8" xfId="1865" xr:uid="{00000000-0005-0000-0000-000042070000}"/>
+    <cellStyle name="Total 9 3 9" xfId="1866" xr:uid="{00000000-0005-0000-0000-000043070000}"/>
+    <cellStyle name="Total 9 4" xfId="1867" xr:uid="{00000000-0005-0000-0000-000044070000}"/>
+    <cellStyle name="Total 9 5" xfId="1868" xr:uid="{00000000-0005-0000-0000-000045070000}"/>
+    <cellStyle name="Total 9 6" xfId="1869" xr:uid="{00000000-0005-0000-0000-000046070000}"/>
+    <cellStyle name="Total 9 7" xfId="1870" xr:uid="{00000000-0005-0000-0000-000047070000}"/>
+    <cellStyle name="Total 9 8" xfId="1871" xr:uid="{00000000-0005-0000-0000-000048070000}"/>
+    <cellStyle name="Total 9 9" xfId="1872" xr:uid="{00000000-0005-0000-0000-000049070000}"/>
+    <cellStyle name="Warning Text 10" xfId="1873" xr:uid="{00000000-0005-0000-0000-00004A070000}"/>
+    <cellStyle name="Warning Text 2" xfId="1874" xr:uid="{00000000-0005-0000-0000-00004B070000}"/>
+    <cellStyle name="Warning Text 3" xfId="1875" xr:uid="{00000000-0005-0000-0000-00004C070000}"/>
+    <cellStyle name="Warning Text 4" xfId="1876" xr:uid="{00000000-0005-0000-0000-00004D070000}"/>
+    <cellStyle name="Warning Text 5" xfId="1877" xr:uid="{00000000-0005-0000-0000-00004E070000}"/>
+    <cellStyle name="Warning Text 6" xfId="1878" xr:uid="{00000000-0005-0000-0000-00004F070000}"/>
+    <cellStyle name="Warning Text 7" xfId="1879" xr:uid="{00000000-0005-0000-0000-000050070000}"/>
+    <cellStyle name="Warning Text 8" xfId="1880" xr:uid="{00000000-0005-0000-0000-000051070000}"/>
+    <cellStyle name="Warning Text 9" xfId="1881" xr:uid="{00000000-0005-0000-0000-000052070000}"/>
+    <cellStyle name="Гиперссылка" xfId="1883" builtinId="8"/>
+    <cellStyle name="Гиперссылка 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000053070000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000054070000}"/>
+    <cellStyle name="Обычный 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000055070000}"/>
+    <cellStyle name="Обычный 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000056070000}"/>
+    <cellStyle name="Обычный 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000057070000}"/>
+    <cellStyle name="Обычный 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000058070000}"/>
+    <cellStyle name="Обычный 5 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000059070000}"/>
+    <cellStyle name="Обычный 5 3" xfId="22" xr:uid="{00000000-0005-0000-0000-00005A070000}"/>
+    <cellStyle name="Обычный 6" xfId="19" xr:uid="{00000000-0005-0000-0000-00005B070000}"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6419,7 +6420,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6492,7 +6499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 1"/>
+        <xdr:cNvPr id="3" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6543,7 +6556,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 1"/>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6594,7 +6613,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6632,7 +6657,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6659,9 +6690,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6699,7 +6730,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6734,6 +6765,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6769,9 +6817,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6944,12 +7009,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
@@ -7143,7 +7208,7 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="79" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
@@ -7171,7 +7236,7 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
@@ -7240,10 +7305,10 @@
     <mergeCell ref="C19:J19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C18:J18" location="_st1" display="Step1. Spreadsheet Table and its structure"/>
-    <hyperlink ref="C20:J20" location="_st2" display="Step2. Spreadsheet Table. Returning Single value"/>
-    <hyperlink ref="C21:J21" location="_st3" display="Step3. Custom Spreadsheet Result"/>
-    <hyperlink ref="C19:J19" location="_st11" display="     Step1-1. Spreadsheet Table. Returning Spreadsheet Result"/>
+    <hyperlink ref="C18:J18" location="_st1" display="Step1. Spreadsheet Table and its structure" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C20:J20" location="_st2" display="Step2. Spreadsheet Table. Returning Single value" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C21:J21" location="_st3" display="Step3. Custom Spreadsheet Result" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C19:J19" location="_st11" display="     Step1-1. Spreadsheet Table. Returning Spreadsheet Result" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7251,7 +7316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7809,7 +7874,7 @@
     <row r="53" spans="2:9" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="25"/>
       <c r="C53" s="84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D53" s="84"/>
       <c r="E53" s="84"/>
@@ -8038,12 +8103,12 @@
     <mergeCell ref="C33:G39"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D11 D3:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D11 D3:D7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>uscodes</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C68" location="_st2" tooltip="Step2. Spreadsheet Table. Returning Single value" display="Step 2."/>
+    <hyperlink ref="C68" location="_st2" tooltip="Step2. Spreadsheet Table. Returning Single value" display="Step 2." xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8053,12 +8118,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="15"/>
     <col min="3" max="3" width="24.140625" style="15" customWidth="1"/>
@@ -8258,7 +8325,7 @@
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25"/>
       <c r="C27" s="89" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D27" s="89"/>
       <c r="E27" s="25"/>
@@ -8370,7 +8437,7 @@
     <row r="38" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="25"/>
       <c r="C38" s="84" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D38" s="84"/>
       <c r="E38" s="25"/>
@@ -8522,7 +8589,7 @@
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="25"/>
       <c r="C52" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -8545,10 +8612,10 @@
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
     </row>
-    <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="25"/>
       <c r="C55" s="84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D55" s="84"/>
       <c r="E55" s="84"/>
@@ -8652,7 +8719,7 @@
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="25"/>
       <c r="C64" s="88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" s="88"/>
       <c r="E64" s="88"/>
@@ -8850,12 +8917,12 @@
     <mergeCell ref="C55:E55"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D4:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D4:D7" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>uscodes</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C76" location="_st3" tooltip="Step3. Custom Spreadsheet Result" display="Step 3."/>
+    <hyperlink ref="C76" location="_st3" tooltip="Step3. Custom Spreadsheet Result" display="Step 3." xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8865,12 +8932,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="15"/>
     <col min="3" max="3" width="11.5703125" style="15" customWidth="1"/>
@@ -8883,7 +8950,7 @@
   <sheetData>
     <row r="3" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="23"/>
@@ -8912,7 +8979,7 @@
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="92"/>
       <c r="E8" s="92"/>
@@ -8946,7 +9013,7 @@
     <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
@@ -9004,7 +9071,7 @@
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
@@ -9054,7 +9121,7 @@
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
       <c r="C25" s="89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" s="89"/>
       <c r="E25" s="89"/>
@@ -9190,7 +9257,7 @@
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="89" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" s="89"/>
       <c r="G35" s="25"/>
@@ -9282,7 +9349,7 @@
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="25"/>
       <c r="C44" s="94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="94"/>
       <c r="E44" s="94"/>
@@ -9483,7 +9550,7 @@
     <mergeCell ref="C19:F22"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7 D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7 D11" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>uscodes</formula1>
     </dataValidation>
   </dataValidations>
